--- a/00.기획서/221108_스테이지2 기획서_미완성.xlsx
+++ b/00.기획서/221108_스테이지2 기획서_미완성.xlsx
@@ -14,9 +14,10 @@
   <sheets>
     <sheet name="0. 목차" sheetId="9" r:id="rId1"/>
     <sheet name="1. 스테이지2" sheetId="1" r:id="rId2"/>
-    <sheet name="2. VPS연출" sheetId="8" r:id="rId3"/>
-    <sheet name="4. date" sheetId="6" r:id="rId4"/>
-    <sheet name="5. char" sheetId="7" r:id="rId5"/>
+    <sheet name="2. 신규 연출" sheetId="10" r:id="rId3"/>
+    <sheet name="3. VPS연출" sheetId="8" r:id="rId4"/>
+    <sheet name="4. date" sheetId="6" r:id="rId5"/>
+    <sheet name="5. char" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -5607,7 +5608,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="126">
   <si>
     <t xml:space="preserve">컨셉 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -5988,18 +5989,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2. VPS 연출</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. char</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">스테이지2의 기본정보, 진행방식, 플레이 위치 등을 설명한다   </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -6084,6 +6073,66 @@
   </si>
   <si>
     <t xml:space="preserve">플레이어가 통화를 받고 나서부터 어딘가 저조해보이는 하나. 특별한 이벤트까지 준비 했지만…하나는 한 통의 전화를 받고 급격히 안색이 나삐지는데!   </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김효진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 신규 연출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지2 첫번째 목표지점의 "취향 맞추기" 진행 중 신규 추가된 연출을 설명한다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. VPS 연출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. char</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규 연출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 시작 알리미 추가 - 핀포인트와 진동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">발생 위치 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작 지점과 목표 지점의 이벤트 발생 부근</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연출 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">시각적 전달 - 네비게이션의 도착지점 안내처럼 UI적으로 여기에요 여기 하는 느낌 전달 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>촉각적 전달 - 잠시 휴대폰 화면을 보지 않는 상황을 위해서 진동으로 여기에요 여기 하는 느낌 전달</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">연출 방식 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">사용하는 에셋 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6264,7 +6313,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -6666,13 +6715,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6841,6 +6916,39 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6904,23 +7012,8 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6973,10 +7066,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7125,16 +7215,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>174432</xdr:rowOff>
+      <xdr:rowOff>145857</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7151,7 +7241,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2257425" y="4486275"/>
+          <a:off x="1581150" y="4248150"/>
           <a:ext cx="8334375" cy="4508307"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7706,7 +7796,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:P32"/>
+  <dimension ref="C1:P33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
@@ -7717,38 +7807,38 @@
   <sheetData>
     <row r="1" spans="3:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="58"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="69"/>
     </row>
     <row r="3" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C3" s="59"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="61"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="72"/>
     </row>
     <row r="4" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C4" s="38"/>
@@ -7865,158 +7955,162 @@
     <row r="11" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C11" s="38"/>
       <c r="D11" s="33"/>
-      <c r="E11" s="69" t="s">
+      <c r="E11" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="70"/>
-      <c r="G11" s="71" t="s">
+      <c r="F11" s="81"/>
+      <c r="G11" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="69" t="s">
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="O11" s="70"/>
+      <c r="O11" s="81"/>
       <c r="P11" s="39"/>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C12" s="38"/>
       <c r="D12" s="33"/>
-      <c r="E12" s="63" t="s">
+      <c r="E12" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="64"/>
-      <c r="G12" s="76" t="s">
-        <v>98</v>
-      </c>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="76"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="79" t="s">
+      <c r="F12" s="75"/>
+      <c r="G12" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="O12" s="80"/>
+      <c r="O12" s="64"/>
       <c r="P12" s="39"/>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C13" s="38"/>
       <c r="D13" s="33"/>
-      <c r="E13" s="65" t="s">
-        <v>95</v>
-      </c>
-      <c r="F13" s="66"/>
-      <c r="G13" s="77" t="s">
-        <v>99</v>
-      </c>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="77"/>
-      <c r="M13" s="77"/>
-      <c r="N13" s="81" t="s">
-        <v>80</v>
-      </c>
-      <c r="O13" s="82"/>
+      <c r="E13" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" s="59"/>
+      <c r="G13" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="O13" s="61"/>
       <c r="P13" s="39"/>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C14" s="38"/>
       <c r="D14" s="33"/>
-      <c r="E14" s="65" t="s">
+      <c r="E14" s="76" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" s="77"/>
+      <c r="G14" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="66"/>
-      <c r="G14" s="77" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="77"/>
-      <c r="N14" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="O14" s="41" t="s">
-        <v>72</v>
-      </c>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="O14" s="66"/>
       <c r="P14" s="39"/>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C15" s="38"/>
       <c r="D15" s="33"/>
-      <c r="E15" s="67" t="s">
-        <v>97</v>
-      </c>
-      <c r="F15" s="68"/>
-      <c r="G15" s="78" t="s">
+      <c r="E15" s="76" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" s="77"/>
+      <c r="G15" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="O15" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="P15" s="39"/>
+    </row>
+    <row r="16" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C16" s="38"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="78" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" s="79"/>
+      <c r="G16" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="H15" s="78"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="78"/>
-      <c r="L15" s="78"/>
-      <c r="M15" s="78"/>
-      <c r="N15" s="74" t="s">
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
+      <c r="L16" s="88"/>
+      <c r="M16" s="88"/>
+      <c r="N16" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="O15" s="75"/>
-      <c r="P15" s="39"/>
-    </row>
-    <row r="16" spans="3:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="42"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="43"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C17" s="38"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="39"/>
-    </row>
-    <row r="18" spans="3:16" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="O16" s="86"/>
+      <c r="P16" s="39"/>
+    </row>
+    <row r="17" spans="3:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="42"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="43"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C18" s="38"/>
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
       <c r="F18" s="33"/>
       <c r="G18" s="33"/>
       <c r="H18" s="33"/>
-      <c r="I18" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="J18" s="62"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="33"/>
       <c r="K18" s="33"/>
       <c r="L18" s="33"/>
       <c r="M18" s="33"/>
@@ -8024,17 +8118,17 @@
       <c r="O18" s="33"/>
       <c r="P18" s="39"/>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:16" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C19" s="38"/>
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
       <c r="F19" s="33"/>
-      <c r="G19" s="33" t="s">
-        <v>90</v>
-      </c>
+      <c r="G19" s="33"/>
       <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
+      <c r="I19" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="J19" s="73"/>
       <c r="K19" s="33"/>
       <c r="L19" s="33"/>
       <c r="M19" s="33"/>
@@ -8047,12 +8141,10 @@
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
       <c r="F20" s="33"/>
-      <c r="G20" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="H20" s="33" t="s">
-        <v>82</v>
-      </c>
+      <c r="G20" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" s="33"/>
       <c r="I20" s="33"/>
       <c r="J20" s="33"/>
       <c r="K20" s="33"/>
@@ -8071,7 +8163,7 @@
         <v>73</v>
       </c>
       <c r="H21" s="33" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="I21" s="33"/>
       <c r="J21" s="33"/>
@@ -8088,10 +8180,10 @@
       <c r="E22" s="33"/>
       <c r="F22" s="33"/>
       <c r="G22" s="45" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="H22" s="33" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="I22" s="33"/>
       <c r="J22" s="33"/>
@@ -8107,10 +8199,12 @@
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
       <c r="F23" s="33"/>
-      <c r="G23" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="H23" s="33"/>
+      <c r="G23" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="H23" s="33" t="s">
+        <v>86</v>
+      </c>
       <c r="I23" s="33"/>
       <c r="J23" s="33"/>
       <c r="K23" s="33"/>
@@ -8125,12 +8219,10 @@
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
       <c r="F24" s="33"/>
-      <c r="G24" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="H24" s="33" t="s">
-        <v>108</v>
-      </c>
+      <c r="G24" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24" s="33"/>
       <c r="I24" s="33"/>
       <c r="J24" s="33"/>
       <c r="K24" s="33"/>
@@ -8146,10 +8238,10 @@
       <c r="E25" s="33"/>
       <c r="F25" s="33"/>
       <c r="G25" s="45" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H25" s="33" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I25" s="33"/>
       <c r="J25" s="33"/>
@@ -8166,10 +8258,10 @@
       <c r="E26" s="33"/>
       <c r="F26" s="33"/>
       <c r="G26" s="45" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H26" s="33" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I26" s="33"/>
       <c r="J26" s="33"/>
@@ -8185,10 +8277,12 @@
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
       <c r="F27" s="33"/>
-      <c r="G27" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="H27" s="33"/>
+      <c r="G27" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27" s="33" t="s">
+        <v>107</v>
+      </c>
       <c r="I27" s="33"/>
       <c r="J27" s="33"/>
       <c r="K27" s="33"/>
@@ -8203,7 +8297,9 @@
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
       <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
+      <c r="G28" s="33" t="s">
+        <v>108</v>
+      </c>
       <c r="H28" s="33"/>
       <c r="I28" s="33"/>
       <c r="J28" s="33"/>
@@ -8219,9 +8315,7 @@
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
       <c r="F29" s="33"/>
-      <c r="G29" s="33" t="s">
-        <v>112</v>
-      </c>
+      <c r="G29" s="33"/>
       <c r="H29" s="33"/>
       <c r="I29" s="33"/>
       <c r="J29" s="33"/>
@@ -8237,7 +8331,9 @@
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
+      <c r="G30" s="33" t="s">
+        <v>109</v>
+      </c>
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
       <c r="J30" s="33"/>
@@ -8264,40 +8360,59 @@
       <c r="O31" s="33"/>
       <c r="P31" s="39"/>
     </row>
-    <row r="32" spans="3:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C32" s="42"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="43"/>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C32" s="38"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="33"/>
+      <c r="P32" s="39"/>
+    </row>
+    <row r="33" spans="3:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="42"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="35"/>
+      <c r="P33" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O13"/>
+  <mergeCells count="19">
     <mergeCell ref="C2:P3"/>
-    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
     <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="G11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N16:O16"/>
     <mergeCell ref="G12:M12"/>
-    <mergeCell ref="G13:M13"/>
     <mergeCell ref="G14:M14"/>
     <mergeCell ref="G15:M15"/>
+    <mergeCell ref="G16:M16"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N14:O14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8310,7 +8425,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z368"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8348,22 +8465,22 @@
     <row r="2" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
       <c r="Q2" s="53"/>
       <c r="R2" s="54"/>
       <c r="S2" s="52"/>
@@ -8378,20 +8495,20 @@
     <row r="3" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="31"/>
       <c r="B3" s="31"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="83"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="89"/>
       <c r="Q3" s="53"/>
       <c r="R3" s="54"/>
       <c r="S3" s="52"/>
@@ -8435,7 +8552,7 @@
       <c r="A5" s="31"/>
       <c r="B5" s="31"/>
       <c r="C5" s="47"/>
-      <c r="D5" s="100" t="s">
+      <c r="D5" s="56" t="s">
         <v>70</v>
       </c>
       <c r="E5" s="32"/>
@@ -8620,7 +8737,7 @@
       <c r="B11" s="31"/>
       <c r="C11" s="36"/>
       <c r="D11" s="55" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E11" s="37"/>
       <c r="F11" s="37"/>
@@ -8797,7 +8914,7 @@
       <c r="A17" s="31"/>
       <c r="B17" s="31"/>
       <c r="C17" s="34"/>
-      <c r="D17" s="100" t="s">
+      <c r="D17" s="56" t="s">
         <v>76</v>
       </c>
       <c r="E17" s="48"/>
@@ -9535,7 +9652,7 @@
       <c r="C43" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="101" t="s">
+      <c r="D43" s="57" t="s">
         <v>78</v>
       </c>
       <c r="E43" s="31"/>
@@ -14161,9 +14278,272 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:O21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B2" s="89" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+    </row>
+    <row r="5" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="106">
+        <v>1</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B7" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="31"/>
+      <c r="C8" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="31"/>
+      <c r="C11" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="31"/>
+      <c r="C12" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B14" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:O3"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:V69"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
@@ -14185,50 +14565,50 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C3" s="84" t="s">
-        <v>102</v>
-      </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="84"/>
-      <c r="T3" s="84"/>
-      <c r="U3" s="84"/>
-      <c r="V3" s="84"/>
+      <c r="C3" s="90" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
+      <c r="S3" s="90"/>
+      <c r="T3" s="90"/>
+      <c r="U3" s="90"/>
+      <c r="V3" s="90"/>
     </row>
     <row r="4" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="84"/>
-      <c r="S4" s="84"/>
-      <c r="T4" s="84"/>
-      <c r="U4" s="84"/>
-      <c r="V4" s="84"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="90"/>
+      <c r="V4" s="90"/>
     </row>
     <row r="6" spans="3:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="19"/>
@@ -14305,7 +14685,7 @@
     <row r="9" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C9" s="11"/>
       <c r="D9" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
@@ -14339,7 +14719,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="3:22" x14ac:dyDescent="0.3">
@@ -14386,7 +14766,7 @@
     <row r="27" spans="3:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C27" s="17"/>
       <c r="D27" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
@@ -14529,7 +14909,7 @@
     <row r="51" spans="3:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C51" s="17"/>
       <c r="D51" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E51" s="15"/>
       <c r="F51" s="15"/>
@@ -14622,7 +15002,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AH10"/>
   <sheetViews>
@@ -14659,51 +15039,51 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="96" t="s">
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="95"/>
-      <c r="L3" s="97" t="s">
+      <c r="K3" s="101"/>
+      <c r="L3" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="97"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="98"/>
-      <c r="T3" s="98"/>
-      <c r="U3" s="98"/>
-      <c r="V3" s="98"/>
-      <c r="W3" s="93"/>
-      <c r="X3" s="99" t="s">
+      <c r="M3" s="103"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
+      <c r="U3" s="104"/>
+      <c r="V3" s="104"/>
+      <c r="W3" s="99"/>
+      <c r="X3" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="Y3" s="93"/>
-      <c r="Z3" s="96" t="s">
+      <c r="Y3" s="99"/>
+      <c r="Z3" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="AA3" s="94"/>
-      <c r="AB3" s="95"/>
-      <c r="AC3" s="91" t="s">
+      <c r="AA3" s="100"/>
+      <c r="AB3" s="101"/>
+      <c r="AC3" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="AD3" s="92"/>
-      <c r="AE3" s="92"/>
-      <c r="AF3" s="92"/>
-      <c r="AG3" s="92"/>
-      <c r="AH3" s="92"/>
+      <c r="AD3" s="98"/>
+      <c r="AE3" s="98"/>
+      <c r="AF3" s="98"/>
+      <c r="AG3" s="98"/>
+      <c r="AH3" s="98"/>
     </row>
     <row r="4" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
@@ -14778,11 +15158,11 @@
       <c r="Y4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Z4" s="85" t="s">
+      <c r="Z4" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="AA4" s="86"/>
-      <c r="AB4" s="87"/>
+      <c r="AA4" s="92"/>
+      <c r="AB4" s="93"/>
       <c r="AC4" s="3" t="s">
         <v>10</v>
       </c>
@@ -14875,11 +15255,11 @@
       <c r="Y5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="Z5" s="88" t="s">
+      <c r="Z5" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="AA5" s="89"/>
-      <c r="AB5" s="90"/>
+      <c r="AA5" s="95"/>
+      <c r="AB5" s="96"/>
       <c r="AC5" s="6" t="s">
         <v>33</v>
       </c>
@@ -14959,9 +15339,9 @@
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="23"/>
-      <c r="Z7" s="88"/>
-      <c r="AA7" s="89"/>
-      <c r="AB7" s="90"/>
+      <c r="Z7" s="94"/>
+      <c r="AA7" s="95"/>
+      <c r="AB7" s="96"/>
       <c r="AC7" s="6"/>
       <c r="AD7" s="5"/>
       <c r="AE7" s="5"/>
@@ -14994,9 +15374,9 @@
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="23"/>
-      <c r="Z8" s="88"/>
-      <c r="AA8" s="89"/>
-      <c r="AB8" s="90"/>
+      <c r="Z8" s="94"/>
+      <c r="AA8" s="95"/>
+      <c r="AB8" s="96"/>
       <c r="AC8" s="28"/>
       <c r="AD8" s="5"/>
       <c r="AE8" s="5"/>
@@ -15029,9 +15409,9 @@
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="23"/>
-      <c r="Z9" s="88"/>
-      <c r="AA9" s="89"/>
-      <c r="AB9" s="90"/>
+      <c r="Z9" s="94"/>
+      <c r="AA9" s="95"/>
+      <c r="AB9" s="96"/>
       <c r="AC9" s="29"/>
       <c r="AD9" s="5"/>
       <c r="AE9" s="5"/>
@@ -15065,12 +15445,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D150"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/00.기획서/221108_스테이지2 기획서_미완성.xlsx
+++ b/00.기획서/221108_스테이지2 기획서_미완성.xlsx
@@ -5608,7 +5608,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="123">
   <si>
     <t xml:space="preserve">컨셉 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -6104,27 +6104,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>이벤트 시작 알리미 추가 - 핀포인트와 진동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">발생 위치 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>시작 지점과 목표 지점의 이벤트 발생 부근</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>연출 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">시각적 전달 - 네비게이션의 도착지점 안내처럼 UI적으로 여기에요 여기 하는 느낌 전달 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>촉각적 전달 - 잠시 휴대폰 화면을 보지 않는 상황을 위해서 진동으로 여기에요 여기 하는 느낌 전달</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -6133,6 +6117,10 @@
   </si>
   <si>
     <t xml:space="preserve">사용하는 에셋 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타로 카드 공개씬</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6922,32 +6910,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7012,31 +6976,40 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7066,8 +7039,23 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7258,16 +7246,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7276,13 +7264,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5638800" y="7829550"/>
-          <a:ext cx="1219200" cy="304800"/>
+          <a:off x="4895850" y="7667625"/>
+          <a:ext cx="1171575" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
         <a:ln w="9525" cmpd="sng">
           <a:noFill/>
         </a:ln>
@@ -7807,38 +7797,38 @@
   <sheetData>
     <row r="1" spans="3:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="69"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="61"/>
     </row>
     <row r="3" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C3" s="70"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="72"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="64"/>
     </row>
     <row r="4" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C4" s="38"/>
@@ -7955,107 +7945,107 @@
     <row r="11" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C11" s="38"/>
       <c r="D11" s="33"/>
-      <c r="E11" s="80" t="s">
+      <c r="E11" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="81"/>
-      <c r="G11" s="82" t="s">
+      <c r="F11" s="73"/>
+      <c r="G11" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="84"/>
-      <c r="N11" s="80" t="s">
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="76"/>
+      <c r="N11" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="O11" s="81"/>
+      <c r="O11" s="73"/>
       <c r="P11" s="39"/>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C12" s="38"/>
       <c r="D12" s="33"/>
-      <c r="E12" s="74" t="s">
+      <c r="E12" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="75"/>
-      <c r="G12" s="87" t="s">
+      <c r="F12" s="67"/>
+      <c r="G12" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="63" t="s">
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="79"/>
+      <c r="N12" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="O12" s="64"/>
+      <c r="O12" s="87"/>
       <c r="P12" s="39"/>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C13" s="38"/>
       <c r="D13" s="33"/>
-      <c r="E13" s="58" t="s">
+      <c r="E13" s="82" t="s">
         <v>112</v>
       </c>
-      <c r="F13" s="59"/>
-      <c r="G13" s="58" t="s">
+      <c r="F13" s="83"/>
+      <c r="G13" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60" t="s">
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="84" t="s">
         <v>111</v>
       </c>
-      <c r="O13" s="61"/>
+      <c r="O13" s="85"/>
       <c r="P13" s="39"/>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C14" s="38"/>
       <c r="D14" s="33"/>
-      <c r="E14" s="76" t="s">
+      <c r="E14" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="F14" s="77"/>
-      <c r="G14" s="62" t="s">
+      <c r="F14" s="69"/>
+      <c r="G14" s="80" t="s">
         <v>96</v>
       </c>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="65" t="s">
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="88" t="s">
         <v>80</v>
       </c>
-      <c r="O14" s="66"/>
+      <c r="O14" s="89"/>
       <c r="P14" s="39"/>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C15" s="38"/>
       <c r="D15" s="33"/>
-      <c r="E15" s="76" t="s">
+      <c r="E15" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="F15" s="77"/>
-      <c r="G15" s="62" t="s">
+      <c r="F15" s="69"/>
+      <c r="G15" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="62"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="80"/>
       <c r="N15" s="40" t="s">
         <v>71</v>
       </c>
@@ -8067,23 +8057,23 @@
     <row r="16" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C16" s="38"/>
       <c r="D16" s="33"/>
-      <c r="E16" s="78" t="s">
+      <c r="E16" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="F16" s="79"/>
-      <c r="G16" s="88" t="s">
+      <c r="F16" s="71"/>
+      <c r="G16" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
-      <c r="L16" s="88"/>
-      <c r="M16" s="88"/>
-      <c r="N16" s="85" t="s">
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="81"/>
+      <c r="N16" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="O16" s="86"/>
+      <c r="O16" s="78"/>
       <c r="P16" s="39"/>
     </row>
     <row r="17" spans="3:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -8125,10 +8115,10 @@
       <c r="F19" s="33"/>
       <c r="G19" s="33"/>
       <c r="H19" s="33"/>
-      <c r="I19" s="73" t="s">
+      <c r="I19" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="J19" s="73"/>
+      <c r="J19" s="65"/>
       <c r="K19" s="33"/>
       <c r="L19" s="33"/>
       <c r="M19" s="33"/>
@@ -8394,6 +8384,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N14:O14"/>
     <mergeCell ref="C2:P3"/>
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="E12:F12"/>
@@ -8410,9 +8403,6 @@
     <mergeCell ref="G16:M16"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="N13:O13"/>
-    <mergeCell ref="G13:M13"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N14:O14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8425,8 +8415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z368"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8465,22 +8455,22 @@
     <row r="2" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
       <c r="Q2" s="53"/>
       <c r="R2" s="54"/>
       <c r="S2" s="52"/>
@@ -8495,20 +8485,20 @@
     <row r="3" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="31"/>
       <c r="B3" s="31"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
       <c r="Q3" s="53"/>
       <c r="R3" s="54"/>
       <c r="S3" s="52"/>
@@ -14281,7 +14271,7 @@
   <dimension ref="B2:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14290,38 +14280,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="90" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B4" s="31"/>
@@ -14340,11 +14330,11 @@
       <c r="O4" s="31"/>
     </row>
     <row r="5" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="106">
+      <c r="B5" s="58">
         <v>1</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D5" s="32"/>
       <c r="E5" s="32"/>
@@ -14380,7 +14370,7 @@
         <v>44</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D7" s="31"/>
       <c r="E7" s="31"/>
@@ -14397,9 +14387,7 @@
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="31"/>
-      <c r="C8" s="31" t="s">
-        <v>120</v>
-      </c>
+      <c r="C8" s="31"/>
       <c r="D8" s="31"/>
       <c r="E8" s="31"/>
       <c r="F8" s="31"/>
@@ -14434,7 +14422,7 @@
         <v>44</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D10" s="31"/>
       <c r="E10" s="31"/>
@@ -14451,9 +14439,7 @@
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" s="31"/>
-      <c r="C11" s="31" t="s">
-        <v>122</v>
-      </c>
+      <c r="C11" s="31"/>
       <c r="D11" s="31"/>
       <c r="E11" s="31"/>
       <c r="F11" s="31"/>
@@ -14469,9 +14455,7 @@
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" s="31"/>
-      <c r="C12" s="31" t="s">
-        <v>123</v>
-      </c>
+      <c r="C12" s="31"/>
       <c r="D12" s="31"/>
       <c r="E12" s="31"/>
       <c r="F12" s="31"/>
@@ -14506,7 +14490,7 @@
         <v>44</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D14" s="31"/>
       <c r="E14" s="31"/>
@@ -14526,7 +14510,7 @@
         <v>44</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D21" s="31"/>
     </row>
@@ -14565,50 +14549,50 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C3" s="90" t="s">
+      <c r="C3" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="90"/>
-      <c r="T3" s="90"/>
-      <c r="U3" s="90"/>
-      <c r="V3" s="90"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="91"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
     </row>
     <row r="4" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="90"/>
-      <c r="V4" s="90"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="91"/>
+      <c r="P4" s="91"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="91"/>
+      <c r="S4" s="91"/>
+      <c r="T4" s="91"/>
+      <c r="U4" s="91"/>
+      <c r="V4" s="91"/>
     </row>
     <row r="6" spans="3:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="19"/>
@@ -15039,51 +15023,51 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B3" s="99" t="s">
+      <c r="B3" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="102" t="s">
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="101"/>
-      <c r="L3" s="103" t="s">
+      <c r="K3" s="96"/>
+      <c r="L3" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="103"/>
-      <c r="N3" s="104"/>
-      <c r="O3" s="104"/>
-      <c r="P3" s="104"/>
-      <c r="Q3" s="104"/>
-      <c r="R3" s="104"/>
-      <c r="S3" s="104"/>
-      <c r="T3" s="104"/>
-      <c r="U3" s="104"/>
-      <c r="V3" s="104"/>
-      <c r="W3" s="99"/>
-      <c r="X3" s="105" t="s">
+      <c r="M3" s="98"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="99"/>
+      <c r="Q3" s="99"/>
+      <c r="R3" s="99"/>
+      <c r="S3" s="99"/>
+      <c r="T3" s="99"/>
+      <c r="U3" s="99"/>
+      <c r="V3" s="99"/>
+      <c r="W3" s="94"/>
+      <c r="X3" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="Y3" s="99"/>
-      <c r="Z3" s="102" t="s">
+      <c r="Y3" s="94"/>
+      <c r="Z3" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="AA3" s="100"/>
-      <c r="AB3" s="101"/>
-      <c r="AC3" s="97" t="s">
+      <c r="AA3" s="95"/>
+      <c r="AB3" s="96"/>
+      <c r="AC3" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="AD3" s="98"/>
-      <c r="AE3" s="98"/>
-      <c r="AF3" s="98"/>
-      <c r="AG3" s="98"/>
-      <c r="AH3" s="98"/>
+      <c r="AD3" s="93"/>
+      <c r="AE3" s="93"/>
+      <c r="AF3" s="93"/>
+      <c r="AG3" s="93"/>
+      <c r="AH3" s="93"/>
     </row>
     <row r="4" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
@@ -15158,11 +15142,11 @@
       <c r="Y4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Z4" s="91" t="s">
+      <c r="Z4" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="AA4" s="92"/>
-      <c r="AB4" s="93"/>
+      <c r="AA4" s="102"/>
+      <c r="AB4" s="103"/>
       <c r="AC4" s="3" t="s">
         <v>10</v>
       </c>
@@ -15255,11 +15239,11 @@
       <c r="Y5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="Z5" s="94" t="s">
+      <c r="Z5" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="AA5" s="95"/>
-      <c r="AB5" s="96"/>
+      <c r="AA5" s="105"/>
+      <c r="AB5" s="106"/>
       <c r="AC5" s="6" t="s">
         <v>33</v>
       </c>
@@ -15339,9 +15323,9 @@
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="23"/>
-      <c r="Z7" s="94"/>
-      <c r="AA7" s="95"/>
-      <c r="AB7" s="96"/>
+      <c r="Z7" s="104"/>
+      <c r="AA7" s="105"/>
+      <c r="AB7" s="106"/>
       <c r="AC7" s="6"/>
       <c r="AD7" s="5"/>
       <c r="AE7" s="5"/>
@@ -15374,9 +15358,9 @@
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="23"/>
-      <c r="Z8" s="94"/>
-      <c r="AA8" s="95"/>
-      <c r="AB8" s="96"/>
+      <c r="Z8" s="104"/>
+      <c r="AA8" s="105"/>
+      <c r="AB8" s="106"/>
       <c r="AC8" s="28"/>
       <c r="AD8" s="5"/>
       <c r="AE8" s="5"/>
@@ -15409,9 +15393,9 @@
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="23"/>
-      <c r="Z9" s="94"/>
-      <c r="AA9" s="95"/>
-      <c r="AB9" s="96"/>
+      <c r="Z9" s="104"/>
+      <c r="AA9" s="105"/>
+      <c r="AB9" s="106"/>
       <c r="AC9" s="29"/>
       <c r="AD9" s="5"/>
       <c r="AE9" s="5"/>
@@ -15426,17 +15410,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="Z5:AB5"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="Z8:AB8"/>
+    <mergeCell ref="Z9:AB9"/>
     <mergeCell ref="AC3:AH3"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="L3:W3"/>
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="Z5:AB5"/>
-    <mergeCell ref="Z7:AB7"/>
-    <mergeCell ref="Z8:AB8"/>
-    <mergeCell ref="Z9:AB9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00.기획서/221108_스테이지2 기획서_미완성.xlsx
+++ b/00.기획서/221108_스테이지2 기획서_미완성.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김효진\OneDrive\바탕 화면\RocketTeamDocu\00.기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA_23\Desktop\RoketTeam\RocketTeamDocu\00.기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DE77A1-FA92-43E6-B82E-CAA55D67EBF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9960" yWindow="2790" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9960" yWindow="2790" windowWidth="28800" windowHeight="15435"/>
   </bookViews>
   <sheets>
     <sheet name="0. 목차" sheetId="9" r:id="rId1"/>
@@ -30,12 +29,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>KGA_23</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="C5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -127,7 +126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -297,7 +296,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -408,7 +407,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
+    <comment ref="F5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -575,7 +574,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
+    <comment ref="G5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -742,7 +741,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
+    <comment ref="H5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -899,7 +898,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
+    <comment ref="I5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1047,7 +1046,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
+    <comment ref="J5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1291,7 +1290,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
+    <comment ref="K5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1535,7 +1534,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000A000000}">
+    <comment ref="L5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1635,7 +1634,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000B000000}">
+    <comment ref="M5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1745,7 +1744,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000C000000}">
+    <comment ref="N5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1904,7 +1903,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000D000000}">
+    <comment ref="O5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2176,7 +2175,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000E000000}">
+    <comment ref="P5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2295,7 +2294,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000F000000}">
+    <comment ref="Q5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2424,7 +2423,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000010000000}">
+    <comment ref="R5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2583,7 +2582,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000011000000}">
+    <comment ref="S5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2846,7 +2845,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000012000000}">
+    <comment ref="T5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2965,7 +2964,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000013000000}">
+    <comment ref="U5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3094,7 +3093,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000014000000}">
+    <comment ref="V5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3253,7 +3252,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000015000000}">
+    <comment ref="W5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3478,7 +3477,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000016000000}">
+    <comment ref="X5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3731,7 +3730,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000017000000}">
+    <comment ref="Y5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3984,7 +3983,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000018000000}">
+    <comment ref="Z5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4266,7 +4265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000019000000}">
+    <comment ref="AC5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4376,7 +4375,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00001A000000}">
+    <comment ref="AD5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4535,7 +4534,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00001B000000}">
+    <comment ref="AE5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4798,7 +4797,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00001C000000}">
+    <comment ref="AF5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4927,7 +4926,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00001D000000}">
+    <comment ref="AG5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5086,7 +5085,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00001E000000}">
+    <comment ref="AH5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5354,13 +5353,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>KGA_25</author>
     <author>KGA_23</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5530,9 +5529,28 @@
           <t xml:space="preserve">정나은
 </t>
         </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">4: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>점술가</t>
+        </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+    <comment ref="D3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5609,7 +5627,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="171">
   <si>
     <t xml:space="preserve">컨셉 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -5712,10 +5730,6 @@
   </si>
   <si>
     <t>choose_2_charID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>choose_3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -6129,10 +6143,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>실제 점을 보듯이 타로 카드를 유저가 뽑는 느낌을 주기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>T</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -6172,30 +6182,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3종 타로 에셋 출현 -&gt; 플레이어가 1개 선택 -&gt; 선택 시 카드가 y축을 기준 왼쪽으로 360도를 빠르게 5번 회전 -&gt; 회전하는 동안 중앙으로 이동하며 scale 130% 커진 채로 카드 뒷면 출력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>background</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>front_card1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>front_card2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>front_card3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">이벤트 내 진행되는 대사는 date sheet 참고  </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">버스 start 좌표 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -6212,35 +6198,146 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>하나 뽑으려고할 때 플레이어 에셋 삭제</t>
+    <t xml:space="preserve">e. d순서가 끝나는 즉시 선택지에 대한 결과 대사 UI가 출력된다. </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">하나가 뽑은 사진 공개할 때 </t>
+    <t xml:space="preserve">c. 카드는 회전한 상태로 미니맵과 대사 UI 간의 중앙으로 이동한다. </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>하나는 눈을 감고 신중하게 카드를 뽑았다. 그 카드는...</t>
-  </si>
-  <si>
-    <t>자, 이번엔 여자분 뽑아보세요!</t>
-  </si>
-  <si>
-    <t>생각보다 긴장되는걸...? 어떤걸 골라볼까?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ㄴ 이 때 background 카드 출력 </t>
+    <t>중앙</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">ㄴ 이 이후 대사 출력 시 backgroud 카드 y축 기준으로 180도 회전 하여 앞면인 star 카드를 출력 </t>
+    <t>좌측</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>우측</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s2_Thefool.Unitypackage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s2_Thelovers.unitypackage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s2_Judgement.unitypackage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뒷면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뒷면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뒷면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>위치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리소스 위치: RoketTeam &gt; RocketTeamDocu &gt; 04. 리소스 &gt; 에셋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택지 순서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose_1_3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose_2_3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose_3_3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터인 하나도 타로를 뽑기 때문에 같은 느낌을 주도록 하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이벤트 내 진행되는 대사는 date/char sheet 참고  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이벤트 내 진행되는 대사는 date/char sheet 참고  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">a. 플레이어 선택 후, 선택지에 관련한 결과 대사 중 "자, 이번엔 여자분 뽑아보세요!" 가 출력되면 플레이어가 뽑은 타로 에셋을 1초간 fade out 하여 삭제한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">a. "생각보다 긴장되는걸...? 어떤걸 골라볼까?" 출력 후 플레이어가 해당 대사 UI를 클릭하면 대사 UI는 사라지고, 3종 타로 에셋의 뒷면이 대사 UI 상단에 출현한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실제 점을 보듯이 타로 카드를 플레이어가 뽑는 느낌을 주기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">b. 터치된 타로는 Y축 기준 왼쪽 방향으로 360도 회전하며 회전속도는 0.5초당 1회이다. 터치 안 된 카드는 1초간 fade out하며 삭제된다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c. 해당 타로는 scale 130%로 확대, Y축 기준 왼쪽 방향 360도로 2.5초간 회전하며 회전속도는 0.5초당 1회이다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">d. 클릭한지 3.25초가 지나면(총 회전횟수 6.5회) c.에서 명시한 위치에 도착하게 되고, 회전을 중단한다. 이 때 타로는 정면이 플레이어를 향한채, scale 130% 확대된 모습으로 출현한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">d. 회전이 종료되면 타로 정면이 플레이어를 향한채 출현한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">b. "하나는 눈을 감고 신중하게 카드를 뽑았다. 그 카드는…" 출력 후 플레이어가 해당 대사 UI를 클릭하면 대사 UI는 사라지고, 1종 타로 에셋의 뒷면이 대사 UI 상단에 출현한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">e. d순서가 끝나면 b에서 중단된 대사가 이어서 출력된다. </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000000_ "/>
   </numFmts>
@@ -6394,7 +6491,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6410,6 +6507,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6848,7 +6951,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6984,36 +7087,6 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7077,10 +7150,58 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7110,22 +7231,25 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7211,6 +7335,44 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>521805</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>182218</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>283970</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>32840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2045805" y="1018761"/>
+          <a:ext cx="8011643" cy="885949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7429,172 +7591,2596 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>447345</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>52509</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>451683</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>36160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="그림 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9738AA9-6E0F-9806-0B87-1DB3A0D2A54B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1289941" y="12391047"/>
+          <a:ext cx="2070530" cy="4020784"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>344366</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>183173</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>344365</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>80596</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="그림 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{756C06AE-AE68-99DB-5BD1-5F12462C8F74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect l="1772" t="2449" r="1090" b="808"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3941885" y="16133885"/>
+          <a:ext cx="4821115" cy="3509596"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>6907</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>43888</xdr:rowOff>
+      <xdr:colOff>13608</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>95110</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>75811</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>203572</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>88227</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="4" name="그룹 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F901501D-BF5D-5B0A-CA7C-49C0FF2648A0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="89" name="그룹 88"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="849503" y="3238426"/>
-          <a:ext cx="2154395" cy="4494020"/>
-          <a:chOff x="-476517" y="81014"/>
-          <a:chExt cx="3260578" cy="6610351"/>
+          <a:off x="851808" y="4686860"/>
+          <a:ext cx="9105364" cy="4421542"/>
+          <a:chOff x="764402" y="4235824"/>
+          <a:chExt cx="9076229" cy="4492139"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="5" name="그림 4">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000049000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-            <a:extLst>
-              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a14:imgLayer r:embed="rId2">
-                    <a14:imgEffect>
-                      <a14:backgroundRemoval t="728" b="98241" l="1845" r="92497"/>
-                    </a14:imgEffect>
-                  </a14:imgLayer>
-                </a14:imgProps>
-              </a:ext>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="88" name="그룹 87"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="764402" y="4235824"/>
+            <a:ext cx="9076229" cy="4492139"/>
+            <a:chOff x="764402" y="3188858"/>
+            <a:chExt cx="9076229" cy="4508164"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="82" name="그룹 81"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="764402" y="3188858"/>
+              <a:ext cx="9076229" cy="4508164"/>
+              <a:chOff x="867088" y="3036203"/>
+              <a:chExt cx="9104346" cy="4432474"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="49" name="그룹 48"/>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="867088" y="3036203"/>
+                <a:ext cx="9104346" cy="4432474"/>
+                <a:chOff x="2733988" y="3102878"/>
+                <a:chExt cx="9104346" cy="4432474"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="3" name="그룹 2"/>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="2733988" y="3102878"/>
+                  <a:ext cx="9104346" cy="4432474"/>
+                  <a:chOff x="849503" y="3238426"/>
+                  <a:chExt cx="9145376" cy="4494020"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:grpSp>
+                <xdr:nvGrpSpPr>
+                  <xdr:cNvPr id="4" name="그룹 3">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F901501D-BF5D-5B0A-CA7C-49C0FF2648A0}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
+                  <xdr:cNvGrpSpPr/>
+                </xdr:nvGrpSpPr>
+                <xdr:grpSpPr>
+                  <a:xfrm>
+                    <a:off x="849503" y="3238426"/>
+                    <a:ext cx="2154395" cy="4494020"/>
+                    <a:chOff x="-476517" y="81014"/>
+                    <a:chExt cx="3260578" cy="6610351"/>
+                  </a:xfrm>
+                </xdr:grpSpPr>
+                <xdr:pic>
+                  <xdr:nvPicPr>
+                    <xdr:cNvPr id="5" name="그림 4">
+                      <a:extLst>
+                        <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                          <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000049000000}"/>
+                        </a:ext>
+                      </a:extLst>
+                    </xdr:cNvPr>
+                    <xdr:cNvPicPr>
+                      <a:picLocks noChangeAspect="1"/>
+                    </xdr:cNvPicPr>
+                  </xdr:nvPicPr>
+                  <xdr:blipFill>
+                    <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+                      <a:extLst>
+                        <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                          <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                            <a14:imgLayer r:embed="rId4">
+                              <a14:imgEffect>
+                                <a14:backgroundRemoval t="728" b="98241" l="1845" r="92497"/>
+                              </a14:imgEffect>
+                            </a14:imgLayer>
+                          </a14:imgProps>
+                        </a:ext>
+                        <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                          <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                        </a:ext>
+                      </a:extLst>
+                    </a:blip>
+                    <a:stretch>
+                      <a:fillRect/>
+                    </a:stretch>
+                  </xdr:blipFill>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="-476517" y="81014"/>
+                      <a:ext cx="3260578" cy="6610351"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                  </xdr:spPr>
+                </xdr:pic>
+                <xdr:pic>
+                  <xdr:nvPicPr>
+                    <xdr:cNvPr id="6" name="그림 5">
+                      <a:extLst>
+                        <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                          <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{866A4C40-0DEA-6CD0-DE5B-347593568903}"/>
+                        </a:ext>
+                      </a:extLst>
+                    </xdr:cNvPr>
+                    <xdr:cNvPicPr>
+                      <a:picLocks noChangeAspect="1"/>
+                    </xdr:cNvPicPr>
+                  </xdr:nvPicPr>
+                  <xdr:blipFill>
+                    <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+                    <a:stretch>
+                      <a:fillRect/>
+                    </a:stretch>
+                  </xdr:blipFill>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="-199928" y="2261093"/>
+                      <a:ext cx="761097" cy="1312379"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                  </xdr:spPr>
+                </xdr:pic>
+                <xdr:pic>
+                  <xdr:nvPicPr>
+                    <xdr:cNvPr id="7" name="그림 6">
+                      <a:extLst>
+                        <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                          <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C132504-390D-3EF2-5A43-A994BB4CF8DB}"/>
+                        </a:ext>
+                      </a:extLst>
+                    </xdr:cNvPr>
+                    <xdr:cNvPicPr>
+                      <a:picLocks noChangeAspect="1"/>
+                    </xdr:cNvPicPr>
+                  </xdr:nvPicPr>
+                  <xdr:blipFill>
+                    <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+                    <a:stretch>
+                      <a:fillRect/>
+                    </a:stretch>
+                  </xdr:blipFill>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="710543" y="2265918"/>
+                      <a:ext cx="761097" cy="1312379"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                  </xdr:spPr>
+                </xdr:pic>
+                <xdr:pic>
+                  <xdr:nvPicPr>
+                    <xdr:cNvPr id="8" name="그림 7">
+                      <a:extLst>
+                        <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                          <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83B80753-406C-500C-3487-AAA553BB17B8}"/>
+                        </a:ext>
+                      </a:extLst>
+                    </xdr:cNvPr>
+                    <xdr:cNvPicPr>
+                      <a:picLocks noChangeAspect="1"/>
+                    </xdr:cNvPicPr>
+                  </xdr:nvPicPr>
+                  <xdr:blipFill>
+                    <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+                    <a:stretch>
+                      <a:fillRect/>
+                    </a:stretch>
+                  </xdr:blipFill>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="1576777" y="2261093"/>
+                      <a:ext cx="761097" cy="1312379"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                  </xdr:spPr>
+                </xdr:pic>
+                <xdr:pic>
+                  <xdr:nvPicPr>
+                    <xdr:cNvPr id="9" name="그림 8">
+                      <a:extLst>
+                        <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                          <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8A09076-9D0E-BC94-06CF-584998C8BC33}"/>
+                        </a:ext>
+                      </a:extLst>
+                    </xdr:cNvPr>
+                    <xdr:cNvPicPr>
+                      <a:picLocks noChangeAspect="1"/>
+                    </xdr:cNvPicPr>
+                  </xdr:nvPicPr>
+                  <xdr:blipFill rotWithShape="1">
+                    <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+                    <a:srcRect l="-1" t="316" r="3254" b="1"/>
+                    <a:stretch/>
+                  </xdr:blipFill>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="-274789" y="275648"/>
+                      <a:ext cx="2693562" cy="6000750"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                  </xdr:spPr>
+                </xdr:pic>
+                <xdr:pic>
+                  <xdr:nvPicPr>
+                    <xdr:cNvPr id="10" name="그림 9">
+                      <a:extLst>
+                        <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                          <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DFB0FA9-5C8E-31D8-DD69-6850C629D366}"/>
+                        </a:ext>
+                      </a:extLst>
+                    </xdr:cNvPr>
+                    <xdr:cNvPicPr>
+                      <a:picLocks noChangeAspect="1"/>
+                    </xdr:cNvPicPr>
+                  </xdr:nvPicPr>
+                  <xdr:blipFill>
+                    <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+                    <a:stretch>
+                      <a:fillRect/>
+                    </a:stretch>
+                  </xdr:blipFill>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="-113312" y="2601800"/>
+                      <a:ext cx="683835" cy="1179155"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                  </xdr:spPr>
+                </xdr:pic>
+                <xdr:pic>
+                  <xdr:nvPicPr>
+                    <xdr:cNvPr id="11" name="그림 10">
+                      <a:extLst>
+                        <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                          <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95D1A1D8-55CB-3D45-E8F6-39F817A178D1}"/>
+                        </a:ext>
+                      </a:extLst>
+                    </xdr:cNvPr>
+                    <xdr:cNvPicPr>
+                      <a:picLocks noChangeAspect="1"/>
+                    </xdr:cNvPicPr>
+                  </xdr:nvPicPr>
+                  <xdr:blipFill>
+                    <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+                    <a:stretch>
+                      <a:fillRect/>
+                    </a:stretch>
+                  </xdr:blipFill>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="742877" y="2601800"/>
+                      <a:ext cx="683835" cy="1179155"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                  </xdr:spPr>
+                </xdr:pic>
+                <xdr:pic>
+                  <xdr:nvPicPr>
+                    <xdr:cNvPr id="12" name="그림 11">
+                      <a:extLst>
+                        <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                          <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6046EA25-4EF6-D535-713A-8048EFED65B6}"/>
+                        </a:ext>
+                      </a:extLst>
+                    </xdr:cNvPr>
+                    <xdr:cNvPicPr>
+                      <a:picLocks noChangeAspect="1"/>
+                    </xdr:cNvPicPr>
+                  </xdr:nvPicPr>
+                  <xdr:blipFill>
+                    <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+                    <a:stretch>
+                      <a:fillRect/>
+                    </a:stretch>
+                  </xdr:blipFill>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="1552263" y="2601799"/>
+                      <a:ext cx="683835" cy="1179155"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                  </xdr:spPr>
+                </xdr:pic>
+              </xdr:grpSp>
+              <xdr:grpSp>
+                <xdr:nvGrpSpPr>
+                  <xdr:cNvPr id="13" name="그룹 12">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAE0FEEB-9256-EEC7-0660-223081C3EC9A}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
+                  <xdr:cNvGrpSpPr/>
+                </xdr:nvGrpSpPr>
+                <xdr:grpSpPr>
+                  <a:xfrm>
+                    <a:off x="3278142" y="3274178"/>
+                    <a:ext cx="2160665" cy="4444748"/>
+                    <a:chOff x="2770567" y="81014"/>
+                    <a:chExt cx="3260578" cy="6610351"/>
+                  </a:xfrm>
+                </xdr:grpSpPr>
+                <xdr:grpSp>
+                  <xdr:nvGrpSpPr>
+                    <xdr:cNvPr id="14" name="그룹 13">
+                      <a:extLst>
+                        <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                          <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59CDACE8-1863-DB3B-6D8A-A5DC218FC9CF}"/>
+                        </a:ext>
+                      </a:extLst>
+                    </xdr:cNvPr>
+                    <xdr:cNvGrpSpPr/>
+                  </xdr:nvGrpSpPr>
+                  <xdr:grpSpPr>
+                    <a:xfrm>
+                      <a:off x="2770567" y="81014"/>
+                      <a:ext cx="3260578" cy="6610351"/>
+                      <a:chOff x="1333810" y="62541"/>
+                      <a:chExt cx="3260578" cy="6610351"/>
+                    </a:xfrm>
+                  </xdr:grpSpPr>
+                  <xdr:pic>
+                    <xdr:nvPicPr>
+                      <xdr:cNvPr id="17" name="그림 16">
+                        <a:extLst>
+                          <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                            <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000049000000}"/>
+                          </a:ext>
+                        </a:extLst>
+                      </xdr:cNvPr>
+                      <xdr:cNvPicPr>
+                        <a:picLocks noChangeAspect="1"/>
+                      </xdr:cNvPicPr>
+                    </xdr:nvPicPr>
+                    <xdr:blipFill>
+                      <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+                        <a:extLst>
+                          <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                            <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                              <a14:imgLayer r:embed="rId8">
+                                <a14:imgEffect>
+                                  <a14:backgroundRemoval t="728" b="98241" l="1845" r="92497"/>
+                                </a14:imgEffect>
+                              </a14:imgLayer>
+                            </a14:imgProps>
+                          </a:ext>
+                          <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                            <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                          </a:ext>
+                        </a:extLst>
+                      </a:blip>
+                      <a:stretch>
+                        <a:fillRect/>
+                      </a:stretch>
+                    </xdr:blipFill>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="1333810" y="62541"/>
+                        <a:ext cx="3260578" cy="6610351"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="rect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                    </xdr:spPr>
+                  </xdr:pic>
+                  <xdr:pic>
+                    <xdr:nvPicPr>
+                      <xdr:cNvPr id="18" name="그림 17">
+                        <a:extLst>
+                          <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                            <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49F12C0B-A3F2-144B-196A-DA3F7C410339}"/>
+                          </a:ext>
+                        </a:extLst>
+                      </xdr:cNvPr>
+                      <xdr:cNvPicPr>
+                        <a:picLocks noChangeAspect="1"/>
+                      </xdr:cNvPicPr>
+                    </xdr:nvPicPr>
+                    <xdr:blipFill>
+                      <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+                      <a:stretch>
+                        <a:fillRect/>
+                      </a:stretch>
+                    </xdr:blipFill>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="1610399" y="2242620"/>
+                        <a:ext cx="761097" cy="1312379"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="rect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                    </xdr:spPr>
+                  </xdr:pic>
+                  <xdr:pic>
+                    <xdr:nvPicPr>
+                      <xdr:cNvPr id="19" name="그림 18">
+                        <a:extLst>
+                          <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                            <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C05FF19C-2129-7CCC-63EF-27EF43FA3B2D}"/>
+                          </a:ext>
+                        </a:extLst>
+                      </xdr:cNvPr>
+                      <xdr:cNvPicPr>
+                        <a:picLocks noChangeAspect="1"/>
+                      </xdr:cNvPicPr>
+                    </xdr:nvPicPr>
+                    <xdr:blipFill>
+                      <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+                      <a:stretch>
+                        <a:fillRect/>
+                      </a:stretch>
+                    </xdr:blipFill>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="2520870" y="2247445"/>
+                        <a:ext cx="761097" cy="1312379"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="rect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                    </xdr:spPr>
+                  </xdr:pic>
+                  <xdr:pic>
+                    <xdr:nvPicPr>
+                      <xdr:cNvPr id="20" name="그림 19">
+                        <a:extLst>
+                          <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                            <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8815427-3825-B336-7B10-2F525AA426A2}"/>
+                          </a:ext>
+                        </a:extLst>
+                      </xdr:cNvPr>
+                      <xdr:cNvPicPr>
+                        <a:picLocks noChangeAspect="1"/>
+                      </xdr:cNvPicPr>
+                    </xdr:nvPicPr>
+                    <xdr:blipFill>
+                      <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+                      <a:stretch>
+                        <a:fillRect/>
+                      </a:stretch>
+                    </xdr:blipFill>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="3387104" y="2242620"/>
+                        <a:ext cx="761097" cy="1312379"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="rect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                    </xdr:spPr>
+                  </xdr:pic>
+                  <xdr:pic>
+                    <xdr:nvPicPr>
+                      <xdr:cNvPr id="21" name="그림 20">
+                        <a:extLst>
+                          <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                            <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C772B997-1ECB-B244-80DD-4BA782681E46}"/>
+                          </a:ext>
+                        </a:extLst>
+                      </xdr:cNvPr>
+                      <xdr:cNvPicPr>
+                        <a:picLocks noChangeAspect="1"/>
+                      </xdr:cNvPicPr>
+                    </xdr:nvPicPr>
+                    <xdr:blipFill rotWithShape="1">
+                      <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+                      <a:srcRect l="-1" t="316" r="3254" b="1"/>
+                      <a:stretch/>
+                    </xdr:blipFill>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="1535538" y="257175"/>
+                        <a:ext cx="2693562" cy="6000750"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="rect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                    </xdr:spPr>
+                  </xdr:pic>
+                  <xdr:pic>
+                    <xdr:nvPicPr>
+                      <xdr:cNvPr id="22" name="그림 21">
+                        <a:extLst>
+                          <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                            <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{856EF544-9B40-314F-5CB3-ECDF2A456A49}"/>
+                          </a:ext>
+                        </a:extLst>
+                      </xdr:cNvPr>
+                      <xdr:cNvPicPr>
+                        <a:picLocks noChangeAspect="1"/>
+                      </xdr:cNvPicPr>
+                    </xdr:nvPicPr>
+                    <xdr:blipFill>
+                      <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+                      <a:stretch>
+                        <a:fillRect/>
+                      </a:stretch>
+                    </xdr:blipFill>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="1916725" y="2583327"/>
+                        <a:ext cx="150575" cy="1179155"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="rect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                    </xdr:spPr>
+                  </xdr:pic>
+                </xdr:grpSp>
+                <xdr:sp macro="" textlink="">
+                  <xdr:nvSpPr>
+                    <xdr:cNvPr id="15" name="직사각형 14">
+                      <a:extLst>
+                        <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                          <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08C53306-19ED-64DC-B6AB-5554FF9DF3AE}"/>
+                        </a:ext>
+                      </a:extLst>
+                    </xdr:cNvPr>
+                    <xdr:cNvSpPr/>
+                  </xdr:nvSpPr>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="3949388" y="2601799"/>
+                      <a:ext cx="674062" cy="1179155"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:blipFill dpi="0" rotWithShape="1">
+                      <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+                        <a:alphaModFix amt="36000"/>
+                      </a:blip>
+                      <a:srcRect/>
+                      <a:stretch>
+                        <a:fillRect/>
+                      </a:stretch>
+                    </a:blipFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </xdr:spPr>
+                  <xdr:style>
+                    <a:lnRef idx="2">
+                      <a:schemeClr val="accent1">
+                        <a:shade val="50000"/>
+                      </a:schemeClr>
+                    </a:lnRef>
+                    <a:fillRef idx="1">
+                      <a:schemeClr val="accent1"/>
+                    </a:fillRef>
+                    <a:effectRef idx="0">
+                      <a:schemeClr val="accent1"/>
+                    </a:effectRef>
+                    <a:fontRef idx="minor">
+                      <a:schemeClr val="lt1"/>
+                    </a:fontRef>
+                  </xdr:style>
+                  <xdr:txBody>
+                    <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+                    <a:lstStyle>
+                      <a:defPPr>
+                        <a:defRPr lang="ko-KR"/>
+                      </a:defPPr>
+                      <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                        <a:defRPr sz="1800" kern="1200">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:lvl1pPr>
+                      <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                        <a:defRPr sz="1800" kern="1200">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:lvl2pPr>
+                      <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                        <a:defRPr sz="1800" kern="1200">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:lvl3pPr>
+                      <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                        <a:defRPr sz="1800" kern="1200">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:lvl4pPr>
+                      <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                        <a:defRPr sz="1800" kern="1200">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:lvl5pPr>
+                      <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                        <a:defRPr sz="1800" kern="1200">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:lvl6pPr>
+                      <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                        <a:defRPr sz="1800" kern="1200">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:lvl7pPr>
+                      <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                        <a:defRPr sz="1800" kern="1200">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:lvl8pPr>
+                      <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                        <a:defRPr sz="1800" kern="1200">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:lvl9pPr>
+                    </a:lstStyle>
+                    <a:p>
+                      <a:pPr algn="ctr"/>
+                      <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+                    </a:p>
+                  </xdr:txBody>
+                </xdr:sp>
+                <xdr:sp macro="" textlink="">
+                  <xdr:nvSpPr>
+                    <xdr:cNvPr id="16" name="직사각형 15">
+                      <a:extLst>
+                        <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                          <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0724A9C5-DBD9-71D7-26FE-D038EFA19142}"/>
+                        </a:ext>
+                      </a:extLst>
+                    </xdr:cNvPr>
+                    <xdr:cNvSpPr/>
+                  </xdr:nvSpPr>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="4806862" y="2588951"/>
+                      <a:ext cx="674062" cy="1179155"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:blipFill dpi="0" rotWithShape="1">
+                      <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+                        <a:alphaModFix amt="36000"/>
+                      </a:blip>
+                      <a:srcRect/>
+                      <a:stretch>
+                        <a:fillRect/>
+                      </a:stretch>
+                    </a:blipFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </xdr:spPr>
+                  <xdr:style>
+                    <a:lnRef idx="2">
+                      <a:schemeClr val="accent1">
+                        <a:shade val="50000"/>
+                      </a:schemeClr>
+                    </a:lnRef>
+                    <a:fillRef idx="1">
+                      <a:schemeClr val="accent1"/>
+                    </a:fillRef>
+                    <a:effectRef idx="0">
+                      <a:schemeClr val="accent1"/>
+                    </a:effectRef>
+                    <a:fontRef idx="minor">
+                      <a:schemeClr val="lt1"/>
+                    </a:fontRef>
+                  </xdr:style>
+                  <xdr:txBody>
+                    <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+                    <a:lstStyle>
+                      <a:defPPr>
+                        <a:defRPr lang="ko-KR"/>
+                      </a:defPPr>
+                      <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                        <a:defRPr sz="1800" kern="1200">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:lvl1pPr>
+                      <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                        <a:defRPr sz="1800" kern="1200">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:lvl2pPr>
+                      <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                        <a:defRPr sz="1800" kern="1200">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:lvl3pPr>
+                      <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                        <a:defRPr sz="1800" kern="1200">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:lvl4pPr>
+                      <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                        <a:defRPr sz="1800" kern="1200">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:lvl5pPr>
+                      <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                        <a:defRPr sz="1800" kern="1200">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:lvl6pPr>
+                      <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                        <a:defRPr sz="1800" kern="1200">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:lvl7pPr>
+                      <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                        <a:defRPr sz="1800" kern="1200">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:lvl8pPr>
+                      <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                        <a:defRPr sz="1800" kern="1200">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:lvl9pPr>
+                    </a:lstStyle>
+                    <a:p>
+                      <a:pPr algn="ctr"/>
+                      <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+                    </a:p>
+                  </xdr:txBody>
+                </xdr:sp>
+              </xdr:grpSp>
+              <xdr:grpSp>
+                <xdr:nvGrpSpPr>
+                  <xdr:cNvPr id="23" name="그룹 22">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7FE478-5DBB-C1F5-4FD0-550F2B94C0E9}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
+                  <xdr:cNvGrpSpPr/>
+                </xdr:nvGrpSpPr>
+                <xdr:grpSpPr>
+                  <a:xfrm>
+                    <a:off x="5625916" y="3272268"/>
+                    <a:ext cx="2137118" cy="4436093"/>
+                    <a:chOff x="5847565" y="81014"/>
+                    <a:chExt cx="3260578" cy="6610351"/>
+                  </a:xfrm>
+                </xdr:grpSpPr>
+                <xdr:grpSp>
+                  <xdr:nvGrpSpPr>
+                    <xdr:cNvPr id="24" name="그룹 23">
+                      <a:extLst>
+                        <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                          <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2394F924-C6B4-A2E3-6607-4B00E4F1520C}"/>
+                        </a:ext>
+                      </a:extLst>
+                    </xdr:cNvPr>
+                    <xdr:cNvGrpSpPr/>
+                  </xdr:nvGrpSpPr>
+                  <xdr:grpSpPr>
+                    <a:xfrm>
+                      <a:off x="5847565" y="81014"/>
+                      <a:ext cx="3260578" cy="6610351"/>
+                      <a:chOff x="1333810" y="62541"/>
+                      <a:chExt cx="3260578" cy="6610351"/>
+                    </a:xfrm>
+                  </xdr:grpSpPr>
+                  <xdr:pic>
+                    <xdr:nvPicPr>
+                      <xdr:cNvPr id="26" name="그림 25">
+                        <a:extLst>
+                          <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                            <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000049000000}"/>
+                          </a:ext>
+                        </a:extLst>
+                      </xdr:cNvPr>
+                      <xdr:cNvPicPr>
+                        <a:picLocks noChangeAspect="1"/>
+                      </xdr:cNvPicPr>
+                    </xdr:nvPicPr>
+                    <xdr:blipFill>
+                      <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+                        <a:extLst>
+                          <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                            <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                              <a14:imgLayer r:embed="rId11">
+                                <a14:imgEffect>
+                                  <a14:backgroundRemoval t="728" b="98241" l="1845" r="92497"/>
+                                </a14:imgEffect>
+                              </a14:imgLayer>
+                            </a14:imgProps>
+                          </a:ext>
+                          <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                            <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                          </a:ext>
+                        </a:extLst>
+                      </a:blip>
+                      <a:stretch>
+                        <a:fillRect/>
+                      </a:stretch>
+                    </xdr:blipFill>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="1333810" y="62541"/>
+                        <a:ext cx="3260578" cy="6610351"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="rect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                    </xdr:spPr>
+                  </xdr:pic>
+                  <xdr:pic>
+                    <xdr:nvPicPr>
+                      <xdr:cNvPr id="27" name="그림 26">
+                        <a:extLst>
+                          <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                            <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6230820A-C751-48F7-1F71-B16CC22F502D}"/>
+                          </a:ext>
+                        </a:extLst>
+                      </xdr:cNvPr>
+                      <xdr:cNvPicPr>
+                        <a:picLocks noChangeAspect="1"/>
+                      </xdr:cNvPicPr>
+                    </xdr:nvPicPr>
+                    <xdr:blipFill>
+                      <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+                      <a:stretch>
+                        <a:fillRect/>
+                      </a:stretch>
+                    </xdr:blipFill>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="1610399" y="2242620"/>
+                        <a:ext cx="761097" cy="1312379"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="rect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                    </xdr:spPr>
+                  </xdr:pic>
+                  <xdr:pic>
+                    <xdr:nvPicPr>
+                      <xdr:cNvPr id="28" name="그림 27">
+                        <a:extLst>
+                          <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                            <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68DA45BD-D163-C752-7820-BF20C6731EC2}"/>
+                          </a:ext>
+                        </a:extLst>
+                      </xdr:cNvPr>
+                      <xdr:cNvPicPr>
+                        <a:picLocks noChangeAspect="1"/>
+                      </xdr:cNvPicPr>
+                    </xdr:nvPicPr>
+                    <xdr:blipFill>
+                      <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+                      <a:stretch>
+                        <a:fillRect/>
+                      </a:stretch>
+                    </xdr:blipFill>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="2520870" y="2247445"/>
+                        <a:ext cx="761097" cy="1312379"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="rect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                    </xdr:spPr>
+                  </xdr:pic>
+                  <xdr:pic>
+                    <xdr:nvPicPr>
+                      <xdr:cNvPr id="29" name="그림 28">
+                        <a:extLst>
+                          <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                            <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8387583-9A5F-3E14-965E-B401B917FFEF}"/>
+                          </a:ext>
+                        </a:extLst>
+                      </xdr:cNvPr>
+                      <xdr:cNvPicPr>
+                        <a:picLocks noChangeAspect="1"/>
+                      </xdr:cNvPicPr>
+                    </xdr:nvPicPr>
+                    <xdr:blipFill>
+                      <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+                      <a:stretch>
+                        <a:fillRect/>
+                      </a:stretch>
+                    </xdr:blipFill>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="3387104" y="2242620"/>
+                        <a:ext cx="761097" cy="1312379"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="rect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                    </xdr:spPr>
+                  </xdr:pic>
+                  <xdr:pic>
+                    <xdr:nvPicPr>
+                      <xdr:cNvPr id="30" name="그림 29">
+                        <a:extLst>
+                          <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                            <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E5EE3C6-C339-C80D-2A41-A101EB06B95C}"/>
+                          </a:ext>
+                        </a:extLst>
+                      </xdr:cNvPr>
+                      <xdr:cNvPicPr>
+                        <a:picLocks noChangeAspect="1"/>
+                      </xdr:cNvPicPr>
+                    </xdr:nvPicPr>
+                    <xdr:blipFill rotWithShape="1">
+                      <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+                      <a:srcRect l="-1" t="316" r="3254" b="1"/>
+                      <a:stretch/>
+                    </xdr:blipFill>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="1535538" y="257175"/>
+                        <a:ext cx="2693562" cy="6000750"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="rect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                    </xdr:spPr>
+                  </xdr:pic>
+                </xdr:grpSp>
+                <xdr:pic>
+                  <xdr:nvPicPr>
+                    <xdr:cNvPr id="25" name="그림 24">
+                      <a:extLst>
+                        <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                          <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61BB1DC7-5C11-6FB7-52EF-5457475902DF}"/>
+                        </a:ext>
+                      </a:extLst>
+                    </xdr:cNvPr>
+                    <xdr:cNvPicPr>
+                      <a:picLocks noChangeAspect="1"/>
+                    </xdr:cNvPicPr>
+                  </xdr:nvPicPr>
+                  <xdr:blipFill>
+                    <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+                    <a:stretch>
+                      <a:fillRect/>
+                    </a:stretch>
+                  </xdr:blipFill>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="7247788" y="2120684"/>
+                      <a:ext cx="195560" cy="1241531"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                  </xdr:spPr>
+                </xdr:pic>
+              </xdr:grpSp>
+              <xdr:grpSp>
+                <xdr:nvGrpSpPr>
+                  <xdr:cNvPr id="31" name="그룹 30">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6E15927-87C2-1701-647F-BE9B1B6CC95B}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
+                  <xdr:cNvGrpSpPr/>
+                </xdr:nvGrpSpPr>
+                <xdr:grpSpPr>
+                  <a:xfrm>
+                    <a:off x="7879464" y="3300618"/>
+                    <a:ext cx="2115415" cy="4394674"/>
+                    <a:chOff x="8892229" y="81014"/>
+                    <a:chExt cx="3260578" cy="6610351"/>
+                  </a:xfrm>
+                </xdr:grpSpPr>
+                <xdr:grpSp>
+                  <xdr:nvGrpSpPr>
+                    <xdr:cNvPr id="32" name="그룹 31">
+                      <a:extLst>
+                        <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                          <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B1324D4-6B2A-0E12-1A74-2F83331E5E6E}"/>
+                        </a:ext>
+                      </a:extLst>
+                    </xdr:cNvPr>
+                    <xdr:cNvGrpSpPr/>
+                  </xdr:nvGrpSpPr>
+                  <xdr:grpSpPr>
+                    <a:xfrm>
+                      <a:off x="8892229" y="81014"/>
+                      <a:ext cx="3260578" cy="6610351"/>
+                      <a:chOff x="1333810" y="62541"/>
+                      <a:chExt cx="3260578" cy="6610351"/>
+                    </a:xfrm>
+                  </xdr:grpSpPr>
+                  <xdr:pic>
+                    <xdr:nvPicPr>
+                      <xdr:cNvPr id="34" name="그림 33">
+                        <a:extLst>
+                          <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                            <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000049000000}"/>
+                          </a:ext>
+                        </a:extLst>
+                      </xdr:cNvPr>
+                      <xdr:cNvPicPr>
+                        <a:picLocks noChangeAspect="1"/>
+                      </xdr:cNvPicPr>
+                    </xdr:nvPicPr>
+                    <xdr:blipFill>
+                      <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+                        <a:extLst>
+                          <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                            <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                              <a14:imgLayer r:embed="rId14">
+                                <a14:imgEffect>
+                                  <a14:backgroundRemoval t="728" b="98241" l="1845" r="92497"/>
+                                </a14:imgEffect>
+                              </a14:imgLayer>
+                            </a14:imgProps>
+                          </a:ext>
+                          <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                            <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                          </a:ext>
+                        </a:extLst>
+                      </a:blip>
+                      <a:stretch>
+                        <a:fillRect/>
+                      </a:stretch>
+                    </xdr:blipFill>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="1333810" y="62541"/>
+                        <a:ext cx="3260578" cy="6610351"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="rect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                    </xdr:spPr>
+                  </xdr:pic>
+                  <xdr:pic>
+                    <xdr:nvPicPr>
+                      <xdr:cNvPr id="35" name="그림 34">
+                        <a:extLst>
+                          <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                            <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD0E9DB8-962C-A587-B789-D6843271B60B}"/>
+                          </a:ext>
+                        </a:extLst>
+                      </xdr:cNvPr>
+                      <xdr:cNvPicPr>
+                        <a:picLocks noChangeAspect="1"/>
+                      </xdr:cNvPicPr>
+                    </xdr:nvPicPr>
+                    <xdr:blipFill>
+                      <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+                      <a:stretch>
+                        <a:fillRect/>
+                      </a:stretch>
+                    </xdr:blipFill>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="1610399" y="2242620"/>
+                        <a:ext cx="761097" cy="1312379"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="rect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                    </xdr:spPr>
+                  </xdr:pic>
+                  <xdr:pic>
+                    <xdr:nvPicPr>
+                      <xdr:cNvPr id="36" name="그림 35">
+                        <a:extLst>
+                          <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                            <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD2F8EAF-D75B-2718-EE16-EBB5BD136B58}"/>
+                          </a:ext>
+                        </a:extLst>
+                      </xdr:cNvPr>
+                      <xdr:cNvPicPr>
+                        <a:picLocks noChangeAspect="1"/>
+                      </xdr:cNvPicPr>
+                    </xdr:nvPicPr>
+                    <xdr:blipFill>
+                      <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+                      <a:stretch>
+                        <a:fillRect/>
+                      </a:stretch>
+                    </xdr:blipFill>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="2520870" y="2247445"/>
+                        <a:ext cx="761097" cy="1312379"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="rect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                    </xdr:spPr>
+                  </xdr:pic>
+                  <xdr:pic>
+                    <xdr:nvPicPr>
+                      <xdr:cNvPr id="37" name="그림 36">
+                        <a:extLst>
+                          <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                            <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21907006-9F0C-6BED-73AE-2C36C892D710}"/>
+                          </a:ext>
+                        </a:extLst>
+                      </xdr:cNvPr>
+                      <xdr:cNvPicPr>
+                        <a:picLocks noChangeAspect="1"/>
+                      </xdr:cNvPicPr>
+                    </xdr:nvPicPr>
+                    <xdr:blipFill>
+                      <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+                      <a:stretch>
+                        <a:fillRect/>
+                      </a:stretch>
+                    </xdr:blipFill>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="3387104" y="2242620"/>
+                        <a:ext cx="761097" cy="1312379"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="rect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                    </xdr:spPr>
+                  </xdr:pic>
+                  <xdr:pic>
+                    <xdr:nvPicPr>
+                      <xdr:cNvPr id="38" name="그림 37">
+                        <a:extLst>
+                          <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                            <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{112C9C5E-B3B9-9C4E-CA31-4E143FCB6EC2}"/>
+                          </a:ext>
+                        </a:extLst>
+                      </xdr:cNvPr>
+                      <xdr:cNvPicPr>
+                        <a:picLocks noChangeAspect="1"/>
+                      </xdr:cNvPicPr>
+                    </xdr:nvPicPr>
+                    <xdr:blipFill rotWithShape="1">
+                      <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+                      <a:srcRect l="-1" t="316" r="3254" b="1"/>
+                      <a:stretch/>
+                    </xdr:blipFill>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="1535538" y="257175"/>
+                        <a:ext cx="2693562" cy="6000750"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="rect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                    </xdr:spPr>
+                  </xdr:pic>
+                </xdr:grpSp>
+                <xdr:pic>
+                  <xdr:nvPicPr>
+                    <xdr:cNvPr id="33" name="그림 32">
+                      <a:extLst>
+                        <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                          <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34F61D3F-5357-81C9-2320-4300073D151F}"/>
+                        </a:ext>
+                      </a:extLst>
+                    </xdr:cNvPr>
+                    <xdr:cNvPicPr>
+                      <a:picLocks noChangeAspect="1"/>
+                    </xdr:cNvPicPr>
+                  </xdr:nvPicPr>
+                  <xdr:blipFill>
+                    <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+                    <a:stretch>
+                      <a:fillRect/>
+                    </a:stretch>
+                  </xdr:blipFill>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="9827604" y="1687885"/>
+                      <a:ext cx="1240453" cy="2142599"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                  </xdr:spPr>
+                </xdr:pic>
+              </xdr:grpSp>
+            </xdr:grpSp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="41" name="직사각형 40"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="2968137" y="3857625"/>
+                  <a:ext cx="1575288" cy="621624"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="dk1"/>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="lt1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="dk1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+                    <a:t>3</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+                    <a:t>종 타로</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+                    <a:t> 뒷면 에셋은</a:t>
+                  </a:r>
+                  <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+                </a:p>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:r>
+                    <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+                    <a:t>대사 </a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+                    <a:t>UI </a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+                    <a:t>상단에 출현</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="42" name="직사각형 41"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="2862744" y="5762623"/>
+                  <a:ext cx="1767873" cy="1041890"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:r>
+                    <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+                    <a:t>대사 </a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+                    <a:t>UI </a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+                    <a:t>삭제 상태</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="64" name="직사각형 63"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="5269523" y="5783138"/>
+                  <a:ext cx="1780444" cy="1041890"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:r>
+                    <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+                    <a:t>대사 </a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+                    <a:t>UI </a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+                    <a:t>삭제 상태</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="65" name="직사각형 64"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="7618535" y="5774346"/>
+                  <a:ext cx="1780444" cy="1041890"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:r>
+                    <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+                    <a:t>대사 </a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+                    <a:t>UI </a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+                    <a:t>삭제 상태</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="66" name="직사각형 65"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="9854712" y="5765554"/>
+                  <a:ext cx="1783374" cy="1041890"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:r>
+                    <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+                    <a:t>대사 </a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+                    <a:t>UI </a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+                    <a:t>삭제 상태</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="45" name="TextBox 44"/>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="4600575" y="4505325"/>
+                  <a:ext cx="742950" cy="333375"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="9525" cmpd="sng">
+                  <a:noFill/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:r>
+                    <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+                    <a:t>카드 택</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+                    <a:t>1</a:t>
+                  </a:r>
+                  <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="69" name="직사각형 68"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="5407154" y="3759426"/>
+                  <a:ext cx="1575288" cy="876300"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="dk1"/>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="lt1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="dk1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:r>
+                    <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+                    <a:t>터치된 카드가 </a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+                    <a:t>Y</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+                    <a:t>축</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+                    <a:t> 기준 왼쪽 </a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+                    <a:t>360</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+                    <a:t>도로 </a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+                    <a:t>0.5</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+                    <a:t>초에 </a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+                    <a:t>1</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+                    <a:t>회 회전</a:t>
+                  </a:r>
+                  <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="70" name="직사각형 69"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="7666200" y="5823653"/>
+                  <a:ext cx="1663609" cy="935758"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="dk1"/>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="lt1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="dk1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:r>
+                    <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+                    <a:t>회전한 상태로  </a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+                    <a:t>미니맵과 대사 </a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+                    <a:t>UI </a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+                    <a:t>사이 중앙으로</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+                    <a:t> 이동 </a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="72" name="직사각형 71"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="9936801" y="5829299"/>
+                  <a:ext cx="1617023" cy="904875"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="dk1"/>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="lt1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="dk1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:r>
+                    <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+                    <a:t>클릭한지 </a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+                    <a:t>3.25</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+                    <a:t>초</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+                    <a:t> 후</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+                    <a:t> </a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+                    <a:t>scale</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+                    <a:t> 130% </a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+                    <a:t>커진 채로 타로 정면을 출력함</a:t>
+                  </a:r>
+                  <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+          </xdr:grpSp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="79" name="오른쪽 화살표 78"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="7581901" y="4857750"/>
+                <a:ext cx="390524" cy="371475"/>
+              </a:xfrm>
+              <a:prstGeom prst="rightArrow">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="80" name="오른쪽 화살표 79"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="5305426" y="4829175"/>
+                <a:ext cx="390524" cy="371475"/>
+              </a:xfrm>
+              <a:prstGeom prst="rightArrow">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="81" name="오른쪽 화살표 80"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="2914651" y="4810125"/>
+                <a:ext cx="390524" cy="371475"/>
+              </a:xfrm>
+              <a:prstGeom prst="rightArrow">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="84" name="직사각형 83"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="896471" y="4829735"/>
+              <a:ext cx="1748117" cy="963706"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="85" name="직사각형 84"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3323665" y="4858870"/>
+              <a:ext cx="1748117" cy="963706"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="86" name="직사각형 85"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6096000" y="4529417"/>
+              <a:ext cx="818030" cy="961465"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="87" name="직사각형 86"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8119781" y="4244788"/>
+              <a:ext cx="1304365" cy="1615888"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="83" name="직사각형 82"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="-476517" y="81014"/>
-            <a:ext cx="3260578" cy="6610351"/>
+            <a:off x="3340894" y="7010495"/>
+            <a:ext cx="1656930" cy="912064"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
         </xdr:spPr>
-      </xdr:pic>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>터치 안 된 카드는 </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>초 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>fade</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+              <a:t> out </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>삭제 처리 </a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>633429</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>201707</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="90" name="그림 89"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7115736" y="10074088"/>
+          <a:ext cx="1193722" cy="2061884"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>89649</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>616325</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>170631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="91" name="그림 90"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8449237" y="10018059"/>
+          <a:ext cx="1210235" cy="2086837"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>70203</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600590</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>201706</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="92" name="그림 91"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1636059" y="10088262"/>
+          <a:ext cx="1172090" cy="2047709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85166</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>40341</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>611843</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>3906</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="93" name="그림 92"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2976284" y="10058400"/>
+          <a:ext cx="1210235" cy="2086837"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>91889</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>24652</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>618565</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>195283</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="94" name="그림 93"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5717242" y="10042711"/>
+          <a:ext cx="1210235" cy="2086837"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>78441</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>22413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>605117</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>195879</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="95" name="그림 94"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4336676" y="10040472"/>
+          <a:ext cx="1210235" cy="2089672"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>543233</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>13291</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="100" name="그룹 99"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="971550" y="14658975"/>
+          <a:ext cx="1781483" cy="4013791"/>
+          <a:chOff x="895350" y="14068425"/>
+          <a:chExt cx="1781483" cy="4013791"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="6" name="그림 5">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{866A4C40-0DEA-6CD0-DE5B-347593568903}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="-199928" y="2261093"/>
-            <a:ext cx="761097" cy="1312379"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="7" name="그림 6">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C132504-390D-3EF2-5A43-A994BB4CF8DB}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="710543" y="2265918"/>
-            <a:ext cx="761097" cy="1312379"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="8" name="그림 7">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83B80753-406C-500C-3487-AAA553BB17B8}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1576777" y="2261093"/>
-            <a:ext cx="761097" cy="1312379"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="9" name="그림 8">
+          <xdr:cNvPr id="97" name="그림 96">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                 <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8A09076-9D0E-BC94-06CF-584998C8BC33}"/>
@@ -7606,378 +10192,36 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
           <a:srcRect l="-1" t="316" r="3254" b="1"/>
           <a:stretch/>
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="-274789" y="275648"/>
-            <a:ext cx="2693562" cy="6000750"/>
+            <a:off x="904875" y="14068425"/>
+            <a:ext cx="1771958" cy="4013791"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
         </xdr:spPr>
       </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="10" name="그림 9">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DFB0FA9-5C8E-31D8-DD69-6850C629D366}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="98" name="직사각형 97"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="-113312" y="2601800"/>
-            <a:ext cx="683835" cy="1179155"/>
+            <a:off x="895350" y="16602075"/>
+            <a:ext cx="1768071" cy="1039320"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="11" name="그림 10">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95D1A1D8-55CB-3D45-E8F6-39F817A178D1}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="742877" y="2601800"/>
-            <a:ext cx="683835" cy="1179155"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="12" name="그림 11">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6046EA25-4EF6-D535-713A-8048EFED65B6}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1552263" y="2601799"/>
-            <a:ext cx="683835" cy="1179155"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>369354</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>79640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>463826</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>62291</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="13" name="그룹 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAE0FEEB-9256-EEC7-0660-223081C3EC9A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="3278142" y="3274178"/>
-          <a:ext cx="2160665" cy="4444748"/>
-          <a:chOff x="2770567" y="81014"/>
-          <a:chExt cx="3260578" cy="6610351"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="14" name="그룹 13">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59CDACE8-1863-DB3B-6D8A-A5DC218FC9CF}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="2770567" y="81014"/>
-            <a:ext cx="3260578" cy="6610351"/>
-            <a:chOff x="1333810" y="62541"/>
-            <a:chExt cx="3260578" cy="6610351"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="17" name="그림 16">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000049000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-              <a:extLst>
-                <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-                  <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                    <a14:imgLayer r:embed="rId6">
-                      <a14:imgEffect>
-                        <a14:backgroundRemoval t="728" b="98241" l="1845" r="92497"/>
-                      </a14:imgEffect>
-                    </a14:imgLayer>
-                  </a14:imgProps>
-                </a:ext>
-                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1333810" y="62541"/>
-              <a:ext cx="3260578" cy="6610351"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="18" name="그림 17">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49F12C0B-A3F2-144B-196A-DA3F7C410339}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1610399" y="2242620"/>
-              <a:ext cx="761097" cy="1312379"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="19" name="그림 18">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C05FF19C-2129-7CCC-63EF-27EF43FA3B2D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2520870" y="2247445"/>
-              <a:ext cx="761097" cy="1312379"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="20" name="그림 19">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8815427-3825-B336-7B10-2F525AA426A2}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3387104" y="2242620"/>
-              <a:ext cx="761097" cy="1312379"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="21" name="그림 20">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C772B997-1ECB-B244-80DD-4BA782681E46}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill rotWithShape="1">
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-            <a:srcRect l="-1" t="316" r="3254" b="1"/>
-            <a:stretch/>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1535538" y="257175"/>
-              <a:ext cx="2693562" cy="6000750"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="22" name="그림 21">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{856EF544-9B40-314F-5CB3-ECDF2A456A49}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1916725" y="2583327"/>
-              <a:ext cx="150575" cy="1179155"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="직사각형 14">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08C53306-19ED-64DC-B6AB-5554FF9DF3AE}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3949388" y="2601799"/>
-            <a:ext cx="674062" cy="1179155"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:blipFill dpi="0" rotWithShape="1">
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-              <a:alphaModFix amt="36000"/>
-            </a:blip>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </a:blipFill>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
@@ -7999,479 +10243,31 @@
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ko-KR"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>대사 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>UI </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>삭제 상태</a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="직사각형 15">
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="99" name="그림 98">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0724A9C5-DBD9-71D7-26FE-D038EFA19142}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4806862" y="2588951"/>
-            <a:ext cx="674062" cy="1179155"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:blipFill dpi="0" rotWithShape="1">
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-              <a:alphaModFix amt="36000"/>
-            </a:blip>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </a:blipFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ko-KR"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>650935</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>77730</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>33130</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>51726</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="23" name="그룹 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7FE478-5DBB-C1F5-4FD0-550F2B94C0E9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5625916" y="3272268"/>
-          <a:ext cx="2137118" cy="4436093"/>
-          <a:chOff x="5847565" y="81014"/>
-          <a:chExt cx="3260578" cy="6610351"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="24" name="그룹 23">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2394F924-C6B4-A2E3-6607-4B00E4F1520C}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="5847565" y="81014"/>
-            <a:ext cx="3260578" cy="6610351"/>
-            <a:chOff x="1333810" y="62541"/>
-            <a:chExt cx="3260578" cy="6610351"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="26" name="그림 25">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000049000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
-              <a:extLst>
-                <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-                  <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                    <a14:imgLayer r:embed="rId9">
-                      <a14:imgEffect>
-                        <a14:backgroundRemoval t="728" b="98241" l="1845" r="92497"/>
-                      </a14:imgEffect>
-                    </a14:imgLayer>
-                  </a14:imgProps>
-                </a:ext>
-                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1333810" y="62541"/>
-              <a:ext cx="3260578" cy="6610351"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="27" name="그림 26">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6230820A-C751-48F7-1F71-B16CC22F502D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1610399" y="2242620"/>
-              <a:ext cx="761097" cy="1312379"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="28" name="그림 27">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68DA45BD-D163-C752-7820-BF20C6731EC2}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2520870" y="2247445"/>
-              <a:ext cx="761097" cy="1312379"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="29" name="그림 28">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8387583-9A5F-3E14-965E-B401B917FFEF}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3387104" y="2242620"/>
-              <a:ext cx="761097" cy="1312379"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="30" name="그림 29">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E5EE3C6-C339-C80D-2A41-A101EB06B95C}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill rotWithShape="1">
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-            <a:srcRect l="-1" t="316" r="3254" b="1"/>
-            <a:stretch/>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1535538" y="257175"/>
-              <a:ext cx="2693562" cy="6000750"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </xdr:grpSp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="25" name="그림 24">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61BB1DC7-5C11-6FB7-52EF-5457475902DF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95D1A1D8-55CB-3D45-E8F6-39F817A178D1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8480,15 +10276,15 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="7247789" y="2120685"/>
-            <a:ext cx="195560" cy="1241532"/>
+            <a:off x="1457325" y="15173325"/>
+            <a:ext cx="704850" cy="1235775"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -8496,337 +10292,6 @@
         </xdr:spPr>
       </xdr:pic>
     </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>149560</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>106080</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>198783</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>38657</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="31" name="그룹 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6E15927-87C2-1701-647F-BE9B1B6CC95B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="7879464" y="3300618"/>
-          <a:ext cx="2115415" cy="4394674"/>
-          <a:chOff x="8892229" y="81014"/>
-          <a:chExt cx="3260578" cy="6610351"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="32" name="그룹 31">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B1324D4-6B2A-0E12-1A74-2F83331E5E6E}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="8892229" y="81014"/>
-            <a:ext cx="3260578" cy="6610351"/>
-            <a:chOff x="1333810" y="62541"/>
-            <a:chExt cx="3260578" cy="6610351"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="34" name="그림 33">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000049000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
-              <a:extLst>
-                <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-                  <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                    <a14:imgLayer r:embed="rId12">
-                      <a14:imgEffect>
-                        <a14:backgroundRemoval t="728" b="98241" l="1845" r="92497"/>
-                      </a14:imgEffect>
-                    </a14:imgLayer>
-                  </a14:imgProps>
-                </a:ext>
-                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1333810" y="62541"/>
-              <a:ext cx="3260578" cy="6610351"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="35" name="그림 34">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD0E9DB8-962C-A587-B789-D6843271B60B}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1610399" y="2242620"/>
-              <a:ext cx="761097" cy="1312379"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="36" name="그림 35">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD2F8EAF-D75B-2718-EE16-EBB5BD136B58}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2520870" y="2247445"/>
-              <a:ext cx="761097" cy="1312379"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="37" name="그림 36">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21907006-9F0C-6BED-73AE-2C36C892D710}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3387104" y="2242620"/>
-              <a:ext cx="761097" cy="1312379"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="38" name="그림 37">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{112C9C5E-B3B9-9C4E-CA31-4E143FCB6EC2}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill rotWithShape="1">
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-            <a:srcRect l="-1" t="316" r="3254" b="1"/>
-            <a:stretch/>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1535538" y="257175"/>
-              <a:ext cx="2693562" cy="6000750"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </xdr:grpSp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="33" name="그림 32">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34F61D3F-5357-81C9-2320-4300073D151F}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9827604" y="1687884"/>
-            <a:ext cx="1240453" cy="2142599"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>447345</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>52509</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>451683</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>36159</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="그림 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9738AA9-6E0F-9806-0B87-1DB3A0D2A54B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1289941" y="12391047"/>
-          <a:ext cx="2070530" cy="4020784"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>256441</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>94321</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>398424</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>109904</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="그림 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{756C06AE-AE68-99DB-5BD1-5F12462C8F74}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3853960" y="12645340"/>
-          <a:ext cx="4963099" cy="3627756"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9309,10 +10774,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:P33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9321,38 +10786,38 @@
   <sheetData>
     <row r="1" spans="3:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C2" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="57"/>
+      <c r="C2" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="47"/>
     </row>
     <row r="3" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C3" s="58"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="60"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="50"/>
     </row>
     <row r="4" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C4" s="28"/>
@@ -9469,135 +10934,135 @@
     <row r="11" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C11" s="28"/>
       <c r="D11" s="23"/>
-      <c r="E11" s="68" t="s">
+      <c r="E11" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="59"/>
+      <c r="G11" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="69"/>
-      <c r="G11" s="70" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="72"/>
-      <c r="N11" s="68" t="s">
-        <v>59</v>
-      </c>
-      <c r="O11" s="69"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="O11" s="59"/>
       <c r="P11" s="29"/>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C12" s="28"/>
       <c r="D12" s="23"/>
-      <c r="E12" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="63"/>
-      <c r="G12" s="75" t="s">
-        <v>94</v>
-      </c>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="75"/>
-      <c r="N12" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="O12" s="52"/>
+      <c r="E12" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="53"/>
+      <c r="G12" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="O12" s="73"/>
       <c r="P12" s="29"/>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C13" s="28"/>
       <c r="D13" s="23"/>
-      <c r="E13" s="46" t="s">
+      <c r="E13" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="69"/>
+      <c r="G13" s="68" t="s">
         <v>109</v>
       </c>
-      <c r="F13" s="47"/>
-      <c r="G13" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="O13" s="49"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="70" t="s">
+        <v>107</v>
+      </c>
+      <c r="O13" s="71"/>
       <c r="P13" s="29"/>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C14" s="28"/>
       <c r="D14" s="23"/>
-      <c r="E14" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="F14" s="65"/>
-      <c r="G14" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="O14" s="54"/>
+      <c r="E14" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" s="55"/>
+      <c r="G14" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="74" t="s">
+        <v>79</v>
+      </c>
+      <c r="O14" s="75"/>
       <c r="P14" s="29"/>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C15" s="28"/>
       <c r="D15" s="23"/>
-      <c r="E15" s="64" t="s">
-        <v>112</v>
-      </c>
-      <c r="F15" s="65"/>
-      <c r="G15" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
+      <c r="E15" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" s="55"/>
+      <c r="G15" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="66"/>
       <c r="N15" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="O15" s="31" t="s">
         <v>71</v>
-      </c>
-      <c r="O15" s="31" t="s">
-        <v>72</v>
       </c>
       <c r="P15" s="29"/>
     </row>
     <row r="16" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C16" s="28"/>
       <c r="D16" s="23"/>
-      <c r="E16" s="66" t="s">
-        <v>113</v>
-      </c>
-      <c r="F16" s="67"/>
-      <c r="G16" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="73" t="s">
-        <v>61</v>
-      </c>
-      <c r="O16" s="74"/>
+      <c r="E16" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="F16" s="57"/>
+      <c r="G16" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="O16" s="64"/>
       <c r="P16" s="29"/>
     </row>
     <row r="17" spans="3:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -9639,10 +11104,10 @@
       <c r="F19" s="23"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
-      <c r="I19" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="J19" s="61"/>
+      <c r="I19" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" s="51"/>
       <c r="K19" s="23"/>
       <c r="L19" s="23"/>
       <c r="M19" s="23"/>
@@ -9656,7 +11121,7 @@
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
       <c r="G20" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H20" s="23"/>
       <c r="I20" s="23"/>
@@ -9674,10 +11139,10 @@
       <c r="E21" s="23"/>
       <c r="F21" s="23"/>
       <c r="G21" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I21" s="23"/>
       <c r="J21" s="23"/>
@@ -9694,10 +11159,10 @@
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
       <c r="G22" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I22" s="23"/>
       <c r="J22" s="23"/>
@@ -9714,10 +11179,10 @@
       <c r="E23" s="23"/>
       <c r="F23" s="23"/>
       <c r="G23" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="H23" s="23" t="s">
         <v>84</v>
-      </c>
-      <c r="H23" s="23" t="s">
-        <v>85</v>
       </c>
       <c r="I23" s="23"/>
       <c r="J23" s="23"/>
@@ -9734,7 +11199,7 @@
       <c r="E24" s="23"/>
       <c r="F24" s="23"/>
       <c r="G24" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
@@ -9752,10 +11217,10 @@
       <c r="E25" s="23"/>
       <c r="F25" s="23"/>
       <c r="G25" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="H25" s="23" t="s">
         <v>101</v>
-      </c>
-      <c r="H25" s="23" t="s">
-        <v>102</v>
       </c>
       <c r="I25" s="23"/>
       <c r="J25" s="23"/>
@@ -9772,10 +11237,10 @@
       <c r="E26" s="23"/>
       <c r="F26" s="23"/>
       <c r="G26" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H26" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I26" s="23"/>
       <c r="J26" s="23"/>
@@ -9792,10 +11257,10 @@
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
       <c r="G27" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H27" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I27" s="23"/>
       <c r="J27" s="23"/>
@@ -9812,7 +11277,7 @@
       <c r="E28" s="23"/>
       <c r="F28" s="23"/>
       <c r="G28" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H28" s="23"/>
       <c r="I28" s="23"/>
@@ -9846,7 +11311,7 @@
       <c r="E30" s="23"/>
       <c r="F30" s="23"/>
       <c r="G30" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H30" s="23"/>
       <c r="I30" s="23"/>
@@ -9908,6 +11373,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N14:O14"/>
     <mergeCell ref="C2:P3"/>
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="E12:F12"/>
@@ -9924,9 +11392,6 @@
     <mergeCell ref="G16:M16"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="N13:O13"/>
-    <mergeCell ref="G13:M13"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N14:O14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9936,10 +11401,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z368"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9978,7 +11443,7 @@
       <c r="A2" s="23"/>
       <c r="B2" s="23"/>
       <c r="C2" s="76" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D2" s="76"/>
       <c r="E2" s="76"/>
@@ -10065,7 +11530,7 @@
       <c r="B5" s="23"/>
       <c r="C5" s="37"/>
       <c r="D5" s="43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5" s="24"/>
       <c r="F5" s="24"/>
@@ -10122,7 +11587,7 @@
       <c r="A7" s="23"/>
       <c r="B7" s="23"/>
       <c r="C7" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" s="34" t="s">
         <v>0</v>
@@ -10155,13 +11620,13 @@
       <c r="B8" s="23"/>
       <c r="C8" s="27"/>
       <c r="D8" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="39" t="s">
-        <v>92</v>
-      </c>
       <c r="F8" s="39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
@@ -10216,7 +11681,7 @@
       <c r="A10" s="23"/>
       <c r="B10" s="23"/>
       <c r="C10" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="34" t="s">
         <v>1</v>
@@ -10249,7 +11714,7 @@
       <c r="B11" s="23"/>
       <c r="C11" s="27"/>
       <c r="D11" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E11" s="27"/>
       <c r="F11" s="27"/>
@@ -10306,10 +11771,10 @@
       <c r="A13" s="23"/>
       <c r="B13" s="23"/>
       <c r="C13" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E13" s="27"/>
       <c r="F13" s="27"/>
@@ -10339,7 +11804,7 @@
       <c r="B14" s="23"/>
       <c r="C14" s="27"/>
       <c r="D14" s="36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E14" s="36"/>
       <c r="F14" s="27"/>
@@ -10369,7 +11834,7 @@
       <c r="B15" s="23"/>
       <c r="C15" s="27"/>
       <c r="D15" s="36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E15" s="36"/>
       <c r="F15" s="27"/>
@@ -10427,7 +11892,7 @@
       <c r="B17" s="23"/>
       <c r="C17" s="25"/>
       <c r="D17" s="43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E17" s="38"/>
       <c r="F17" s="26"/>
@@ -10484,10 +11949,10 @@
       <c r="A19" s="23"/>
       <c r="B19" s="23"/>
       <c r="C19" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E19" s="27"/>
       <c r="F19" s="27"/>
@@ -10517,7 +11982,7 @@
       <c r="B20" s="23"/>
       <c r="C20" s="27"/>
       <c r="D20" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E20" s="27"/>
       <c r="F20" s="27"/>
@@ -11162,10 +12627,10 @@
       <c r="A43" s="23"/>
       <c r="B43" s="23"/>
       <c r="C43" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D43" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E43" s="23"/>
       <c r="F43" s="23"/>
@@ -12117,7 +13582,7 @@
     <row r="78" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C78" s="25"/>
       <c r="D78" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E78" s="38"/>
       <c r="F78" s="26"/>
@@ -12134,7 +13599,7 @@
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D80" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="239" spans="1:26" x14ac:dyDescent="0.3">
@@ -15789,10 +17254,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:Q101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:Q128"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -15801,7 +17266,7 @@
   <sheetData>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B2" s="76" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="76"/>
       <c r="D2" s="76"/>
@@ -15858,7 +17323,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D5" s="26"/>
       <c r="E5" s="26"/>
@@ -15897,10 +17362,10 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="27"/>
       <c r="B7" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>115</v>
+        <v>43</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>114</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
@@ -15921,7 +17386,7 @@
       <c r="A8" s="27"/>
       <c r="B8" s="27"/>
       <c r="C8" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
@@ -15960,10 +17425,10 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="27"/>
       <c r="B10" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>116</v>
+        <v>43</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>115</v>
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
@@ -15984,7 +17449,7 @@
       <c r="A11" s="27"/>
       <c r="B11" s="27"/>
       <c r="C11" s="27" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="27"/>
@@ -16004,7 +17469,9 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="27"/>
       <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
+      <c r="C12" s="27" t="s">
+        <v>159</v>
+      </c>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
       <c r="F12" s="27"/>
@@ -16022,12 +17489,8 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="27"/>
-      <c r="B13" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>117</v>
-      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
       <c r="F13" s="27"/>
@@ -16045,17 +17508,15 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="27"/>
-      <c r="B14" s="27">
-        <v>1</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>143</v>
+      <c r="B14" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>116</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
-      <c r="F14" s="27" t="s">
-        <v>149</v>
-      </c>
+      <c r="F14" s="27"/>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
@@ -16070,8 +17531,10 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27" t="s">
+      <c r="B15" s="34">
+        <v>1</v>
+      </c>
+      <c r="C15" s="34" t="s">
         <v>135</v>
       </c>
       <c r="D15" s="27"/>
@@ -16092,7 +17555,9 @@
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="27"/>
       <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
+      <c r="C16" s="27" t="s">
+        <v>163</v>
+      </c>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
@@ -16111,7 +17576,9 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="27"/>
       <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
+      <c r="C17" s="27" t="s">
+        <v>165</v>
+      </c>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
@@ -16130,7 +17597,9 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="27"/>
       <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
+      <c r="C18" s="27" t="s">
+        <v>138</v>
+      </c>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
@@ -16149,7 +17618,9 @@
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="27"/>
       <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
+      <c r="C19" s="27" t="s">
+        <v>167</v>
+      </c>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
       <c r="F19" s="27"/>
@@ -16168,7 +17639,9 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="27"/>
       <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
+      <c r="C20" s="27" t="s">
+        <v>137</v>
+      </c>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
       <c r="F20" s="27"/>
@@ -16206,7 +17679,9 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="27"/>
       <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
+      <c r="C22" s="36" t="s">
+        <v>160</v>
+      </c>
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
       <c r="F22" s="27"/>
@@ -16524,16 +17999,11 @@
       <c r="N38" s="27"/>
       <c r="O38" s="27"/>
       <c r="P38" s="27"/>
-      <c r="Q38" s="27"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="27"/>
-      <c r="B39" s="27">
-        <v>2</v>
-      </c>
-      <c r="C39" s="27" t="s">
-        <v>144</v>
-      </c>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
       <c r="D39" s="27"/>
       <c r="E39" s="27"/>
       <c r="F39" s="27"/>
@@ -16547,20 +18017,15 @@
       <c r="N39" s="27"/>
       <c r="O39" s="27"/>
       <c r="P39" s="27"/>
-      <c r="Q39" s="27"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="27"/>
       <c r="B40" s="27"/>
-      <c r="C40" s="27" t="s">
-        <v>145</v>
-      </c>
+      <c r="C40" s="27"/>
       <c r="D40" s="27"/>
       <c r="E40" s="27"/>
       <c r="F40" s="27"/>
-      <c r="G40" s="27" t="s">
-        <v>148</v>
-      </c>
+      <c r="G40" s="27"/>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
       <c r="J40" s="27"/>
@@ -16574,15 +18039,11 @@
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="27"/>
       <c r="B41" s="27"/>
-      <c r="C41" s="27" t="s">
-        <v>146</v>
-      </c>
+      <c r="C41" s="27"/>
       <c r="D41" s="27"/>
       <c r="E41" s="27"/>
       <c r="F41" s="27"/>
-      <c r="G41" s="27" t="s">
-        <v>147</v>
-      </c>
+      <c r="G41" s="27"/>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
       <c r="J41" s="27"/>
@@ -16600,9 +18061,7 @@
       <c r="D42" s="27"/>
       <c r="E42" s="27"/>
       <c r="F42" s="27"/>
-      <c r="G42" s="27" t="s">
-        <v>150</v>
-      </c>
+      <c r="G42" s="27"/>
       <c r="H42" s="27"/>
       <c r="I42" s="27"/>
       <c r="J42" s="27"/>
@@ -16620,9 +18079,7 @@
       <c r="D43" s="27"/>
       <c r="E43" s="27"/>
       <c r="F43" s="27"/>
-      <c r="G43" s="27" t="s">
-        <v>151</v>
-      </c>
+      <c r="G43" s="27"/>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
       <c r="J43" s="27"/>
@@ -16653,8 +18110,12 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="27"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
+      <c r="B45" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="34" t="s">
+        <v>117</v>
+      </c>
       <c r="D45" s="27"/>
       <c r="E45" s="27"/>
       <c r="F45" s="27"/>
@@ -16672,7 +18133,9 @@
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="27"/>
       <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
+      <c r="C46" s="36" t="s">
+        <v>152</v>
+      </c>
       <c r="D46" s="27"/>
       <c r="E46" s="27"/>
       <c r="F46" s="27"/>
@@ -16690,320 +18153,342 @@
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="27"/>
       <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="27"/>
-      <c r="M47" s="27"/>
-      <c r="N47" s="27"/>
-      <c r="O47" s="27"/>
+      <c r="C47" s="96" t="s">
+        <v>150</v>
+      </c>
+      <c r="D47" s="95" t="s">
+        <v>140</v>
+      </c>
+      <c r="E47" s="95"/>
+      <c r="F47" s="95"/>
+      <c r="G47" s="95"/>
+      <c r="H47" s="95" t="s">
+        <v>139</v>
+      </c>
+      <c r="I47" s="95"/>
+      <c r="J47" s="95"/>
+      <c r="K47" s="95"/>
+      <c r="L47" s="95" t="s">
+        <v>141</v>
+      </c>
+      <c r="M47" s="95"/>
+      <c r="N47" s="95"/>
+      <c r="O47" s="95"/>
       <c r="P47" s="27"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="27"/>
       <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="27"/>
-      <c r="L48" s="27"/>
-      <c r="M48" s="27"/>
-      <c r="N48" s="27"/>
-      <c r="O48" s="27"/>
+      <c r="C48" s="96" t="s">
+        <v>155</v>
+      </c>
+      <c r="D48" s="95" t="s">
+        <v>156</v>
+      </c>
+      <c r="E48" s="95"/>
+      <c r="F48" s="95"/>
+      <c r="G48" s="95"/>
+      <c r="H48" s="95" t="s">
+        <v>157</v>
+      </c>
+      <c r="I48" s="95"/>
+      <c r="J48" s="95"/>
+      <c r="K48" s="95"/>
+      <c r="L48" s="95" t="s">
+        <v>158</v>
+      </c>
+      <c r="M48" s="95"/>
+      <c r="N48" s="95"/>
+      <c r="O48" s="95"/>
       <c r="P48" s="27"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="27"/>
       <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="27"/>
-      <c r="M49" s="27"/>
-      <c r="N49" s="27"/>
-      <c r="O49" s="27"/>
+      <c r="C49" s="96" t="s">
+        <v>151</v>
+      </c>
+      <c r="D49" s="95" t="s">
+        <v>142</v>
+      </c>
+      <c r="E49" s="95"/>
+      <c r="F49" s="95"/>
+      <c r="G49" s="95"/>
+      <c r="H49" s="95" t="s">
+        <v>143</v>
+      </c>
+      <c r="I49" s="95"/>
+      <c r="J49" s="95"/>
+      <c r="K49" s="95"/>
+      <c r="L49" s="95" t="s">
+        <v>144</v>
+      </c>
+      <c r="M49" s="95"/>
+      <c r="N49" s="95"/>
+      <c r="O49" s="95"/>
       <c r="P49" s="27"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="27"/>
       <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="27"/>
-      <c r="L50" s="27"/>
-      <c r="M50" s="27"/>
-      <c r="N50" s="27"/>
-      <c r="O50" s="27"/>
+      <c r="C50" s="97" t="s">
+        <v>153</v>
+      </c>
+      <c r="D50" s="98" t="s">
+        <v>146</v>
+      </c>
+      <c r="E50" s="98"/>
+      <c r="F50" s="98" t="s">
+        <v>145</v>
+      </c>
+      <c r="G50" s="98"/>
+      <c r="H50" s="98" t="s">
+        <v>148</v>
+      </c>
+      <c r="I50" s="98"/>
+      <c r="J50" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="K50" s="98"/>
+      <c r="L50" s="98" t="s">
+        <v>146</v>
+      </c>
+      <c r="M50" s="98"/>
+      <c r="N50" s="98" t="s">
+        <v>147</v>
+      </c>
+      <c r="O50" s="98"/>
       <c r="P50" s="27"/>
+      <c r="Q50" s="27"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="27"/>
       <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="27"/>
-      <c r="L51" s="27"/>
-      <c r="M51" s="27"/>
-      <c r="N51" s="27"/>
-      <c r="O51" s="27"/>
+      <c r="C51" s="97"/>
+      <c r="D51" s="95"/>
+      <c r="E51" s="95"/>
+      <c r="F51" s="95"/>
+      <c r="G51" s="95"/>
+      <c r="H51" s="95"/>
+      <c r="I51" s="95"/>
+      <c r="J51" s="95"/>
+      <c r="K51" s="95"/>
+      <c r="L51" s="95"/>
+      <c r="M51" s="95"/>
+      <c r="N51" s="95"/>
+      <c r="O51" s="95"/>
       <c r="P51" s="27"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="27"/>
       <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="27"/>
-      <c r="L52" s="27"/>
-      <c r="M52" s="27"/>
-      <c r="N52" s="27"/>
-      <c r="O52" s="27"/>
+      <c r="C52" s="97"/>
+      <c r="D52" s="95"/>
+      <c r="E52" s="95"/>
+      <c r="F52" s="95"/>
+      <c r="G52" s="95"/>
+      <c r="H52" s="95"/>
+      <c r="I52" s="95"/>
+      <c r="J52" s="95"/>
+      <c r="K52" s="95"/>
+      <c r="L52" s="95"/>
+      <c r="M52" s="95"/>
+      <c r="N52" s="95"/>
+      <c r="O52" s="95"/>
       <c r="P52" s="27"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="27"/>
       <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="27"/>
-      <c r="L53" s="27"/>
-      <c r="M53" s="27"/>
-      <c r="N53" s="27"/>
-      <c r="O53" s="27"/>
+      <c r="C53" s="97"/>
+      <c r="D53" s="95"/>
+      <c r="E53" s="95"/>
+      <c r="F53" s="95"/>
+      <c r="G53" s="95"/>
+      <c r="H53" s="95"/>
+      <c r="I53" s="95"/>
+      <c r="J53" s="95"/>
+      <c r="K53" s="95"/>
+      <c r="L53" s="95"/>
+      <c r="M53" s="95"/>
+      <c r="N53" s="95"/>
+      <c r="O53" s="95"/>
       <c r="P53" s="27"/>
-      <c r="Q53" s="27"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="27"/>
       <c r="B54" s="27"/>
-      <c r="C54" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="27"/>
-      <c r="L54" s="27"/>
-      <c r="M54" s="27"/>
-      <c r="N54" s="27"/>
-      <c r="O54" s="27"/>
+      <c r="C54" s="97"/>
+      <c r="D54" s="95"/>
+      <c r="E54" s="95"/>
+      <c r="F54" s="95"/>
+      <c r="G54" s="95"/>
+      <c r="H54" s="95"/>
+      <c r="I54" s="95"/>
+      <c r="J54" s="95"/>
+      <c r="K54" s="95"/>
+      <c r="L54" s="95"/>
+      <c r="M54" s="95"/>
+      <c r="N54" s="95"/>
+      <c r="O54" s="95"/>
       <c r="P54" s="27"/>
-      <c r="Q54" s="27"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="27"/>
       <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="27"/>
-      <c r="L55" s="27"/>
-      <c r="M55" s="27"/>
-      <c r="N55" s="27"/>
-      <c r="O55" s="27"/>
+      <c r="C55" s="97"/>
+      <c r="D55" s="95"/>
+      <c r="E55" s="95"/>
+      <c r="F55" s="95"/>
+      <c r="G55" s="95"/>
+      <c r="H55" s="95"/>
+      <c r="I55" s="95"/>
+      <c r="J55" s="95"/>
+      <c r="K55" s="95"/>
+      <c r="L55" s="95"/>
+      <c r="M55" s="95"/>
+      <c r="N55" s="95"/>
+      <c r="O55" s="95"/>
       <c r="P55" s="27"/>
-      <c r="Q55" s="27"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="27"/>
-      <c r="B56" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C56" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="27"/>
-      <c r="K56" s="27"/>
-      <c r="L56" s="27"/>
-      <c r="M56" s="27"/>
-      <c r="N56" s="27"/>
-      <c r="O56" s="27"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="97"/>
+      <c r="D56" s="95"/>
+      <c r="E56" s="95"/>
+      <c r="F56" s="95"/>
+      <c r="G56" s="95"/>
+      <c r="H56" s="95"/>
+      <c r="I56" s="95"/>
+      <c r="J56" s="95"/>
+      <c r="K56" s="95"/>
+      <c r="L56" s="95"/>
+      <c r="M56" s="95"/>
+      <c r="N56" s="95"/>
+      <c r="O56" s="95"/>
       <c r="P56" s="27"/>
-      <c r="Q56" s="27"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="27"/>
       <c r="B57" s="27"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="27"/>
-      <c r="K57" s="27"/>
-      <c r="L57" s="27"/>
-      <c r="M57" s="27"/>
-      <c r="N57" s="27"/>
-      <c r="O57" s="27"/>
+      <c r="C57" s="97"/>
+      <c r="D57" s="95"/>
+      <c r="E57" s="95"/>
+      <c r="F57" s="95"/>
+      <c r="G57" s="95"/>
+      <c r="H57" s="95"/>
+      <c r="I57" s="95"/>
+      <c r="J57" s="95"/>
+      <c r="K57" s="95"/>
+      <c r="L57" s="95"/>
+      <c r="M57" s="95"/>
+      <c r="N57" s="95"/>
+      <c r="O57" s="95"/>
       <c r="P57" s="27"/>
-      <c r="Q57" s="27"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="27"/>
       <c r="B58" s="27"/>
-      <c r="C58" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="27"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="27"/>
-      <c r="K58" s="27"/>
-      <c r="L58" s="27"/>
-      <c r="M58" s="27"/>
-      <c r="N58" s="27"/>
-      <c r="O58" s="27"/>
+      <c r="C58" s="97"/>
+      <c r="D58" s="95"/>
+      <c r="E58" s="95"/>
+      <c r="F58" s="95"/>
+      <c r="G58" s="95"/>
+      <c r="H58" s="95"/>
+      <c r="I58" s="95"/>
+      <c r="J58" s="95"/>
+      <c r="K58" s="95"/>
+      <c r="L58" s="95"/>
+      <c r="M58" s="95"/>
+      <c r="N58" s="95"/>
+      <c r="O58" s="95"/>
       <c r="P58" s="27"/>
-      <c r="Q58" s="27"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="27"/>
       <c r="B59" s="27"/>
-      <c r="C59" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="27"/>
-      <c r="I59" s="27"/>
-      <c r="J59" s="27"/>
-      <c r="K59" s="27"/>
-      <c r="L59" s="27"/>
-      <c r="M59" s="27"/>
-      <c r="N59" s="27"/>
-      <c r="O59" s="27"/>
+      <c r="C59" s="97"/>
+      <c r="D59" s="95"/>
+      <c r="E59" s="95"/>
+      <c r="F59" s="95"/>
+      <c r="G59" s="95"/>
+      <c r="H59" s="95"/>
+      <c r="I59" s="95"/>
+      <c r="J59" s="95"/>
+      <c r="K59" s="95"/>
+      <c r="L59" s="95"/>
+      <c r="M59" s="95"/>
+      <c r="N59" s="95"/>
+      <c r="O59" s="95"/>
       <c r="P59" s="27"/>
-      <c r="Q59" s="27"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="27"/>
       <c r="B60" s="27"/>
-      <c r="C60" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="27"/>
-      <c r="I60" s="27"/>
-      <c r="J60" s="27"/>
-      <c r="K60" s="27"/>
-      <c r="L60" s="27"/>
-      <c r="M60" s="27"/>
-      <c r="N60" s="27"/>
-      <c r="O60" s="27"/>
+      <c r="C60" s="97"/>
+      <c r="D60" s="95"/>
+      <c r="E60" s="95"/>
+      <c r="F60" s="95"/>
+      <c r="G60" s="95"/>
+      <c r="H60" s="95"/>
+      <c r="I60" s="95"/>
+      <c r="J60" s="95"/>
+      <c r="K60" s="95"/>
+      <c r="L60" s="95"/>
+      <c r="M60" s="95"/>
+      <c r="N60" s="95"/>
+      <c r="O60" s="95"/>
       <c r="P60" s="27"/>
       <c r="Q60" s="27"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="27"/>
       <c r="B61" s="27"/>
-      <c r="C61" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="27"/>
-      <c r="H61" s="27"/>
-      <c r="I61" s="27"/>
-      <c r="J61" s="27"/>
-      <c r="K61" s="27"/>
-      <c r="L61" s="27"/>
-      <c r="M61" s="27"/>
-      <c r="N61" s="27"/>
-      <c r="O61" s="27"/>
+      <c r="C61" s="99"/>
+      <c r="D61" s="94"/>
+      <c r="E61" s="94"/>
+      <c r="F61" s="94"/>
+      <c r="G61" s="94"/>
+      <c r="H61" s="94"/>
+      <c r="I61" s="94"/>
+      <c r="J61" s="94"/>
+      <c r="K61" s="94"/>
+      <c r="L61" s="94"/>
+      <c r="M61" s="94"/>
+      <c r="N61" s="94"/>
+      <c r="O61" s="94"/>
       <c r="P61" s="27"/>
       <c r="Q61" s="27"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="27"/>
       <c r="B62" s="27"/>
-      <c r="C62" s="27"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="27"/>
-      <c r="I62" s="27"/>
-      <c r="J62" s="27"/>
-      <c r="K62" s="27"/>
-      <c r="L62" s="27"/>
-      <c r="M62" s="27"/>
-      <c r="N62" s="27"/>
-      <c r="O62" s="27"/>
+      <c r="C62" s="99"/>
+      <c r="D62" s="94"/>
+      <c r="E62" s="94"/>
+      <c r="F62" s="94"/>
+      <c r="G62" s="94"/>
+      <c r="H62" s="94"/>
+      <c r="I62" s="94"/>
+      <c r="J62" s="94"/>
+      <c r="K62" s="94"/>
+      <c r="L62" s="94"/>
+      <c r="M62" s="94"/>
+      <c r="N62" s="94"/>
+      <c r="O62" s="94"/>
       <c r="P62" s="27"/>
       <c r="Q62" s="27"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="27"/>
-      <c r="B63" s="27"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
+      <c r="B63" s="34">
+        <v>2</v>
+      </c>
+      <c r="C63" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="D63" s="34"/>
       <c r="E63" s="27"/>
       <c r="F63" s="27"/>
       <c r="G63" s="27"/>
@@ -17018,33 +18503,33 @@
       <c r="P63" s="27"/>
       <c r="Q63" s="27"/>
     </row>
-    <row r="64" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="27"/>
-      <c r="B64" s="44">
-        <v>1</v>
-      </c>
-      <c r="C64" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="26"/>
-      <c r="I64" s="26"/>
-      <c r="J64" s="26"/>
-      <c r="K64" s="26"/>
-      <c r="L64" s="26"/>
-      <c r="M64" s="26"/>
-      <c r="N64" s="26"/>
-      <c r="O64" s="26"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="D64" s="34"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="27"/>
+      <c r="L64" s="27"/>
+      <c r="M64" s="27"/>
+      <c r="N64" s="27"/>
+      <c r="O64" s="27"/>
       <c r="P64" s="27"/>
       <c r="Q64" s="27"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="27"/>
       <c r="B65" s="27"/>
-      <c r="C65" s="27"/>
+      <c r="C65" s="27" t="s">
+        <v>169</v>
+      </c>
       <c r="D65" s="27"/>
       <c r="E65" s="27"/>
       <c r="F65" s="27"/>
@@ -17058,15 +18543,12 @@
       <c r="N65" s="27"/>
       <c r="O65" s="27"/>
       <c r="P65" s="27"/>
-      <c r="Q65" s="27"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="27"/>
-      <c r="B66" s="27" t="s">
-        <v>44</v>
-      </c>
+      <c r="B66" s="27"/>
       <c r="C66" s="27" t="s">
-        <v>115</v>
+        <v>166</v>
       </c>
       <c r="D66" s="27"/>
       <c r="E66" s="27"/>
@@ -17081,13 +18563,12 @@
       <c r="N66" s="27"/>
       <c r="O66" s="27"/>
       <c r="P66" s="27"/>
-      <c r="Q66" s="27"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="27"/>
       <c r="B67" s="27"/>
       <c r="C67" s="27" t="s">
-        <v>122</v>
+        <v>168</v>
       </c>
       <c r="D67" s="27"/>
       <c r="E67" s="27"/>
@@ -17102,12 +18583,13 @@
       <c r="N67" s="27"/>
       <c r="O67" s="27"/>
       <c r="P67" s="27"/>
-      <c r="Q67" s="27"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="27"/>
       <c r="B68" s="27"/>
-      <c r="C68" s="27"/>
+      <c r="C68" s="27" t="s">
+        <v>170</v>
+      </c>
       <c r="D68" s="27"/>
       <c r="E68" s="27"/>
       <c r="F68" s="27"/>
@@ -17121,15 +18603,12 @@
       <c r="N68" s="27"/>
       <c r="O68" s="27"/>
       <c r="P68" s="27"/>
-      <c r="Q68" s="27"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="27"/>
-      <c r="B69" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C69" s="27" t="s">
-        <v>116</v>
+      <c r="B69" s="27"/>
+      <c r="C69" s="36" t="s">
+        <v>161</v>
       </c>
       <c r="D69" s="27"/>
       <c r="E69" s="27"/>
@@ -17144,14 +18623,11 @@
       <c r="N69" s="27"/>
       <c r="O69" s="27"/>
       <c r="P69" s="27"/>
-      <c r="Q69" s="27"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="27"/>
       <c r="B70" s="27"/>
-      <c r="C70" s="27" t="s">
-        <v>134</v>
-      </c>
+      <c r="C70" s="27"/>
       <c r="D70" s="27"/>
       <c r="E70" s="27"/>
       <c r="F70" s="27"/>
@@ -17165,7 +18641,6 @@
       <c r="N70" s="27"/>
       <c r="O70" s="27"/>
       <c r="P70" s="27"/>
-      <c r="Q70" s="27"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="27"/>
@@ -17184,16 +18659,11 @@
       <c r="N71" s="27"/>
       <c r="O71" s="27"/>
       <c r="P71" s="27"/>
-      <c r="Q71" s="27"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="27"/>
-      <c r="B72" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C72" s="27" t="s">
-        <v>117</v>
-      </c>
+      <c r="B72" s="27"/>
+      <c r="C72" s="27"/>
       <c r="D72" s="27"/>
       <c r="E72" s="27"/>
       <c r="F72" s="27"/>
@@ -17207,14 +18677,11 @@
       <c r="N72" s="27"/>
       <c r="O72" s="27"/>
       <c r="P72" s="27"/>
-      <c r="Q72" s="27"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="27"/>
       <c r="B73" s="27"/>
-      <c r="C73" s="27" t="s">
-        <v>141</v>
-      </c>
+      <c r="C73" s="27"/>
       <c r="D73" s="27"/>
       <c r="E73" s="27"/>
       <c r="F73" s="27"/>
@@ -17228,14 +18695,11 @@
       <c r="N73" s="27"/>
       <c r="O73" s="27"/>
       <c r="P73" s="27"/>
-      <c r="Q73" s="27"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="27"/>
       <c r="B74" s="27"/>
-      <c r="C74" s="27" t="s">
-        <v>142</v>
-      </c>
+      <c r="C74" s="27"/>
       <c r="D74" s="27"/>
       <c r="E74" s="27"/>
       <c r="F74" s="27"/>
@@ -17249,7 +18713,6 @@
       <c r="N74" s="27"/>
       <c r="O74" s="27"/>
       <c r="P74" s="27"/>
-      <c r="Q74" s="27"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="27"/>
@@ -17268,7 +18731,6 @@
       <c r="N75" s="27"/>
       <c r="O75" s="27"/>
       <c r="P75" s="27"/>
-      <c r="Q75" s="27"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="27"/>
@@ -17287,7 +18749,6 @@
       <c r="N76" s="27"/>
       <c r="O76" s="27"/>
       <c r="P76" s="27"/>
-      <c r="Q76" s="27"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="27"/>
@@ -17306,7 +18767,6 @@
       <c r="N77" s="27"/>
       <c r="O77" s="27"/>
       <c r="P77" s="27"/>
-      <c r="Q77" s="27"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="27"/>
@@ -17325,7 +18785,6 @@
       <c r="N78" s="27"/>
       <c r="O78" s="27"/>
       <c r="P78" s="27"/>
-      <c r="Q78" s="27"/>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="27"/>
@@ -17344,7 +18803,6 @@
       <c r="N79" s="27"/>
       <c r="O79" s="27"/>
       <c r="P79" s="27"/>
-      <c r="Q79" s="27"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="27"/>
@@ -17368,7 +18826,7 @@
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="27"/>
       <c r="B81" s="27"/>
-      <c r="C81" s="27"/>
+      <c r="C81" s="36"/>
       <c r="D81" s="27"/>
       <c r="E81" s="27"/>
       <c r="F81" s="27"/>
@@ -17420,7 +18878,6 @@
       <c r="N83" s="27"/>
       <c r="O83" s="27"/>
       <c r="P83" s="27"/>
-      <c r="Q83" s="27"/>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="27"/>
@@ -17439,7 +18896,6 @@
       <c r="N84" s="27"/>
       <c r="O84" s="27"/>
       <c r="P84" s="27"/>
-      <c r="Q84" s="27"/>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="27"/>
@@ -17458,7 +18914,6 @@
       <c r="N85" s="27"/>
       <c r="O85" s="27"/>
       <c r="P85" s="27"/>
-      <c r="Q85" s="27"/>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="27"/>
@@ -17477,7 +18932,6 @@
       <c r="N86" s="27"/>
       <c r="O86" s="27"/>
       <c r="P86" s="27"/>
-      <c r="Q86" s="27"/>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="27"/>
@@ -17496,7 +18950,6 @@
       <c r="N87" s="27"/>
       <c r="O87" s="27"/>
       <c r="P87" s="27"/>
-      <c r="Q87" s="27"/>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="27"/>
@@ -17555,22 +19008,26 @@
       <c r="P90" s="27"/>
       <c r="Q90" s="27"/>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="27"/>
-      <c r="B91" s="27"/>
-      <c r="C91" s="27"/>
-      <c r="D91" s="27"/>
-      <c r="E91" s="27"/>
-      <c r="F91" s="27"/>
-      <c r="G91" s="27"/>
-      <c r="H91" s="27"/>
-      <c r="I91" s="27"/>
-      <c r="J91" s="27"/>
-      <c r="K91" s="27"/>
-      <c r="L91" s="27"/>
-      <c r="M91" s="27"/>
-      <c r="N91" s="27"/>
-      <c r="O91" s="27"/>
+      <c r="B91" s="44">
+        <v>1</v>
+      </c>
+      <c r="C91" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="D91" s="26"/>
+      <c r="E91" s="26"/>
+      <c r="F91" s="26"/>
+      <c r="G91" s="26"/>
+      <c r="H91" s="26"/>
+      <c r="I91" s="26"/>
+      <c r="J91" s="26"/>
+      <c r="K91" s="26"/>
+      <c r="L91" s="26"/>
+      <c r="M91" s="26"/>
+      <c r="N91" s="26"/>
+      <c r="O91" s="26"/>
       <c r="P91" s="27"/>
       <c r="Q91" s="27"/>
     </row>
@@ -17595,8 +19052,12 @@
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="27"/>
-      <c r="B93" s="27"/>
-      <c r="C93" s="27"/>
+      <c r="B93" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C93" s="27" t="s">
+        <v>114</v>
+      </c>
       <c r="D93" s="27"/>
       <c r="E93" s="27"/>
       <c r="F93" s="27"/>
@@ -17615,7 +19076,9 @@
     <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="27"/>
       <c r="B94" s="27"/>
-      <c r="C94" s="27"/>
+      <c r="C94" s="27" t="s">
+        <v>121</v>
+      </c>
       <c r="D94" s="27"/>
       <c r="E94" s="27"/>
       <c r="F94" s="27"/>
@@ -17633,12 +19096,8 @@
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="27"/>
-      <c r="B95" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C95" s="27" t="s">
-        <v>118</v>
-      </c>
+      <c r="B95" s="27"/>
+      <c r="C95" s="27"/>
       <c r="D95" s="27"/>
       <c r="E95" s="27"/>
       <c r="F95" s="27"/>
@@ -17656,8 +19115,12 @@
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="27"/>
-      <c r="B96" s="27"/>
-      <c r="C96" s="27"/>
+      <c r="B96" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C96" s="27" t="s">
+        <v>115</v>
+      </c>
       <c r="D96" s="27"/>
       <c r="E96" s="27"/>
       <c r="F96" s="27"/>
@@ -17676,7 +19139,9 @@
     <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" s="27"/>
       <c r="B97" s="27"/>
-      <c r="C97" s="27"/>
+      <c r="C97" s="27" t="s">
+        <v>132</v>
+      </c>
       <c r="D97" s="27"/>
       <c r="E97" s="27"/>
       <c r="F97" s="27"/>
@@ -17709,11 +19174,16 @@
       <c r="N98" s="27"/>
       <c r="O98" s="27"/>
       <c r="P98" s="27"/>
+      <c r="Q98" s="27"/>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" s="27"/>
-      <c r="B99" s="27"/>
-      <c r="C99" s="27"/>
+      <c r="B99" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C99" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="D99" s="27"/>
       <c r="E99" s="27"/>
       <c r="F99" s="27"/>
@@ -17727,16 +19197,23 @@
       <c r="N99" s="27"/>
       <c r="O99" s="27"/>
       <c r="P99" s="27"/>
+      <c r="Q99" s="27"/>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="27"/>
       <c r="B100" s="27"/>
-      <c r="C100" s="27"/>
+      <c r="C100" s="27" t="s">
+        <v>133</v>
+      </c>
       <c r="D100" s="27"/>
-      <c r="E100" s="27"/>
-      <c r="F100" s="27"/>
-      <c r="G100" s="27"/>
-      <c r="H100" s="27"/>
+      <c r="E100" s="93">
+        <v>37.540616</v>
+      </c>
+      <c r="F100" s="93"/>
+      <c r="G100" s="93">
+        <v>127.126606</v>
+      </c>
+      <c r="H100" s="93"/>
       <c r="I100" s="27"/>
       <c r="J100" s="27"/>
       <c r="K100" s="27"/>
@@ -17745,16 +19222,23 @@
       <c r="N100" s="27"/>
       <c r="O100" s="27"/>
       <c r="P100" s="27"/>
+      <c r="Q100" s="27"/>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" s="27"/>
       <c r="B101" s="27"/>
-      <c r="C101" s="27"/>
+      <c r="C101" s="27" t="s">
+        <v>134</v>
+      </c>
       <c r="D101" s="27"/>
-      <c r="E101" s="27"/>
-      <c r="F101" s="27"/>
-      <c r="G101" s="27"/>
-      <c r="H101" s="27"/>
+      <c r="E101" s="93">
+        <v>37.540447</v>
+      </c>
+      <c r="F101" s="93"/>
+      <c r="G101" s="93">
+        <v>127.12730999999999</v>
+      </c>
+      <c r="H101" s="93"/>
       <c r="I101" s="27"/>
       <c r="J101" s="27"/>
       <c r="K101" s="27"/>
@@ -17763,24 +19247,563 @@
       <c r="N101" s="27"/>
       <c r="O101" s="27"/>
       <c r="P101" s="27"/>
+      <c r="Q101" s="27"/>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A102" s="27"/>
+      <c r="B102" s="27"/>
+      <c r="C102" s="27"/>
+      <c r="D102" s="27"/>
+      <c r="E102" s="27"/>
+      <c r="F102" s="27"/>
+      <c r="G102" s="27"/>
+      <c r="H102" s="27"/>
+      <c r="I102" s="27"/>
+      <c r="J102" s="27"/>
+      <c r="K102" s="27"/>
+      <c r="L102" s="27"/>
+      <c r="M102" s="27"/>
+      <c r="N102" s="27"/>
+      <c r="O102" s="27"/>
+      <c r="P102" s="27"/>
+      <c r="Q102" s="27"/>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A103" s="27"/>
+      <c r="B103" s="27"/>
+      <c r="C103" s="27"/>
+      <c r="D103" s="27"/>
+      <c r="E103" s="27"/>
+      <c r="F103" s="27"/>
+      <c r="G103" s="27"/>
+      <c r="H103" s="27"/>
+      <c r="I103" s="27"/>
+      <c r="J103" s="27"/>
+      <c r="K103" s="27"/>
+      <c r="L103" s="27"/>
+      <c r="M103" s="27"/>
+      <c r="N103" s="27"/>
+      <c r="O103" s="27"/>
+      <c r="P103" s="27"/>
+      <c r="Q103" s="27"/>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A104" s="27"/>
+      <c r="B104" s="27"/>
+      <c r="C104" s="27"/>
+      <c r="D104" s="27"/>
+      <c r="E104" s="27"/>
+      <c r="F104" s="27"/>
+      <c r="G104" s="27"/>
+      <c r="H104" s="27"/>
+      <c r="I104" s="27"/>
+      <c r="J104" s="27"/>
+      <c r="K104" s="27"/>
+      <c r="L104" s="27"/>
+      <c r="M104" s="27"/>
+      <c r="N104" s="27"/>
+      <c r="O104" s="27"/>
+      <c r="P104" s="27"/>
+      <c r="Q104" s="27"/>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A105" s="27"/>
+      <c r="B105" s="27"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="27"/>
+      <c r="E105" s="27"/>
+      <c r="F105" s="27"/>
+      <c r="G105" s="27"/>
+      <c r="H105" s="27"/>
+      <c r="I105" s="27"/>
+      <c r="J105" s="27"/>
+      <c r="K105" s="27"/>
+      <c r="L105" s="27"/>
+      <c r="M105" s="27"/>
+      <c r="N105" s="27"/>
+      <c r="O105" s="27"/>
+      <c r="P105" s="27"/>
+      <c r="Q105" s="27"/>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A106" s="27"/>
+      <c r="B106" s="27"/>
+      <c r="C106" s="27"/>
+      <c r="D106" s="27"/>
+      <c r="E106" s="27"/>
+      <c r="F106" s="27"/>
+      <c r="G106" s="27"/>
+      <c r="H106" s="27"/>
+      <c r="I106" s="27"/>
+      <c r="J106" s="27"/>
+      <c r="K106" s="27"/>
+      <c r="L106" s="27"/>
+      <c r="M106" s="27"/>
+      <c r="N106" s="27"/>
+      <c r="O106" s="27"/>
+      <c r="P106" s="27"/>
+      <c r="Q106" s="27"/>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A107" s="27"/>
+      <c r="B107" s="27"/>
+      <c r="C107" s="27"/>
+      <c r="D107" s="27"/>
+      <c r="E107" s="27"/>
+      <c r="F107" s="27"/>
+      <c r="G107" s="27"/>
+      <c r="H107" s="27"/>
+      <c r="I107" s="27"/>
+      <c r="J107" s="27"/>
+      <c r="K107" s="27"/>
+      <c r="L107" s="27"/>
+      <c r="M107" s="27"/>
+      <c r="N107" s="27"/>
+      <c r="O107" s="27"/>
+      <c r="P107" s="27"/>
+      <c r="Q107" s="27"/>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A108" s="27"/>
+      <c r="B108" s="27"/>
+      <c r="C108" s="27"/>
+      <c r="D108" s="27"/>
+      <c r="E108" s="27"/>
+      <c r="F108" s="27"/>
+      <c r="G108" s="27"/>
+      <c r="H108" s="27"/>
+      <c r="I108" s="27"/>
+      <c r="J108" s="27"/>
+      <c r="K108" s="27"/>
+      <c r="L108" s="27"/>
+      <c r="M108" s="27"/>
+      <c r="N108" s="27"/>
+      <c r="O108" s="27"/>
+      <c r="P108" s="27"/>
+      <c r="Q108" s="27"/>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A109" s="27"/>
+      <c r="B109" s="27"/>
+      <c r="C109" s="27"/>
+      <c r="D109" s="27"/>
+      <c r="E109" s="27"/>
+      <c r="F109" s="27"/>
+      <c r="G109" s="27"/>
+      <c r="H109" s="27"/>
+      <c r="I109" s="27"/>
+      <c r="J109" s="27"/>
+      <c r="K109" s="27"/>
+      <c r="L109" s="27"/>
+      <c r="M109" s="27"/>
+      <c r="N109" s="27"/>
+      <c r="O109" s="27"/>
+      <c r="P109" s="27"/>
+      <c r="Q109" s="27"/>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A110" s="27"/>
+      <c r="B110" s="27"/>
+      <c r="C110" s="27"/>
+      <c r="D110" s="27"/>
+      <c r="E110" s="27"/>
+      <c r="F110" s="27"/>
+      <c r="G110" s="27"/>
+      <c r="H110" s="27"/>
+      <c r="I110" s="27"/>
+      <c r="J110" s="27"/>
+      <c r="K110" s="27"/>
+      <c r="L110" s="27"/>
+      <c r="M110" s="27"/>
+      <c r="N110" s="27"/>
+      <c r="O110" s="27"/>
+      <c r="P110" s="27"/>
+      <c r="Q110" s="27"/>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A111" s="27"/>
+      <c r="B111" s="27"/>
+      <c r="C111" s="27"/>
+      <c r="D111" s="27"/>
+      <c r="E111" s="27"/>
+      <c r="F111" s="27"/>
+      <c r="G111" s="27"/>
+      <c r="H111" s="27"/>
+      <c r="I111" s="27"/>
+      <c r="J111" s="27"/>
+      <c r="K111" s="27"/>
+      <c r="L111" s="27"/>
+      <c r="M111" s="27"/>
+      <c r="N111" s="27"/>
+      <c r="O111" s="27"/>
+      <c r="P111" s="27"/>
+      <c r="Q111" s="27"/>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A112" s="27"/>
+      <c r="B112" s="27"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="27"/>
+      <c r="E112" s="27"/>
+      <c r="F112" s="27"/>
+      <c r="G112" s="27"/>
+      <c r="H112" s="27"/>
+      <c r="I112" s="27"/>
+      <c r="J112" s="27"/>
+      <c r="K112" s="27"/>
+      <c r="L112" s="27"/>
+      <c r="M112" s="27"/>
+      <c r="N112" s="27"/>
+      <c r="O112" s="27"/>
+      <c r="P112" s="27"/>
+      <c r="Q112" s="27"/>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A113" s="27"/>
+      <c r="B113" s="27"/>
+      <c r="C113" s="27"/>
+      <c r="D113" s="27"/>
+      <c r="E113" s="27"/>
+      <c r="F113" s="27"/>
+      <c r="G113" s="27"/>
+      <c r="H113" s="27"/>
+      <c r="I113" s="27"/>
+      <c r="J113" s="27"/>
+      <c r="K113" s="27"/>
+      <c r="L113" s="27"/>
+      <c r="M113" s="27"/>
+      <c r="N113" s="27"/>
+      <c r="O113" s="27"/>
+      <c r="P113" s="27"/>
+      <c r="Q113" s="27"/>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A114" s="27"/>
+      <c r="B114" s="27"/>
+      <c r="C114" s="27"/>
+      <c r="D114" s="27"/>
+      <c r="E114" s="27"/>
+      <c r="F114" s="27"/>
+      <c r="G114" s="27"/>
+      <c r="H114" s="27"/>
+      <c r="I114" s="27"/>
+      <c r="J114" s="27"/>
+      <c r="K114" s="27"/>
+      <c r="L114" s="27"/>
+      <c r="M114" s="27"/>
+      <c r="N114" s="27"/>
+      <c r="O114" s="27"/>
+      <c r="P114" s="27"/>
+      <c r="Q114" s="27"/>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A115" s="27"/>
+      <c r="B115" s="27"/>
+      <c r="C115" s="27"/>
+      <c r="D115" s="27"/>
+      <c r="E115" s="27"/>
+      <c r="F115" s="27"/>
+      <c r="G115" s="27"/>
+      <c r="H115" s="27"/>
+      <c r="I115" s="27"/>
+      <c r="J115" s="27"/>
+      <c r="K115" s="27"/>
+      <c r="L115" s="27"/>
+      <c r="M115" s="27"/>
+      <c r="N115" s="27"/>
+      <c r="O115" s="27"/>
+      <c r="P115" s="27"/>
+      <c r="Q115" s="27"/>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A116" s="27"/>
+      <c r="B116" s="27"/>
+      <c r="C116" s="27"/>
+      <c r="D116" s="27"/>
+      <c r="E116" s="27"/>
+      <c r="F116" s="27"/>
+      <c r="G116" s="27"/>
+      <c r="H116" s="27"/>
+      <c r="I116" s="27"/>
+      <c r="J116" s="27"/>
+      <c r="K116" s="27"/>
+      <c r="L116" s="27"/>
+      <c r="M116" s="27"/>
+      <c r="N116" s="27"/>
+      <c r="O116" s="27"/>
+      <c r="P116" s="27"/>
+      <c r="Q116" s="27"/>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A117" s="27"/>
+      <c r="B117" s="27"/>
+      <c r="C117" s="27"/>
+      <c r="D117" s="27"/>
+      <c r="E117" s="27"/>
+      <c r="F117" s="27"/>
+      <c r="G117" s="27"/>
+      <c r="H117" s="27"/>
+      <c r="I117" s="27"/>
+      <c r="J117" s="27"/>
+      <c r="K117" s="27"/>
+      <c r="L117" s="27"/>
+      <c r="M117" s="27"/>
+      <c r="N117" s="27"/>
+      <c r="O117" s="27"/>
+      <c r="P117" s="27"/>
+      <c r="Q117" s="27"/>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A118" s="27"/>
+      <c r="B118" s="27"/>
+      <c r="C118" s="27"/>
+      <c r="D118" s="27"/>
+      <c r="E118" s="27"/>
+      <c r="F118" s="27"/>
+      <c r="G118" s="27"/>
+      <c r="H118" s="27"/>
+      <c r="I118" s="27"/>
+      <c r="J118" s="27"/>
+      <c r="K118" s="27"/>
+      <c r="L118" s="27"/>
+      <c r="M118" s="27"/>
+      <c r="N118" s="27"/>
+      <c r="O118" s="27"/>
+      <c r="P118" s="27"/>
+      <c r="Q118" s="27"/>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A119" s="27"/>
+      <c r="B119" s="27"/>
+      <c r="C119" s="27"/>
+      <c r="D119" s="27"/>
+      <c r="E119" s="27"/>
+      <c r="F119" s="27"/>
+      <c r="G119" s="27"/>
+      <c r="H119" s="27"/>
+      <c r="I119" s="27"/>
+      <c r="J119" s="27"/>
+      <c r="K119" s="27"/>
+      <c r="L119" s="27"/>
+      <c r="M119" s="27"/>
+      <c r="N119" s="27"/>
+      <c r="O119" s="27"/>
+      <c r="P119" s="27"/>
+      <c r="Q119" s="27"/>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A120" s="27"/>
+      <c r="B120" s="27"/>
+      <c r="C120" s="27"/>
+      <c r="D120" s="27"/>
+      <c r="E120" s="27"/>
+      <c r="F120" s="27"/>
+      <c r="G120" s="27"/>
+      <c r="H120" s="27"/>
+      <c r="I120" s="27"/>
+      <c r="J120" s="27"/>
+      <c r="K120" s="27"/>
+      <c r="L120" s="27"/>
+      <c r="M120" s="27"/>
+      <c r="N120" s="27"/>
+      <c r="O120" s="27"/>
+      <c r="P120" s="27"/>
+      <c r="Q120" s="27"/>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A121" s="27"/>
+      <c r="B121" s="27"/>
+      <c r="C121" s="27"/>
+      <c r="D121" s="27"/>
+      <c r="E121" s="27"/>
+      <c r="F121" s="27"/>
+      <c r="G121" s="27"/>
+      <c r="H121" s="27"/>
+      <c r="I121" s="27"/>
+      <c r="J121" s="27"/>
+      <c r="K121" s="27"/>
+      <c r="L121" s="27"/>
+      <c r="M121" s="27"/>
+      <c r="N121" s="27"/>
+      <c r="O121" s="27"/>
+      <c r="P121" s="27"/>
+      <c r="Q121" s="27"/>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A122" s="27"/>
+      <c r="B122" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C122" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="D122" s="27"/>
+      <c r="E122" s="27"/>
+      <c r="F122" s="27"/>
+      <c r="G122" s="27"/>
+      <c r="H122" s="27"/>
+      <c r="I122" s="27"/>
+      <c r="J122" s="27"/>
+      <c r="K122" s="27"/>
+      <c r="L122" s="27"/>
+      <c r="M122" s="27"/>
+      <c r="N122" s="27"/>
+      <c r="O122" s="27"/>
+      <c r="P122" s="27"/>
+      <c r="Q122" s="27"/>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A123" s="27"/>
+      <c r="B123" s="27"/>
+      <c r="C123" s="27"/>
+      <c r="D123" s="27"/>
+      <c r="E123" s="27"/>
+      <c r="F123" s="27"/>
+      <c r="G123" s="27"/>
+      <c r="H123" s="27"/>
+      <c r="I123" s="27"/>
+      <c r="J123" s="27"/>
+      <c r="K123" s="27"/>
+      <c r="L123" s="27"/>
+      <c r="M123" s="27"/>
+      <c r="N123" s="27"/>
+      <c r="O123" s="27"/>
+      <c r="P123" s="27"/>
+      <c r="Q123" s="27"/>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A124" s="27"/>
+      <c r="B124" s="27"/>
+      <c r="C124" s="27"/>
+      <c r="D124" s="27"/>
+      <c r="E124" s="27"/>
+      <c r="F124" s="27"/>
+      <c r="G124" s="27"/>
+      <c r="H124" s="27"/>
+      <c r="I124" s="27"/>
+      <c r="J124" s="27"/>
+      <c r="K124" s="27"/>
+      <c r="L124" s="27"/>
+      <c r="M124" s="27"/>
+      <c r="N124" s="27"/>
+      <c r="O124" s="27"/>
+      <c r="P124" s="27"/>
+      <c r="Q124" s="27"/>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A125" s="27"/>
+      <c r="B125" s="27"/>
+      <c r="C125" s="27"/>
+      <c r="D125" s="27"/>
+      <c r="E125" s="27"/>
+      <c r="F125" s="27"/>
+      <c r="G125" s="27"/>
+      <c r="H125" s="27"/>
+      <c r="I125" s="27"/>
+      <c r="J125" s="27"/>
+      <c r="K125" s="27"/>
+      <c r="L125" s="27"/>
+      <c r="M125" s="27"/>
+      <c r="N125" s="27"/>
+      <c r="O125" s="27"/>
+      <c r="P125" s="27"/>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A126" s="27"/>
+      <c r="B126" s="27"/>
+      <c r="C126" s="27"/>
+      <c r="D126" s="27"/>
+      <c r="E126" s="27"/>
+      <c r="F126" s="27"/>
+      <c r="G126" s="27"/>
+      <c r="H126" s="27"/>
+      <c r="I126" s="27"/>
+      <c r="J126" s="27"/>
+      <c r="K126" s="27"/>
+      <c r="L126" s="27"/>
+      <c r="M126" s="27"/>
+      <c r="N126" s="27"/>
+      <c r="O126" s="27"/>
+      <c r="P126" s="27"/>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A127" s="27"/>
+      <c r="B127" s="27"/>
+      <c r="C127" s="27"/>
+      <c r="D127" s="27"/>
+      <c r="E127" s="27"/>
+      <c r="F127" s="27"/>
+      <c r="G127" s="27"/>
+      <c r="H127" s="27"/>
+      <c r="I127" s="27"/>
+      <c r="J127" s="27"/>
+      <c r="K127" s="27"/>
+      <c r="L127" s="27"/>
+      <c r="M127" s="27"/>
+      <c r="N127" s="27"/>
+      <c r="O127" s="27"/>
+      <c r="P127" s="27"/>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A128" s="27"/>
+      <c r="B128" s="27"/>
+      <c r="C128" s="27"/>
+      <c r="D128" s="27"/>
+      <c r="E128" s="27"/>
+      <c r="F128" s="27"/>
+      <c r="G128" s="27"/>
+      <c r="H128" s="27"/>
+      <c r="I128" s="27"/>
+      <c r="J128" s="27"/>
+      <c r="K128" s="27"/>
+      <c r="L128" s="27"/>
+      <c r="M128" s="27"/>
+      <c r="N128" s="27"/>
+      <c r="O128" s="27"/>
+      <c r="P128" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="27">
+    <mergeCell ref="L49:O49"/>
+    <mergeCell ref="D51:E60"/>
+    <mergeCell ref="F51:G60"/>
+    <mergeCell ref="H51:I60"/>
+    <mergeCell ref="J51:K60"/>
+    <mergeCell ref="L51:M60"/>
+    <mergeCell ref="N51:O60"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="C50:C60"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:I50"/>
     <mergeCell ref="B2:O3"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L47:O47"/>
+    <mergeCell ref="L48:O48"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:V45"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -17801,7 +19824,7 @@
   <sheetData>
     <row r="3" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C3" s="77" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D3" s="77"/>
       <c r="E3" s="77"/>
@@ -17848,7 +19871,7 @@
     <row r="6" spans="3:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="14"/>
       <c r="D6" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
@@ -17874,23 +19897,23 @@
     </row>
     <row r="8" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C8" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="3:22" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C11" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="3:22" x14ac:dyDescent="0.3">
@@ -17898,7 +19921,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="3:22" x14ac:dyDescent="0.3">
@@ -17906,7 +19929,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="3:22" x14ac:dyDescent="0.3">
@@ -17945,7 +19968,7 @@
     <row r="27" spans="3:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C27" s="12"/>
       <c r="D27" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
@@ -17968,10 +19991,10 @@
     </row>
     <row r="29" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="3:22" x14ac:dyDescent="0.3">
@@ -17979,40 +20002,40 @@
     </row>
     <row r="31" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="3:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="3:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -18020,10 +20043,10 @@
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -18038,10 +20061,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AH9"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -18072,51 +20097,51 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="83" t="s">
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="82"/>
-      <c r="L3" s="84" t="s">
+      <c r="K3" s="88"/>
+      <c r="L3" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="84"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="80"/>
-      <c r="X3" s="86" t="s">
+      <c r="M3" s="90"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="91"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="86"/>
+      <c r="X3" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="Y3" s="80"/>
-      <c r="Z3" s="83" t="s">
+      <c r="Y3" s="86"/>
+      <c r="Z3" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="AA3" s="81"/>
-      <c r="AB3" s="82"/>
-      <c r="AC3" s="78" t="s">
+      <c r="AA3" s="87"/>
+      <c r="AB3" s="88"/>
+      <c r="AC3" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="AD3" s="79"/>
-      <c r="AE3" s="79"/>
-      <c r="AF3" s="79"/>
-      <c r="AG3" s="79"/>
-      <c r="AH3" s="79"/>
+      <c r="AD3" s="85"/>
+      <c r="AE3" s="85"/>
+      <c r="AF3" s="85"/>
+      <c r="AG3" s="85"/>
+      <c r="AH3" s="85"/>
     </row>
     <row r="4" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
@@ -18132,10 +20157,10 @@
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>10</v>
@@ -18191,11 +20216,11 @@
       <c r="Y4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Z4" s="87" t="s">
+      <c r="Z4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="AA4" s="88"/>
-      <c r="AB4" s="89"/>
+      <c r="AA4" s="79"/>
+      <c r="AB4" s="80"/>
       <c r="AC4" s="3" t="s">
         <v>10</v>
       </c>
@@ -18226,13 +20251,13 @@
         <v>13</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>14</v>
@@ -18271,30 +20296,30 @@
         <v>25</v>
       </c>
       <c r="T5" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="U5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="U5" s="5" t="s">
+      <c r="V5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="V5" s="5" t="s">
+      <c r="W5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="W5" s="5" t="s">
+      <c r="X5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="X5" s="5" t="s">
+      <c r="Y5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Y5" s="6" t="s">
+      <c r="Z5" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="Z5" s="90" t="s">
+      <c r="AA5" s="82"/>
+      <c r="AB5" s="83"/>
+      <c r="AC5" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="AA5" s="91"/>
-      <c r="AB5" s="92"/>
-      <c r="AC5" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="AD5" s="5" t="s">
         <v>20</v>
@@ -18303,7 +20328,7 @@
         <v>21</v>
       </c>
       <c r="AF5" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG5" s="5" t="s">
         <v>24</v>
@@ -18317,7 +20342,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
@@ -18330,10 +20355,10 @@
         <v>127.12781099999999</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -18366,7 +20391,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D7" s="5">
         <v>3</v>
@@ -18379,10 +20404,10 @@
         <v>127.127611</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -18400,9 +20425,9 @@
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="17"/>
-      <c r="Z7" s="90"/>
-      <c r="AA7" s="91"/>
-      <c r="AB7" s="92"/>
+      <c r="Z7" s="81"/>
+      <c r="AA7" s="82"/>
+      <c r="AB7" s="83"/>
       <c r="AC7" s="6"/>
       <c r="AD7" s="5"/>
       <c r="AE7" s="5"/>
@@ -18415,7 +20440,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D8" s="5">
         <v>4</v>
@@ -18428,10 +20453,10 @@
         <v>127.127291</v>
       </c>
       <c r="H8" s="40" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -18449,9 +20474,9 @@
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="17"/>
-      <c r="Z8" s="90"/>
-      <c r="AA8" s="91"/>
-      <c r="AB8" s="92"/>
+      <c r="Z8" s="81"/>
+      <c r="AA8" s="82"/>
+      <c r="AB8" s="83"/>
       <c r="AC8" s="21"/>
       <c r="AD8" s="5"/>
       <c r="AE8" s="5"/>
@@ -18461,21 +20486,21 @@
     </row>
     <row r="9" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:W3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AB3"/>
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="Z5:AB5"/>
     <mergeCell ref="Z7:AB7"/>
     <mergeCell ref="Z8:AB8"/>
     <mergeCell ref="AC3:AH3"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:W3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AB3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18485,11 +20510,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D37"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18500,24 +20525,24 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">

--- a/00.기획서/221108_스테이지2 기획서_미완성.xlsx
+++ b/00.기획서/221108_스테이지2 기획서_미완성.xlsx
@@ -5627,7 +5627,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="181">
   <si>
     <t xml:space="preserve">컨셉 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -6004,10 +6004,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>스테이지2 두번째, 세번째 목표지점의 VPS 상세 기획을 설명한다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>진행 방식(미니맵 경로, 전체 FLOW)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -6047,10 +6043,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2. VPS 연출</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -6063,18 +6055,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">목표지점3 "버스 정류장" VPS 진행 방식  </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. char</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">플레이어가 통화를 받고 나서부터 어딘가 저조해보이는 하나. 특별한 이벤트까지 준비 했지만…하나는 한 통의 전화를 받고 급격히 안색이 나삐지는데!   </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -6084,10 +6064,6 @@
   </si>
   <si>
     <t>2. 신규 연출</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지2 첫번째 목표지점의 "취향 맞추기" 진행 중 신규 추가된 연출을 설명한다</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -6124,10 +6100,6 @@
   </si>
   <si>
     <t>시작/목표 지점 건물의 상세 정보와 스테이지 내 발생하는 모든 대사 ID를 기입한다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>목표지점 3 - 버스 연출씬</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -6178,27 +6150,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">멀리서 버스가 정류장을 향해 달려오는 느낌. 하나가 멀리 떠날 거 같은 분위기를 주는게 중요함 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">버스 start 좌표 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">버스 end 좌표 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">플레이어 카드 뽑기 장면 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>하나 카드 뽑기 장면</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">e. d순서가 끝나는 즉시 선택지에 대한 결과 대사 UI가 출력된다. </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -6298,10 +6254,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">a. 플레이어 선택 후, 선택지에 관련한 결과 대사 중 "자, 이번엔 여자분 뽑아보세요!" 가 출력되면 플레이어가 뽑은 타로 에셋을 1초간 fade out 하여 삭제한다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">a. "생각보다 긴장되는걸...? 어떤걸 골라볼까?" 출력 후 플레이어가 해당 대사 UI를 클릭하면 대사 UI는 사라지고, 3종 타로 에셋의 뒷면이 대사 UI 상단에 출현한다. </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -6314,23 +6266,111 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>c. 해당 타로는 scale 130%로 확대, Y축 기준 왼쪽 방향 360도로 2.5초간 회전하며 회전속도는 0.5초당 1회이다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">d. 클릭한지 3.25초가 지나면(총 회전횟수 6.5회) c.에서 명시한 위치에 도착하게 되고, 회전을 중단한다. 이 때 타로는 정면이 플레이어를 향한채, scale 130% 확대된 모습으로 출현한다. </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">d. 회전이 종료되면 타로 정면이 플레이어를 향한채 출현한다. </t>
+    <t>멀리서 버스가 정류장을 향해 달려오고 멈춰선다. 하나가 멀리 떠날 거 같은 분위기를 조성하는 용도.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">b. "하나는 눈을 감고 신중하게 카드를 뽑았다. 그 카드는…" 출력 후 플레이어가 해당 대사 UI를 클릭하면 대사 UI는 사라지고, 1종 타로 에셋의 뒷면이 대사 UI 상단에 출현한다. </t>
+    <t>bus start 좌표(X,Y)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">e. d순서가 끝나면 b에서 중단된 대사가 이어서 출력된다. </t>
+    <t>bus end 좌표(X,Y)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>목표지점 1 : 타로 카드 공개 씬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">목표지점 3 : 버스 연출 씬 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>목표지점 3 - 버스 연출 씬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">중앙 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택지 아님</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s2_Thestar.unitypackage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">e. d순서가 끝나는 즉시 선택지에 대한 대사 UI가 출력한다.  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">f. 플레이어에게 선택된 타로 에셋은 출력 후 3초 뒤 fade out하며 사라진다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>핑크색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨간색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">플레이어 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">a. 종료 UI 출력 시 BUS START 좌표에서 버스가 출현한다 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b. 출현하는 동시에 버스 에셋이 START 좌표 에서 출발해서 END 좌표에서 멈춤. 도로 위에서 시속 40km/h 속도로 전진.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">a. "하나는 눈을 감고 신중하게 카드를 뽑았다. 그 카드는…" 출력 후 플레이어가 해당 대사 UI를 클릭하면 대사 UI는 사라지고, 1종 타로 에셋의 뒷면이 대사 UI 상단에 출현한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b. 해당 타로는 처음부터 scale 130% 확대 상태. Y축 기준 왼쪽 방향 360도로 2.5초간 회전하며 회전속도는 0.5초당 1회이다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">c. 회전이 종료되면 타로 정면이 플레이어를 향한채 출현한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">d. d순서가 끝나면 b에서 중단된 대사가 이어서 출력된다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">e. 해당 타로 에셋은 출력 후 3초 뒤 fade out하며 사라진다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지2 두번째 목표지점의 VPS 상세 기획을 설명한다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지2 첫번째와 세번째 목표지점 중 신규 추가된 연출을 설명한다</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6341,7 +6381,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000000_ "/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6485,6 +6525,15 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF66FF"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -6951,7 +7000,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7086,6 +7135,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7231,9 +7283,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7252,12 +7301,20 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF66FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -7586,6 +7643,49 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>382383</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>191658</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1600200" y="9096375"/>
+          <a:ext cx="9907383" cy="8297433"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7594,15 +7694,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>447345</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>52509</xdr:rowOff>
+      <xdr:colOff>94920</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>157284</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>451683</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>36160</xdr:rowOff>
+      <xdr:colOff>99258</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>140935</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7625,8 +7725,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1289941" y="12391047"/>
-          <a:ext cx="2070530" cy="4020784"/>
+          <a:off x="933120" y="21550434"/>
+          <a:ext cx="2061738" cy="3965101"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7642,16 +7742,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>344366</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>183173</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>468191</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>344365</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>80596</xdr:rowOff>
+      <xdr:colOff>446259</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>118696</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7673,8 +7773,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3941885" y="16133885"/>
-          <a:ext cx="4821115" cy="3509596"/>
+          <a:off x="3363791" y="26165175"/>
+          <a:ext cx="5464468" cy="3938221"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9967,11 +10067,11 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>89649</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>43719</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>616325</xdr:colOff>
+      <xdr:colOff>590550</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>170631</xdr:rowOff>
     </xdr:to>
@@ -9990,8 +10090,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8449237" y="10018059"/>
-          <a:ext cx="1210235" cy="2086837"/>
+          <a:off x="8471649" y="10530744"/>
+          <a:ext cx="1186701" cy="2012862"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10154,36 +10254,255 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438193</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>132434</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="119" name="오른쪽 화살표 118"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2943225" y="16535400"/>
+          <a:ext cx="390568" cy="370559"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304843</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>94334</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="120" name="오른쪽 화살표 119"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5553075" y="16497300"/>
+          <a:ext cx="390568" cy="370559"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>543233</xdr:colOff>
+      <xdr:colOff>505133</xdr:colOff>
       <xdr:row>89</xdr:row>
-      <xdr:rowOff>13291</xdr:rowOff>
+      <xdr:rowOff>99016</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="100" name="그룹 99"/>
+        <xdr:cNvPr id="138" name="그룹 137"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="971550" y="14658975"/>
-          <a:ext cx="1781483" cy="4013791"/>
-          <a:chOff x="895350" y="14068425"/>
-          <a:chExt cx="1781483" cy="4013791"/>
+          <a:off x="942975" y="14744700"/>
+          <a:ext cx="1771958" cy="4013791"/>
+          <a:chOff x="3181350" y="14897100"/>
+          <a:chExt cx="1771958" cy="4013791"/>
         </a:xfrm>
       </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="117" name="그룹 116"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="3181350" y="14897100"/>
+            <a:ext cx="1771958" cy="4013791"/>
+            <a:chOff x="3781425" y="14639925"/>
+            <a:chExt cx="1771958" cy="4013791"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="97" name="그림 96">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8A09076-9D0E-BC94-06CF-584998C8BC33}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill rotWithShape="1">
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:srcRect l="-1" t="316" r="3254" b="1"/>
+            <a:stretch/>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3781425" y="14639925"/>
+              <a:ext cx="1771958" cy="4013791"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="108" name="직사각형 107"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3829051" y="17183100"/>
+              <a:ext cx="1685924" cy="1190625"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="57150"/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+                <a:t>하나는 눈을 감고</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+                <a:t>..."</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+                <a:t>대사 출력 후 대사 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+                <a:t>UI </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+                <a:t>삭제</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+                <a:t>,</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+                <a:t> 새로운 타로 에셋 등장 </a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="97" name="그림 96">
+          <xdr:cNvPr id="123" name="그림 122">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8A09076-9D0E-BC94-06CF-584998C8BC33}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95D1A1D8-55CB-3D45-E8F6-39F817A178D1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10191,15 +10510,16 @@
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-          <a:srcRect l="-1" t="316" r="3254" b="1"/>
-          <a:stretch/>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="904875" y="14068425"/>
-            <a:ext cx="1771958" cy="4013791"/>
+            <a:off x="3667124" y="15868650"/>
+            <a:ext cx="809625" cy="1419471"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -10208,22 +10528,22 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="98" name="직사각형 97"/>
+          <xdr:cNvPr id="127" name="직사각형 126"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="895350" y="16602075"/>
-            <a:ext cx="1768071" cy="1039320"/>
+            <a:off x="3533775" y="15687675"/>
+            <a:ext cx="1114425" cy="1638300"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
           </a:ln>
         </xdr:spPr>
         <xdr:style>
@@ -10243,28 +10563,144 @@
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-              <a:t>대사 </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-              <a:t>UI </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-              <a:t>삭제 상태</a:t>
-            </a:r>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>381308</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>99016</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="139" name="그룹 138"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3552825" y="14744700"/>
+          <a:ext cx="1781483" cy="4013791"/>
+          <a:chOff x="5543550" y="14897100"/>
+          <a:chExt cx="1781483" cy="4013791"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="101" name="그룹 100"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="5543550" y="14897100"/>
+            <a:ext cx="1781483" cy="4013791"/>
+            <a:chOff x="895350" y="14068425"/>
+            <a:chExt cx="1781483" cy="4013791"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="102" name="그림 101">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8A09076-9D0E-BC94-06CF-584998C8BC33}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill rotWithShape="1">
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:srcRect l="-1" t="316" r="3254" b="1"/>
+            <a:stretch/>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="904875" y="14068425"/>
+              <a:ext cx="1771958" cy="4013791"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="103" name="직사각형 102"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="895350" y="16602075"/>
+              <a:ext cx="1768071" cy="1039320"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+                <a:t>대사 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+                <a:t>UI </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+                <a:t>삭제 상태</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="99" name="그림 98">
+          <xdr:cNvPr id="124" name="그림 123">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                 <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95D1A1D8-55CB-3D45-E8F6-39F817A178D1}"/>
@@ -10283,14 +10719,589 @@
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1457325" y="15173325"/>
-            <a:ext cx="704850" cy="1235775"/>
+            <a:off x="6372225" y="15840075"/>
+            <a:ext cx="200025" cy="1419471"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
         </xdr:spPr>
       </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="128" name="직사각형 127"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5924550" y="15706725"/>
+            <a:ext cx="1114425" cy="1638300"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="130" name="직사각형 129"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5619750" y="17459325"/>
+            <a:ext cx="1685924" cy="1190625"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="57150"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>Y</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>축 기준 왼쪽 방향 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>360</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>도로 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>2.5</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>초간 회전하며 회전속도는 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>0.5</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>초당 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>회</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85166</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>40341</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1212477" cy="2059065"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="133" name="그림 132"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2980766" y="10527366"/>
+          <a:ext cx="1212477" cy="2059065"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>58748</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>155140</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="134" name="그림 133"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1657351" y="20604173"/>
+          <a:ext cx="1152524" cy="1982342"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>375558</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>181536</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="136" name="직사각형 135"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8071758" y="5220261"/>
+          <a:ext cx="1596117" cy="399490"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>출현 후 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>초 뒤 사라짐</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>409883</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>99016</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="140" name="그룹 139"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6334125" y="14744700"/>
+          <a:ext cx="1771958" cy="4013791"/>
+          <a:chOff x="6334125" y="14744700"/>
+          <a:chExt cx="1771958" cy="4013791"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="122" name="그룹 121"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="6334125" y="14744700"/>
+            <a:ext cx="1771958" cy="4013791"/>
+            <a:chOff x="7972425" y="14668500"/>
+            <a:chExt cx="1771958" cy="4013791"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="111" name="그룹 110"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="7972425" y="14668500"/>
+              <a:ext cx="1771958" cy="4013791"/>
+              <a:chOff x="6924675" y="14658975"/>
+              <a:chExt cx="1771958" cy="4013791"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:pic>
+            <xdr:nvPicPr>
+              <xdr:cNvPr id="105" name="그림 104">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8A09076-9D0E-BC94-06CF-584998C8BC33}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvPicPr>
+                <a:picLocks noChangeAspect="1"/>
+              </xdr:cNvPicPr>
+            </xdr:nvPicPr>
+            <xdr:blipFill rotWithShape="1">
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+              <a:srcRect l="-1" t="316" r="3254" b="1"/>
+              <a:stretch/>
+            </xdr:blipFill>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="6924675" y="14658975"/>
+                <a:ext cx="1771958" cy="4013791"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+          </xdr:pic>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="106" name="직사각형 105"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="6924675" y="17164050"/>
+                <a:ext cx="1768071" cy="1039320"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+                  <a:t>대사 </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+                  <a:t>UI </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+                  <a:t>삭제 상태</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="121" name="그림 120"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8477250" y="15678149"/>
+              <a:ext cx="814055" cy="1400175"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="129" name="직사각형 128"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6743700" y="15592425"/>
+            <a:ext cx="1114425" cy="1638300"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="131" name="직사각형 130"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6410325" y="17297400"/>
+            <a:ext cx="1685924" cy="1190625"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="57150"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>회전이 종료되면 타로 정면이 플레이어를 향한채 출현하고 </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>대사 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>UI</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+              <a:t>이어서 출력</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="137" name="직사각형 136"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6429375" y="15068550"/>
+            <a:ext cx="1596117" cy="399490"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>출현 후 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>3</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>초 뒤 사라짐</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -10775,7 +11786,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:P33"/>
+  <dimension ref="C1:P35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -10786,38 +11797,38 @@
   <sheetData>
     <row r="1" spans="3:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="48"/>
     </row>
     <row r="3" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C3" s="48"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="50"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="51"/>
     </row>
     <row r="4" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C4" s="28"/>
@@ -10934,107 +11945,107 @@
     <row r="11" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C11" s="28"/>
       <c r="D11" s="23"/>
-      <c r="E11" s="58" t="s">
+      <c r="E11" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="59"/>
-      <c r="G11" s="60" t="s">
+      <c r="F11" s="60"/>
+      <c r="G11" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="58" t="s">
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="O11" s="59"/>
+      <c r="O11" s="60"/>
       <c r="P11" s="29"/>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C12" s="28"/>
       <c r="D12" s="23"/>
-      <c r="E12" s="52" t="s">
+      <c r="E12" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="53"/>
-      <c r="G12" s="65" t="s">
+      <c r="F12" s="54"/>
+      <c r="G12" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="72" t="s">
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="O12" s="73"/>
+      <c r="O12" s="74"/>
       <c r="P12" s="29"/>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C13" s="28"/>
       <c r="D13" s="23"/>
-      <c r="E13" s="68" t="s">
-        <v>108</v>
-      </c>
-      <c r="F13" s="69"/>
-      <c r="G13" s="68" t="s">
-        <v>109</v>
-      </c>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="70" t="s">
-        <v>107</v>
-      </c>
-      <c r="O13" s="71"/>
+      <c r="E13" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="70"/>
+      <c r="G13" s="69" t="s">
+        <v>180</v>
+      </c>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="71" t="s">
+        <v>102</v>
+      </c>
+      <c r="O13" s="72"/>
       <c r="P13" s="29"/>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C14" s="28"/>
       <c r="D14" s="23"/>
-      <c r="E14" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="F14" s="55"/>
-      <c r="G14" s="66" t="s">
-        <v>94</v>
-      </c>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="74" t="s">
+      <c r="E14" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" s="56"/>
+      <c r="G14" s="67" t="s">
+        <v>179</v>
+      </c>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="O14" s="75"/>
+      <c r="O14" s="76"/>
       <c r="P14" s="29"/>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C15" s="28"/>
       <c r="D15" s="23"/>
-      <c r="E15" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="F15" s="55"/>
-      <c r="G15" s="66" t="s">
-        <v>118</v>
-      </c>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="66"/>
+      <c r="E15" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="56"/>
+      <c r="G15" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
       <c r="N15" s="30" t="s">
         <v>70</v>
       </c>
@@ -11046,23 +12057,23 @@
     <row r="16" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C16" s="28"/>
       <c r="D16" s="23"/>
-      <c r="E16" s="56" t="s">
-        <v>112</v>
-      </c>
-      <c r="F16" s="57"/>
-      <c r="G16" s="67" t="s">
+      <c r="E16" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="58"/>
+      <c r="G16" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="63" t="s">
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="O16" s="64"/>
+      <c r="O16" s="65"/>
       <c r="P16" s="29"/>
     </row>
     <row r="17" spans="3:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -11104,10 +12115,10 @@
       <c r="F19" s="23"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
-      <c r="I19" s="51" t="s">
+      <c r="I19" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="J19" s="51"/>
+      <c r="J19" s="52"/>
       <c r="K19" s="23"/>
       <c r="L19" s="23"/>
       <c r="M19" s="23"/>
@@ -11115,17 +12126,15 @@
       <c r="O19" s="23"/>
       <c r="P19" s="29"/>
     </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:16" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C20" s="28"/>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
-      <c r="G20" s="23" t="s">
-        <v>88</v>
-      </c>
+      <c r="G20" s="23"/>
       <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
       <c r="K20" s="23"/>
       <c r="L20" s="23"/>
       <c r="M20" s="23"/>
@@ -11138,12 +12147,10 @@
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
       <c r="F21" s="23"/>
-      <c r="G21" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="H21" s="23" t="s">
-        <v>80</v>
-      </c>
+      <c r="G21" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="H21" s="23"/>
       <c r="I21" s="23"/>
       <c r="J21" s="23"/>
       <c r="K21" s="23"/>
@@ -11162,7 +12169,7 @@
         <v>72</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="I22" s="23"/>
       <c r="J22" s="23"/>
@@ -11179,10 +12186,10 @@
       <c r="E23" s="23"/>
       <c r="F23" s="23"/>
       <c r="G23" s="35" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="H23" s="23" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="I23" s="23"/>
       <c r="J23" s="23"/>
@@ -11198,10 +12205,12 @@
       <c r="D24" s="23"/>
       <c r="E24" s="23"/>
       <c r="F24" s="23"/>
-      <c r="G24" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="H24" s="23"/>
+      <c r="G24" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>84</v>
+      </c>
       <c r="I24" s="23"/>
       <c r="J24" s="23"/>
       <c r="K24" s="23"/>
@@ -11216,12 +12225,10 @@
       <c r="D25" s="23"/>
       <c r="E25" s="23"/>
       <c r="F25" s="23"/>
-      <c r="G25" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="H25" s="23" t="s">
-        <v>101</v>
-      </c>
+      <c r="G25" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="H25" s="23"/>
       <c r="I25" s="23"/>
       <c r="J25" s="23"/>
       <c r="K25" s="23"/>
@@ -11237,10 +12244,10 @@
       <c r="E26" s="23"/>
       <c r="F26" s="23"/>
       <c r="G26" s="35" t="s">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="H26" s="23" t="s">
-        <v>102</v>
+        <v>159</v>
       </c>
       <c r="I26" s="23"/>
       <c r="J26" s="23"/>
@@ -11257,10 +12264,10 @@
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
       <c r="G27" s="35" t="s">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="H27" s="23" t="s">
-        <v>103</v>
+        <v>161</v>
       </c>
       <c r="I27" s="23"/>
       <c r="J27" s="23"/>
@@ -11294,8 +12301,12 @@
       <c r="D29" s="23"/>
       <c r="E29" s="23"/>
       <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
+      <c r="G29" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="H29" s="23" t="s">
+        <v>99</v>
+      </c>
       <c r="I29" s="23"/>
       <c r="J29" s="23"/>
       <c r="K29" s="23"/>
@@ -11310,10 +12321,12 @@
       <c r="D30" s="23"/>
       <c r="E30" s="23"/>
       <c r="F30" s="23"/>
-      <c r="G30" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="H30" s="23"/>
+      <c r="G30" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="H30" s="23" t="s">
+        <v>100</v>
+      </c>
       <c r="I30" s="23"/>
       <c r="J30" s="23"/>
       <c r="K30" s="23"/>
@@ -11328,7 +12341,9 @@
       <c r="D31" s="23"/>
       <c r="E31" s="23"/>
       <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
+      <c r="G31" s="23" t="s">
+        <v>105</v>
+      </c>
       <c r="H31" s="23"/>
       <c r="I31" s="23"/>
       <c r="J31" s="23"/>
@@ -11355,21 +12370,55 @@
       <c r="O32" s="23"/>
       <c r="P32" s="29"/>
     </row>
-    <row r="33" spans="3:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C33" s="32"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="33"/>
+    <row r="33" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C33" s="28"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="29"/>
+    </row>
+    <row r="34" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C34" s="28"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="29"/>
+    </row>
+    <row r="35" spans="3:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="32"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -11402,9 +12451,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z368"/>
+  <dimension ref="A1:Z375"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -11442,22 +12491,22 @@
     <row r="2" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="23"/>
       <c r="B2" s="23"/>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
       <c r="Q2" s="42"/>
       <c r="R2" s="13"/>
       <c r="S2" s="23"/>
@@ -11472,20 +12521,20 @@
     <row r="3" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23"/>
       <c r="B3" s="23"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
       <c r="Q3" s="42"/>
       <c r="R3" s="13"/>
       <c r="S3" s="23"/>
@@ -11714,7 +12763,7 @@
       <c r="B11" s="23"/>
       <c r="C11" s="27"/>
       <c r="D11" s="27" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E11" s="27"/>
       <c r="F11" s="27"/>
@@ -13579,224 +14628,224 @@
       <c r="Y76" s="23"/>
       <c r="Z76" s="23"/>
     </row>
-    <row r="78" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C78" s="25"/>
-      <c r="D78" s="26" t="s">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A78" s="23"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="23"/>
+      <c r="H78" s="23"/>
+      <c r="I78" s="23"/>
+      <c r="J78" s="23"/>
+      <c r="K78" s="23"/>
+      <c r="L78" s="23"/>
+      <c r="M78" s="23"/>
+      <c r="N78" s="23"/>
+      <c r="O78" s="23"/>
+      <c r="P78" s="23"/>
+      <c r="Q78" s="23"/>
+      <c r="R78" s="23"/>
+      <c r="S78" s="23"/>
+      <c r="T78" s="23"/>
+      <c r="U78" s="23"/>
+      <c r="V78" s="23"/>
+      <c r="W78" s="23"/>
+      <c r="X78" s="23"/>
+      <c r="Y78" s="23"/>
+      <c r="Z78" s="23"/>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A79" s="23"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="23"/>
+      <c r="I79" s="23"/>
+      <c r="J79" s="23"/>
+      <c r="K79" s="23"/>
+      <c r="L79" s="23"/>
+      <c r="M79" s="23"/>
+      <c r="N79" s="23"/>
+      <c r="O79" s="23"/>
+      <c r="P79" s="23"/>
+      <c r="Q79" s="23"/>
+      <c r="R79" s="23"/>
+      <c r="S79" s="23"/>
+      <c r="T79" s="23"/>
+      <c r="U79" s="23"/>
+      <c r="V79" s="23"/>
+      <c r="W79" s="23"/>
+      <c r="X79" s="23"/>
+      <c r="Y79" s="23"/>
+      <c r="Z79" s="23"/>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A80" s="23"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="23"/>
+      <c r="H80" s="23"/>
+      <c r="I80" s="23"/>
+      <c r="J80" s="23"/>
+      <c r="K80" s="23"/>
+      <c r="L80" s="23"/>
+      <c r="M80" s="23"/>
+      <c r="N80" s="23"/>
+      <c r="O80" s="23"/>
+      <c r="P80" s="23"/>
+      <c r="Q80" s="23"/>
+      <c r="R80" s="23"/>
+      <c r="S80" s="23"/>
+      <c r="T80" s="23"/>
+      <c r="U80" s="23"/>
+      <c r="V80" s="23"/>
+      <c r="W80" s="23"/>
+      <c r="X80" s="23"/>
+      <c r="Y80" s="23"/>
+      <c r="Z80" s="23"/>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A81" s="23"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="23"/>
+      <c r="H81" s="23"/>
+      <c r="I81" s="23"/>
+      <c r="J81" s="23"/>
+      <c r="K81" s="23"/>
+      <c r="L81" s="23"/>
+      <c r="M81" s="23"/>
+      <c r="N81" s="23"/>
+      <c r="O81" s="23"/>
+      <c r="P81" s="23"/>
+      <c r="Q81" s="23"/>
+      <c r="R81" s="23"/>
+      <c r="S81" s="23"/>
+      <c r="T81" s="23"/>
+      <c r="U81" s="23"/>
+      <c r="V81" s="23"/>
+      <c r="W81" s="23"/>
+      <c r="X81" s="23"/>
+      <c r="Y81" s="23"/>
+      <c r="Z81" s="23"/>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A82" s="23"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="23"/>
+      <c r="H82" s="23"/>
+      <c r="I82" s="23"/>
+      <c r="J82" s="23"/>
+      <c r="K82" s="23"/>
+      <c r="L82" s="23"/>
+      <c r="M82" s="23"/>
+      <c r="N82" s="23"/>
+      <c r="O82" s="23"/>
+      <c r="P82" s="23"/>
+      <c r="Q82" s="23"/>
+      <c r="R82" s="23"/>
+      <c r="S82" s="23"/>
+      <c r="T82" s="23"/>
+      <c r="U82" s="23"/>
+      <c r="V82" s="23"/>
+      <c r="W82" s="23"/>
+      <c r="X82" s="23"/>
+      <c r="Y82" s="23"/>
+      <c r="Z82" s="23"/>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A83" s="23"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="23"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="23"/>
+      <c r="H83" s="23"/>
+      <c r="I83" s="23"/>
+      <c r="J83" s="23"/>
+      <c r="K83" s="23"/>
+      <c r="L83" s="23"/>
+      <c r="M83" s="23"/>
+      <c r="N83" s="23"/>
+      <c r="O83" s="23"/>
+      <c r="P83" s="23"/>
+      <c r="Q83" s="23"/>
+      <c r="R83" s="23"/>
+      <c r="S83" s="23"/>
+      <c r="T83" s="23"/>
+      <c r="U83" s="23"/>
+      <c r="V83" s="23"/>
+      <c r="W83" s="23"/>
+      <c r="X83" s="23"/>
+      <c r="Y83" s="23"/>
+      <c r="Z83" s="23"/>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A84" s="23"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="23"/>
+      <c r="H84" s="23"/>
+      <c r="I84" s="23"/>
+      <c r="J84" s="23"/>
+      <c r="K84" s="23"/>
+      <c r="L84" s="23"/>
+      <c r="M84" s="23"/>
+      <c r="N84" s="23"/>
+      <c r="O84" s="23"/>
+      <c r="P84" s="23"/>
+      <c r="Q84" s="23"/>
+      <c r="R84" s="23"/>
+      <c r="S84" s="23"/>
+      <c r="T84" s="23"/>
+      <c r="U84" s="23"/>
+      <c r="V84" s="23"/>
+      <c r="W84" s="23"/>
+      <c r="X84" s="23"/>
+      <c r="Y84" s="23"/>
+      <c r="Z84" s="23"/>
+    </row>
+    <row r="85" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C85" s="25"/>
+      <c r="D85" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="E78" s="38"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="26"/>
-      <c r="H78" s="26"/>
-      <c r="I78" s="26"/>
-      <c r="J78" s="26"/>
-      <c r="K78" s="26"/>
-      <c r="L78" s="26"/>
-      <c r="M78" s="24"/>
-      <c r="N78" s="24"/>
-      <c r="O78" s="24"/>
-      <c r="P78" s="24"/>
-    </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D80" s="23" t="s">
+      <c r="E85" s="38"/>
+      <c r="F85" s="26"/>
+      <c r="G85" s="26"/>
+      <c r="H85" s="26"/>
+      <c r="I85" s="26"/>
+      <c r="J85" s="26"/>
+      <c r="K85" s="26"/>
+      <c r="L85" s="26"/>
+      <c r="M85" s="24"/>
+      <c r="N85" s="24"/>
+      <c r="O85" s="24"/>
+      <c r="P85" s="24"/>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D87" s="23" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="239" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A239" s="23"/>
-      <c r="B239" s="23"/>
-      <c r="C239" s="23"/>
-      <c r="D239" s="23"/>
-      <c r="E239" s="23"/>
-      <c r="F239" s="23"/>
-      <c r="G239" s="23"/>
-      <c r="H239" s="23"/>
-      <c r="I239" s="23"/>
-      <c r="J239" s="23"/>
-      <c r="K239" s="23"/>
-      <c r="L239" s="23"/>
-      <c r="M239" s="23"/>
-      <c r="N239" s="23"/>
-      <c r="O239" s="23"/>
-      <c r="P239" s="23"/>
-      <c r="Q239" s="23"/>
-      <c r="R239" s="23"/>
-      <c r="S239" s="23"/>
-      <c r="T239" s="23"/>
-      <c r="U239" s="23"/>
-      <c r="V239" s="23"/>
-      <c r="W239" s="23"/>
-      <c r="X239" s="23"/>
-      <c r="Y239" s="23"/>
-      <c r="Z239" s="23"/>
-    </row>
-    <row r="240" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A240" s="23"/>
-      <c r="B240" s="23"/>
-      <c r="C240" s="23"/>
-      <c r="D240" s="23"/>
-      <c r="E240" s="23"/>
-      <c r="F240" s="23"/>
-      <c r="G240" s="23"/>
-      <c r="H240" s="23"/>
-      <c r="I240" s="23"/>
-      <c r="J240" s="23"/>
-      <c r="K240" s="23"/>
-      <c r="L240" s="23"/>
-      <c r="M240" s="23"/>
-      <c r="N240" s="23"/>
-      <c r="O240" s="23"/>
-      <c r="P240" s="23"/>
-      <c r="Q240" s="23"/>
-      <c r="R240" s="23"/>
-      <c r="S240" s="23"/>
-      <c r="T240" s="23"/>
-      <c r="U240" s="23"/>
-      <c r="V240" s="23"/>
-      <c r="W240" s="23"/>
-      <c r="X240" s="23"/>
-      <c r="Y240" s="23"/>
-      <c r="Z240" s="23"/>
-    </row>
-    <row r="241" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A241" s="23"/>
-      <c r="B241" s="23"/>
-      <c r="C241" s="23"/>
-      <c r="D241" s="23"/>
-      <c r="E241" s="23"/>
-      <c r="F241" s="23"/>
-      <c r="G241" s="23"/>
-      <c r="H241" s="23"/>
-      <c r="I241" s="23"/>
-      <c r="J241" s="23"/>
-      <c r="K241" s="23"/>
-      <c r="L241" s="23"/>
-      <c r="M241" s="23"/>
-      <c r="N241" s="23"/>
-      <c r="O241" s="23"/>
-      <c r="P241" s="23"/>
-      <c r="Q241" s="23"/>
-      <c r="R241" s="23"/>
-      <c r="S241" s="23"/>
-      <c r="T241" s="23"/>
-      <c r="U241" s="23"/>
-      <c r="V241" s="23"/>
-      <c r="W241" s="23"/>
-      <c r="X241" s="23"/>
-      <c r="Y241" s="23"/>
-      <c r="Z241" s="23"/>
-    </row>
-    <row r="242" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A242" s="23"/>
-      <c r="B242" s="23"/>
-      <c r="C242" s="23"/>
-      <c r="D242" s="23"/>
-      <c r="E242" s="23"/>
-      <c r="F242" s="23"/>
-      <c r="G242" s="23"/>
-      <c r="H242" s="23"/>
-      <c r="I242" s="23"/>
-      <c r="J242" s="23"/>
-      <c r="K242" s="23"/>
-      <c r="L242" s="23"/>
-      <c r="M242" s="23"/>
-      <c r="N242" s="23"/>
-      <c r="O242" s="23"/>
-      <c r="P242" s="23"/>
-      <c r="Q242" s="23"/>
-      <c r="R242" s="23"/>
-      <c r="S242" s="23"/>
-      <c r="T242" s="23"/>
-      <c r="U242" s="23"/>
-      <c r="V242" s="23"/>
-      <c r="W242" s="23"/>
-      <c r="X242" s="23"/>
-      <c r="Y242" s="23"/>
-      <c r="Z242" s="23"/>
-    </row>
-    <row r="243" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A243" s="23"/>
-      <c r="B243" s="23"/>
-      <c r="C243" s="23"/>
-      <c r="D243" s="23"/>
-      <c r="E243" s="23"/>
-      <c r="F243" s="23"/>
-      <c r="G243" s="23"/>
-      <c r="H243" s="23"/>
-      <c r="I243" s="23"/>
-      <c r="J243" s="23"/>
-      <c r="K243" s="23"/>
-      <c r="L243" s="23"/>
-      <c r="M243" s="23"/>
-      <c r="N243" s="23"/>
-      <c r="O243" s="23"/>
-      <c r="P243" s="23"/>
-      <c r="Q243" s="23"/>
-      <c r="R243" s="23"/>
-      <c r="S243" s="23"/>
-      <c r="T243" s="23"/>
-      <c r="U243" s="23"/>
-      <c r="V243" s="23"/>
-      <c r="W243" s="23"/>
-      <c r="X243" s="23"/>
-      <c r="Y243" s="23"/>
-      <c r="Z243" s="23"/>
-    </row>
-    <row r="244" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A244" s="23"/>
-      <c r="B244" s="23"/>
-      <c r="C244" s="23"/>
-      <c r="D244" s="23"/>
-      <c r="E244" s="23"/>
-      <c r="F244" s="23"/>
-      <c r="G244" s="23"/>
-      <c r="H244" s="23"/>
-      <c r="I244" s="23"/>
-      <c r="J244" s="23"/>
-      <c r="K244" s="23"/>
-      <c r="L244" s="23"/>
-      <c r="M244" s="23"/>
-      <c r="N244" s="23"/>
-      <c r="O244" s="23"/>
-      <c r="P244" s="23"/>
-      <c r="Q244" s="23"/>
-      <c r="R244" s="23"/>
-      <c r="S244" s="23"/>
-      <c r="T244" s="23"/>
-      <c r="U244" s="23"/>
-      <c r="V244" s="23"/>
-      <c r="W244" s="23"/>
-      <c r="X244" s="23"/>
-      <c r="Y244" s="23"/>
-      <c r="Z244" s="23"/>
-    </row>
-    <row r="245" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A245" s="23"/>
-      <c r="B245" s="23"/>
-      <c r="C245" s="23"/>
-      <c r="D245" s="23"/>
-      <c r="E245" s="23"/>
-      <c r="F245" s="23"/>
-      <c r="G245" s="23"/>
-      <c r="H245" s="23"/>
-      <c r="I245" s="23"/>
-      <c r="J245" s="23"/>
-      <c r="K245" s="23"/>
-      <c r="L245" s="23"/>
-      <c r="M245" s="23"/>
-      <c r="N245" s="23"/>
-      <c r="O245" s="23"/>
-      <c r="P245" s="23"/>
-      <c r="Q245" s="23"/>
-      <c r="R245" s="23"/>
-      <c r="S245" s="23"/>
-      <c r="T245" s="23"/>
-      <c r="U245" s="23"/>
-      <c r="V245" s="23"/>
-      <c r="W245" s="23"/>
-      <c r="X245" s="23"/>
-      <c r="Y245" s="23"/>
-      <c r="Z245" s="23"/>
     </row>
     <row r="246" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A246" s="23"/>
@@ -17242,6 +18291,202 @@
       <c r="Y368" s="23"/>
       <c r="Z368" s="23"/>
     </row>
+    <row r="369" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A369" s="23"/>
+      <c r="B369" s="23"/>
+      <c r="C369" s="23"/>
+      <c r="D369" s="23"/>
+      <c r="E369" s="23"/>
+      <c r="F369" s="23"/>
+      <c r="G369" s="23"/>
+      <c r="H369" s="23"/>
+      <c r="I369" s="23"/>
+      <c r="J369" s="23"/>
+      <c r="K369" s="23"/>
+      <c r="L369" s="23"/>
+      <c r="M369" s="23"/>
+      <c r="N369" s="23"/>
+      <c r="O369" s="23"/>
+      <c r="P369" s="23"/>
+      <c r="Q369" s="23"/>
+      <c r="R369" s="23"/>
+      <c r="S369" s="23"/>
+      <c r="T369" s="23"/>
+      <c r="U369" s="23"/>
+      <c r="V369" s="23"/>
+      <c r="W369" s="23"/>
+      <c r="X369" s="23"/>
+      <c r="Y369" s="23"/>
+      <c r="Z369" s="23"/>
+    </row>
+    <row r="370" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A370" s="23"/>
+      <c r="B370" s="23"/>
+      <c r="C370" s="23"/>
+      <c r="D370" s="23"/>
+      <c r="E370" s="23"/>
+      <c r="F370" s="23"/>
+      <c r="G370" s="23"/>
+      <c r="H370" s="23"/>
+      <c r="I370" s="23"/>
+      <c r="J370" s="23"/>
+      <c r="K370" s="23"/>
+      <c r="L370" s="23"/>
+      <c r="M370" s="23"/>
+      <c r="N370" s="23"/>
+      <c r="O370" s="23"/>
+      <c r="P370" s="23"/>
+      <c r="Q370" s="23"/>
+      <c r="R370" s="23"/>
+      <c r="S370" s="23"/>
+      <c r="T370" s="23"/>
+      <c r="U370" s="23"/>
+      <c r="V370" s="23"/>
+      <c r="W370" s="23"/>
+      <c r="X370" s="23"/>
+      <c r="Y370" s="23"/>
+      <c r="Z370" s="23"/>
+    </row>
+    <row r="371" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A371" s="23"/>
+      <c r="B371" s="23"/>
+      <c r="C371" s="23"/>
+      <c r="D371" s="23"/>
+      <c r="E371" s="23"/>
+      <c r="F371" s="23"/>
+      <c r="G371" s="23"/>
+      <c r="H371" s="23"/>
+      <c r="I371" s="23"/>
+      <c r="J371" s="23"/>
+      <c r="K371" s="23"/>
+      <c r="L371" s="23"/>
+      <c r="M371" s="23"/>
+      <c r="N371" s="23"/>
+      <c r="O371" s="23"/>
+      <c r="P371" s="23"/>
+      <c r="Q371" s="23"/>
+      <c r="R371" s="23"/>
+      <c r="S371" s="23"/>
+      <c r="T371" s="23"/>
+      <c r="U371" s="23"/>
+      <c r="V371" s="23"/>
+      <c r="W371" s="23"/>
+      <c r="X371" s="23"/>
+      <c r="Y371" s="23"/>
+      <c r="Z371" s="23"/>
+    </row>
+    <row r="372" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A372" s="23"/>
+      <c r="B372" s="23"/>
+      <c r="C372" s="23"/>
+      <c r="D372" s="23"/>
+      <c r="E372" s="23"/>
+      <c r="F372" s="23"/>
+      <c r="G372" s="23"/>
+      <c r="H372" s="23"/>
+      <c r="I372" s="23"/>
+      <c r="J372" s="23"/>
+      <c r="K372" s="23"/>
+      <c r="L372" s="23"/>
+      <c r="M372" s="23"/>
+      <c r="N372" s="23"/>
+      <c r="O372" s="23"/>
+      <c r="P372" s="23"/>
+      <c r="Q372" s="23"/>
+      <c r="R372" s="23"/>
+      <c r="S372" s="23"/>
+      <c r="T372" s="23"/>
+      <c r="U372" s="23"/>
+      <c r="V372" s="23"/>
+      <c r="W372" s="23"/>
+      <c r="X372" s="23"/>
+      <c r="Y372" s="23"/>
+      <c r="Z372" s="23"/>
+    </row>
+    <row r="373" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A373" s="23"/>
+      <c r="B373" s="23"/>
+      <c r="C373" s="23"/>
+      <c r="D373" s="23"/>
+      <c r="E373" s="23"/>
+      <c r="F373" s="23"/>
+      <c r="G373" s="23"/>
+      <c r="H373" s="23"/>
+      <c r="I373" s="23"/>
+      <c r="J373" s="23"/>
+      <c r="K373" s="23"/>
+      <c r="L373" s="23"/>
+      <c r="M373" s="23"/>
+      <c r="N373" s="23"/>
+      <c r="O373" s="23"/>
+      <c r="P373" s="23"/>
+      <c r="Q373" s="23"/>
+      <c r="R373" s="23"/>
+      <c r="S373" s="23"/>
+      <c r="T373" s="23"/>
+      <c r="U373" s="23"/>
+      <c r="V373" s="23"/>
+      <c r="W373" s="23"/>
+      <c r="X373" s="23"/>
+      <c r="Y373" s="23"/>
+      <c r="Z373" s="23"/>
+    </row>
+    <row r="374" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A374" s="23"/>
+      <c r="B374" s="23"/>
+      <c r="C374" s="23"/>
+      <c r="D374" s="23"/>
+      <c r="E374" s="23"/>
+      <c r="F374" s="23"/>
+      <c r="G374" s="23"/>
+      <c r="H374" s="23"/>
+      <c r="I374" s="23"/>
+      <c r="J374" s="23"/>
+      <c r="K374" s="23"/>
+      <c r="L374" s="23"/>
+      <c r="M374" s="23"/>
+      <c r="N374" s="23"/>
+      <c r="O374" s="23"/>
+      <c r="P374" s="23"/>
+      <c r="Q374" s="23"/>
+      <c r="R374" s="23"/>
+      <c r="S374" s="23"/>
+      <c r="T374" s="23"/>
+      <c r="U374" s="23"/>
+      <c r="V374" s="23"/>
+      <c r="W374" s="23"/>
+      <c r="X374" s="23"/>
+      <c r="Y374" s="23"/>
+      <c r="Z374" s="23"/>
+    </row>
+    <row r="375" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A375" s="23"/>
+      <c r="B375" s="23"/>
+      <c r="C375" s="23"/>
+      <c r="D375" s="23"/>
+      <c r="E375" s="23"/>
+      <c r="F375" s="23"/>
+      <c r="G375" s="23"/>
+      <c r="H375" s="23"/>
+      <c r="I375" s="23"/>
+      <c r="J375" s="23"/>
+      <c r="K375" s="23"/>
+      <c r="L375" s="23"/>
+      <c r="M375" s="23"/>
+      <c r="N375" s="23"/>
+      <c r="O375" s="23"/>
+      <c r="P375" s="23"/>
+      <c r="Q375" s="23"/>
+      <c r="R375" s="23"/>
+      <c r="S375" s="23"/>
+      <c r="T375" s="23"/>
+      <c r="U375" s="23"/>
+      <c r="V375" s="23"/>
+      <c r="W375" s="23"/>
+      <c r="X375" s="23"/>
+      <c r="Y375" s="23"/>
+      <c r="Z375" s="23"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:P3"/>
@@ -17255,48 +18500,50 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q128"/>
+  <dimension ref="A2:Q153"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B2" s="76" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
+    <row r="2" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="27"/>
@@ -17323,7 +18570,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D5" s="26"/>
       <c r="E5" s="26"/>
@@ -17337,7 +18584,7 @@
       <c r="M5" s="26"/>
       <c r="N5" s="26"/>
       <c r="O5" s="26"/>
-      <c r="P5" s="27"/>
+      <c r="P5" s="26"/>
       <c r="Q5" s="27"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -17365,7 +18612,7 @@
         <v>43</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
@@ -17386,7 +18633,7 @@
       <c r="A8" s="27"/>
       <c r="B8" s="27"/>
       <c r="C8" s="27" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
@@ -17428,7 +18675,7 @@
         <v>43</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
@@ -17449,7 +18696,7 @@
       <c r="A11" s="27"/>
       <c r="B11" s="27"/>
       <c r="C11" s="27" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="27"/>
@@ -17470,7 +18717,7 @@
       <c r="A12" s="27"/>
       <c r="B12" s="27"/>
       <c r="C12" s="27" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
@@ -17512,7 +18759,7 @@
         <v>43</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
@@ -17535,7 +18782,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
@@ -17556,7 +18803,7 @@
       <c r="A16" s="27"/>
       <c r="B16" s="27"/>
       <c r="C16" s="27" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
@@ -17577,7 +18824,7 @@
       <c r="A17" s="27"/>
       <c r="B17" s="27"/>
       <c r="C17" s="27" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
@@ -17598,7 +18845,7 @@
       <c r="A18" s="27"/>
       <c r="B18" s="27"/>
       <c r="C18" s="27" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
@@ -17619,7 +18866,7 @@
       <c r="A19" s="27"/>
       <c r="B19" s="27"/>
       <c r="C19" s="27" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
@@ -17640,7 +18887,7 @@
       <c r="A20" s="27"/>
       <c r="B20" s="27"/>
       <c r="C20" s="27" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
@@ -17660,7 +18907,9 @@
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="27"/>
       <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
+      <c r="C21" s="27" t="s">
+        <v>167</v>
+      </c>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
       <c r="F21" s="27"/>
@@ -17680,7 +18929,7 @@
       <c r="A22" s="27"/>
       <c r="B22" s="27"/>
       <c r="C22" s="36" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
@@ -18114,7 +19363,7 @@
         <v>43</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D45" s="27"/>
       <c r="E45" s="27"/>
@@ -18134,7 +19383,7 @@
       <c r="A46" s="27"/>
       <c r="B46" s="27"/>
       <c r="C46" s="36" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="D46" s="27"/>
       <c r="E46" s="27"/>
@@ -18154,22 +19403,22 @@
       <c r="A47" s="27"/>
       <c r="B47" s="27"/>
       <c r="C47" s="96" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D47" s="95" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="E47" s="95"/>
       <c r="F47" s="95"/>
       <c r="G47" s="95"/>
       <c r="H47" s="95" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="I47" s="95"/>
       <c r="J47" s="95"/>
       <c r="K47" s="95"/>
       <c r="L47" s="95" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="M47" s="95"/>
       <c r="N47" s="95"/>
@@ -18180,22 +19429,22 @@
       <c r="A48" s="27"/>
       <c r="B48" s="27"/>
       <c r="C48" s="96" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D48" s="95" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="E48" s="95"/>
       <c r="F48" s="95"/>
       <c r="G48" s="95"/>
       <c r="H48" s="95" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="I48" s="95"/>
       <c r="J48" s="95"/>
       <c r="K48" s="95"/>
       <c r="L48" s="95" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="M48" s="95"/>
       <c r="N48" s="95"/>
@@ -18206,22 +19455,22 @@
       <c r="A49" s="27"/>
       <c r="B49" s="27"/>
       <c r="C49" s="96" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D49" s="95" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="E49" s="95"/>
       <c r="F49" s="95"/>
       <c r="G49" s="95"/>
       <c r="H49" s="95" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="I49" s="95"/>
       <c r="J49" s="95"/>
       <c r="K49" s="95"/>
       <c r="L49" s="95" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="M49" s="95"/>
       <c r="N49" s="95"/>
@@ -18232,30 +19481,30 @@
       <c r="A50" s="27"/>
       <c r="B50" s="27"/>
       <c r="C50" s="97" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="D50" s="98" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="E50" s="98"/>
       <c r="F50" s="98" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="G50" s="98"/>
       <c r="H50" s="98" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="I50" s="98"/>
       <c r="J50" s="98" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="K50" s="98"/>
       <c r="L50" s="98" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="M50" s="98"/>
       <c r="N50" s="98" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="O50" s="98"/>
       <c r="P50" s="27"/>
@@ -18482,32 +19731,30 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="27"/>
-      <c r="B63" s="34">
-        <v>2</v>
-      </c>
-      <c r="C63" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="D63" s="34"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="27"/>
-      <c r="J63" s="27"/>
-      <c r="K63" s="27"/>
-      <c r="L63" s="27"/>
-      <c r="M63" s="27"/>
-      <c r="N63" s="27"/>
-      <c r="O63" s="27"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="99"/>
+      <c r="D63" s="94"/>
+      <c r="E63" s="94"/>
+      <c r="F63" s="94"/>
+      <c r="G63" s="94"/>
+      <c r="H63" s="94"/>
+      <c r="I63" s="94"/>
+      <c r="J63" s="94"/>
+      <c r="K63" s="94"/>
+      <c r="L63" s="94"/>
+      <c r="M63" s="94"/>
+      <c r="N63" s="94"/>
+      <c r="O63" s="94"/>
       <c r="P63" s="27"/>
       <c r="Q63" s="27"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="27"/>
-      <c r="B64" s="27"/>
-      <c r="C64" s="27" t="s">
-        <v>162</v>
+      <c r="B64" s="34">
+        <v>2</v>
+      </c>
+      <c r="C64" s="34" t="s">
+        <v>126</v>
       </c>
       <c r="D64" s="34"/>
       <c r="E64" s="27"/>
@@ -18524,11 +19771,11 @@
       <c r="P64" s="27"/>
       <c r="Q64" s="27"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="27"/>
       <c r="B65" s="27"/>
       <c r="C65" s="27" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D65" s="27"/>
       <c r="E65" s="27"/>
@@ -18544,11 +19791,11 @@
       <c r="O65" s="27"/>
       <c r="P65" s="27"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="27"/>
       <c r="B66" s="27"/>
       <c r="C66" s="27" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D66" s="27"/>
       <c r="E66" s="27"/>
@@ -18564,11 +19811,11 @@
       <c r="O66" s="27"/>
       <c r="P66" s="27"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="27"/>
       <c r="B67" s="27"/>
       <c r="C67" s="27" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="D67" s="27"/>
       <c r="E67" s="27"/>
@@ -18584,11 +19831,11 @@
       <c r="O67" s="27"/>
       <c r="P67" s="27"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="27"/>
       <c r="B68" s="27"/>
       <c r="C68" s="27" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="D68" s="27"/>
       <c r="E68" s="27"/>
@@ -18604,11 +19851,11 @@
       <c r="O68" s="27"/>
       <c r="P68" s="27"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" s="27"/>
       <c r="B69" s="27"/>
-      <c r="C69" s="36" t="s">
-        <v>161</v>
+      <c r="C69" s="27" t="s">
+        <v>178</v>
       </c>
       <c r="D69" s="27"/>
       <c r="E69" s="27"/>
@@ -18624,10 +19871,12 @@
       <c r="O69" s="27"/>
       <c r="P69" s="27"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" s="27"/>
       <c r="B70" s="27"/>
-      <c r="C70" s="27"/>
+      <c r="C70" s="36" t="s">
+        <v>150</v>
+      </c>
       <c r="D70" s="27"/>
       <c r="E70" s="27"/>
       <c r="F70" s="27"/>
@@ -18642,7 +19891,7 @@
       <c r="O70" s="27"/>
       <c r="P70" s="27"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="27"/>
       <c r="B71" s="27"/>
       <c r="C71" s="27"/>
@@ -18660,7 +19909,7 @@
       <c r="O71" s="27"/>
       <c r="P71" s="27"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="27"/>
       <c r="B72" s="27"/>
       <c r="C72" s="27"/>
@@ -18678,7 +19927,7 @@
       <c r="O72" s="27"/>
       <c r="P72" s="27"/>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="27"/>
       <c r="B73" s="27"/>
       <c r="C73" s="27"/>
@@ -18696,7 +19945,7 @@
       <c r="O73" s="27"/>
       <c r="P73" s="27"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" s="27"/>
       <c r="B74" s="27"/>
       <c r="C74" s="27"/>
@@ -18714,7 +19963,7 @@
       <c r="O74" s="27"/>
       <c r="P74" s="27"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" s="27"/>
       <c r="B75" s="27"/>
       <c r="C75" s="27"/>
@@ -18732,7 +19981,7 @@
       <c r="O75" s="27"/>
       <c r="P75" s="27"/>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" s="27"/>
       <c r="B76" s="27"/>
       <c r="C76" s="27"/>
@@ -18750,7 +19999,7 @@
       <c r="O76" s="27"/>
       <c r="P76" s="27"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" s="27"/>
       <c r="B77" s="27"/>
       <c r="C77" s="27"/>
@@ -18768,7 +20017,7 @@
       <c r="O77" s="27"/>
       <c r="P77" s="27"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" s="27"/>
       <c r="B78" s="27"/>
       <c r="C78" s="27"/>
@@ -18786,7 +20035,7 @@
       <c r="O78" s="27"/>
       <c r="P78" s="27"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" s="27"/>
       <c r="B79" s="27"/>
       <c r="C79" s="27"/>
@@ -18804,7 +20053,7 @@
       <c r="O79" s="27"/>
       <c r="P79" s="27"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" s="27"/>
       <c r="B80" s="27"/>
       <c r="C80" s="27"/>
@@ -18821,12 +20070,11 @@
       <c r="N80" s="27"/>
       <c r="O80" s="27"/>
       <c r="P80" s="27"/>
-      <c r="Q80" s="27"/>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="27"/>
       <c r="B81" s="27"/>
-      <c r="C81" s="36"/>
+      <c r="C81" s="27"/>
       <c r="D81" s="27"/>
       <c r="E81" s="27"/>
       <c r="F81" s="27"/>
@@ -18845,7 +20093,7 @@
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="27"/>
       <c r="B82" s="27"/>
-      <c r="C82" s="27"/>
+      <c r="C82" s="36"/>
       <c r="D82" s="27"/>
       <c r="E82" s="27"/>
       <c r="F82" s="27"/>
@@ -18878,6 +20126,7 @@
       <c r="N83" s="27"/>
       <c r="O83" s="27"/>
       <c r="P83" s="27"/>
+      <c r="Q83" s="27"/>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="27"/>
@@ -18968,7 +20217,6 @@
       <c r="N88" s="27"/>
       <c r="O88" s="27"/>
       <c r="P88" s="27"/>
-      <c r="Q88" s="27"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="27"/>
@@ -19008,33 +20256,33 @@
       <c r="P90" s="27"/>
       <c r="Q90" s="27"/>
     </row>
-    <row r="91" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="27"/>
-      <c r="B91" s="44">
-        <v>1</v>
-      </c>
-      <c r="C91" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="D91" s="26"/>
-      <c r="E91" s="26"/>
-      <c r="F91" s="26"/>
-      <c r="G91" s="26"/>
-      <c r="H91" s="26"/>
-      <c r="I91" s="26"/>
-      <c r="J91" s="26"/>
-      <c r="K91" s="26"/>
-      <c r="L91" s="26"/>
-      <c r="M91" s="26"/>
-      <c r="N91" s="26"/>
-      <c r="O91" s="26"/>
+      <c r="B91" s="27"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="27"/>
+      <c r="E91" s="27"/>
+      <c r="F91" s="27"/>
+      <c r="G91" s="27"/>
+      <c r="H91" s="27"/>
+      <c r="I91" s="27"/>
+      <c r="J91" s="27"/>
+      <c r="K91" s="27"/>
+      <c r="L91" s="27"/>
+      <c r="M91" s="27"/>
+      <c r="N91" s="27"/>
+      <c r="O91" s="27"/>
       <c r="P91" s="27"/>
       <c r="Q91" s="27"/>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="27"/>
-      <c r="B92" s="27"/>
-      <c r="C92" s="27"/>
+      <c r="B92" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C92" s="34" t="s">
+        <v>111</v>
+      </c>
       <c r="D92" s="27"/>
       <c r="E92" s="27"/>
       <c r="F92" s="27"/>
@@ -19048,15 +20296,12 @@
       <c r="N92" s="27"/>
       <c r="O92" s="27"/>
       <c r="P92" s="27"/>
-      <c r="Q92" s="27"/>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="27"/>
-      <c r="B93" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C93" s="27" t="s">
-        <v>114</v>
+      <c r="B93" s="27"/>
+      <c r="C93" s="36" t="s">
+        <v>141</v>
       </c>
       <c r="D93" s="27"/>
       <c r="E93" s="27"/>
@@ -19071,18 +20316,19 @@
       <c r="N93" s="27"/>
       <c r="O93" s="27"/>
       <c r="P93" s="27"/>
-      <c r="Q93" s="27"/>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="27"/>
       <c r="B94" s="27"/>
-      <c r="C94" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="D94" s="27"/>
-      <c r="E94" s="27"/>
-      <c r="F94" s="27"/>
-      <c r="G94" s="27"/>
+      <c r="C94" s="96" t="s">
+        <v>139</v>
+      </c>
+      <c r="D94" s="95" t="s">
+        <v>163</v>
+      </c>
+      <c r="E94" s="95"/>
+      <c r="F94" s="95"/>
+      <c r="G94" s="95"/>
       <c r="H94" s="27"/>
       <c r="I94" s="27"/>
       <c r="J94" s="27"/>
@@ -19092,16 +20338,19 @@
       <c r="N94" s="27"/>
       <c r="O94" s="27"/>
       <c r="P94" s="27"/>
-      <c r="Q94" s="27"/>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="27"/>
       <c r="B95" s="27"/>
-      <c r="C95" s="27"/>
-      <c r="D95" s="27"/>
-      <c r="E95" s="27"/>
-      <c r="F95" s="27"/>
-      <c r="G95" s="27"/>
+      <c r="C95" s="96" t="s">
+        <v>144</v>
+      </c>
+      <c r="D95" s="95" t="s">
+        <v>164</v>
+      </c>
+      <c r="E95" s="95"/>
+      <c r="F95" s="95"/>
+      <c r="G95" s="95"/>
       <c r="H95" s="27"/>
       <c r="I95" s="27"/>
       <c r="J95" s="27"/>
@@ -19111,295 +20360,112 @@
       <c r="N95" s="27"/>
       <c r="O95" s="27"/>
       <c r="P95" s="27"/>
-      <c r="Q95" s="27"/>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A96" s="27"/>
-      <c r="B96" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C96" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="D96" s="27"/>
-      <c r="E96" s="27"/>
-      <c r="F96" s="27"/>
-      <c r="G96" s="27"/>
-      <c r="H96" s="27"/>
-      <c r="I96" s="27"/>
-      <c r="J96" s="27"/>
-      <c r="K96" s="27"/>
-      <c r="L96" s="27"/>
-      <c r="M96" s="27"/>
-      <c r="N96" s="27"/>
-      <c r="O96" s="27"/>
-      <c r="P96" s="27"/>
-      <c r="Q96" s="27"/>
+      <c r="B96" s="27"/>
+      <c r="C96" s="96" t="s">
+        <v>140</v>
+      </c>
+      <c r="D96" s="95" t="s">
+        <v>165</v>
+      </c>
+      <c r="E96" s="95"/>
+      <c r="F96" s="95"/>
+      <c r="G96" s="95"/>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A97" s="27"/>
       <c r="B97" s="27"/>
-      <c r="C97" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="D97" s="27"/>
-      <c r="E97" s="27"/>
-      <c r="F97" s="27"/>
-      <c r="G97" s="27"/>
-      <c r="H97" s="27"/>
-      <c r="I97" s="27"/>
-      <c r="J97" s="27"/>
-      <c r="K97" s="27"/>
-      <c r="L97" s="27"/>
-      <c r="M97" s="27"/>
-      <c r="N97" s="27"/>
-      <c r="O97" s="27"/>
-      <c r="P97" s="27"/>
-      <c r="Q97" s="27"/>
+      <c r="C97" s="97" t="s">
+        <v>142</v>
+      </c>
+      <c r="D97" s="98" t="s">
+        <v>135</v>
+      </c>
+      <c r="E97" s="98"/>
+      <c r="F97" s="98" t="s">
+        <v>134</v>
+      </c>
+      <c r="G97" s="98"/>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A98" s="27"/>
       <c r="B98" s="27"/>
-      <c r="C98" s="27"/>
-      <c r="D98" s="27"/>
-      <c r="E98" s="27"/>
-      <c r="F98" s="27"/>
-      <c r="G98" s="27"/>
-      <c r="H98" s="27"/>
-      <c r="I98" s="27"/>
-      <c r="J98" s="27"/>
-      <c r="K98" s="27"/>
-      <c r="L98" s="27"/>
-      <c r="M98" s="27"/>
-      <c r="N98" s="27"/>
-      <c r="O98" s="27"/>
-      <c r="P98" s="27"/>
-      <c r="Q98" s="27"/>
+      <c r="C98" s="97"/>
+      <c r="D98" s="95"/>
+      <c r="E98" s="95"/>
+      <c r="F98" s="95"/>
+      <c r="G98" s="95"/>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A99" s="27"/>
-      <c r="B99" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C99" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="D99" s="27"/>
-      <c r="E99" s="27"/>
-      <c r="F99" s="27"/>
-      <c r="G99" s="27"/>
-      <c r="H99" s="27"/>
-      <c r="I99" s="27"/>
-      <c r="J99" s="27"/>
-      <c r="K99" s="27"/>
-      <c r="L99" s="27"/>
-      <c r="M99" s="27"/>
-      <c r="N99" s="27"/>
-      <c r="O99" s="27"/>
-      <c r="P99" s="27"/>
-      <c r="Q99" s="27"/>
+      <c r="B99" s="27"/>
+      <c r="C99" s="97"/>
+      <c r="D99" s="95"/>
+      <c r="E99" s="95"/>
+      <c r="F99" s="95"/>
+      <c r="G99" s="95"/>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A100" s="27"/>
       <c r="B100" s="27"/>
-      <c r="C100" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="D100" s="27"/>
-      <c r="E100" s="93">
-        <v>37.540616</v>
-      </c>
-      <c r="F100" s="93"/>
-      <c r="G100" s="93">
-        <v>127.126606</v>
-      </c>
-      <c r="H100" s="93"/>
-      <c r="I100" s="27"/>
-      <c r="J100" s="27"/>
-      <c r="K100" s="27"/>
-      <c r="L100" s="27"/>
-      <c r="M100" s="27"/>
-      <c r="N100" s="27"/>
-      <c r="O100" s="27"/>
-      <c r="P100" s="27"/>
-      <c r="Q100" s="27"/>
+      <c r="C100" s="97"/>
+      <c r="D100" s="95"/>
+      <c r="E100" s="95"/>
+      <c r="F100" s="95"/>
+      <c r="G100" s="95"/>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A101" s="27"/>
       <c r="B101" s="27"/>
-      <c r="C101" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="D101" s="27"/>
-      <c r="E101" s="93">
-        <v>37.540447</v>
-      </c>
-      <c r="F101" s="93"/>
-      <c r="G101" s="93">
-        <v>127.12730999999999</v>
-      </c>
-      <c r="H101" s="93"/>
-      <c r="I101" s="27"/>
-      <c r="J101" s="27"/>
-      <c r="K101" s="27"/>
-      <c r="L101" s="27"/>
-      <c r="M101" s="27"/>
-      <c r="N101" s="27"/>
-      <c r="O101" s="27"/>
-      <c r="P101" s="27"/>
-      <c r="Q101" s="27"/>
+      <c r="C101" s="97"/>
+      <c r="D101" s="95"/>
+      <c r="E101" s="95"/>
+      <c r="F101" s="95"/>
+      <c r="G101" s="95"/>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A102" s="27"/>
       <c r="B102" s="27"/>
-      <c r="C102" s="27"/>
-      <c r="D102" s="27"/>
-      <c r="E102" s="27"/>
-      <c r="F102" s="27"/>
-      <c r="G102" s="27"/>
-      <c r="H102" s="27"/>
-      <c r="I102" s="27"/>
-      <c r="J102" s="27"/>
-      <c r="K102" s="27"/>
-      <c r="L102" s="27"/>
-      <c r="M102" s="27"/>
-      <c r="N102" s="27"/>
-      <c r="O102" s="27"/>
-      <c r="P102" s="27"/>
-      <c r="Q102" s="27"/>
+      <c r="C102" s="97"/>
+      <c r="D102" s="95"/>
+      <c r="E102" s="95"/>
+      <c r="F102" s="95"/>
+      <c r="G102" s="95"/>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A103" s="27"/>
       <c r="B103" s="27"/>
-      <c r="C103" s="27"/>
-      <c r="D103" s="27"/>
-      <c r="E103" s="27"/>
-      <c r="F103" s="27"/>
-      <c r="G103" s="27"/>
-      <c r="H103" s="27"/>
-      <c r="I103" s="27"/>
-      <c r="J103" s="27"/>
-      <c r="K103" s="27"/>
-      <c r="L103" s="27"/>
-      <c r="M103" s="27"/>
-      <c r="N103" s="27"/>
-      <c r="O103" s="27"/>
-      <c r="P103" s="27"/>
-      <c r="Q103" s="27"/>
+      <c r="C103" s="97"/>
+      <c r="D103" s="95"/>
+      <c r="E103" s="95"/>
+      <c r="F103" s="95"/>
+      <c r="G103" s="95"/>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A104" s="27"/>
       <c r="B104" s="27"/>
-      <c r="C104" s="27"/>
-      <c r="D104" s="27"/>
-      <c r="E104" s="27"/>
-      <c r="F104" s="27"/>
-      <c r="G104" s="27"/>
-      <c r="H104" s="27"/>
-      <c r="I104" s="27"/>
-      <c r="J104" s="27"/>
-      <c r="K104" s="27"/>
-      <c r="L104" s="27"/>
-      <c r="M104" s="27"/>
-      <c r="N104" s="27"/>
-      <c r="O104" s="27"/>
-      <c r="P104" s="27"/>
-      <c r="Q104" s="27"/>
+      <c r="C104" s="97"/>
+      <c r="D104" s="95"/>
+      <c r="E104" s="95"/>
+      <c r="F104" s="95"/>
+      <c r="G104" s="95"/>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A105" s="27"/>
       <c r="B105" s="27"/>
-      <c r="C105" s="27"/>
-      <c r="D105" s="27"/>
-      <c r="E105" s="27"/>
-      <c r="F105" s="27"/>
-      <c r="G105" s="27"/>
-      <c r="H105" s="27"/>
-      <c r="I105" s="27"/>
-      <c r="J105" s="27"/>
-      <c r="K105" s="27"/>
-      <c r="L105" s="27"/>
-      <c r="M105" s="27"/>
-      <c r="N105" s="27"/>
-      <c r="O105" s="27"/>
-      <c r="P105" s="27"/>
-      <c r="Q105" s="27"/>
+      <c r="C105" s="97"/>
+      <c r="D105" s="95"/>
+      <c r="E105" s="95"/>
+      <c r="F105" s="95"/>
+      <c r="G105" s="95"/>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A106" s="27"/>
       <c r="B106" s="27"/>
-      <c r="C106" s="27"/>
-      <c r="D106" s="27"/>
-      <c r="E106" s="27"/>
-      <c r="F106" s="27"/>
-      <c r="G106" s="27"/>
-      <c r="H106" s="27"/>
-      <c r="I106" s="27"/>
-      <c r="J106" s="27"/>
-      <c r="K106" s="27"/>
-      <c r="L106" s="27"/>
-      <c r="M106" s="27"/>
-      <c r="N106" s="27"/>
-      <c r="O106" s="27"/>
-      <c r="P106" s="27"/>
-      <c r="Q106" s="27"/>
+      <c r="C106" s="97"/>
+      <c r="D106" s="95"/>
+      <c r="E106" s="95"/>
+      <c r="F106" s="95"/>
+      <c r="G106" s="95"/>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A107" s="27"/>
       <c r="B107" s="27"/>
-      <c r="C107" s="27"/>
-      <c r="D107" s="27"/>
-      <c r="E107" s="27"/>
-      <c r="F107" s="27"/>
-      <c r="G107" s="27"/>
-      <c r="H107" s="27"/>
-      <c r="I107" s="27"/>
-      <c r="J107" s="27"/>
-      <c r="K107" s="27"/>
-      <c r="L107" s="27"/>
-      <c r="M107" s="27"/>
-      <c r="N107" s="27"/>
-      <c r="O107" s="27"/>
-      <c r="P107" s="27"/>
-      <c r="Q107" s="27"/>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A108" s="27"/>
-      <c r="B108" s="27"/>
-      <c r="C108" s="27"/>
-      <c r="D108" s="27"/>
-      <c r="E108" s="27"/>
-      <c r="F108" s="27"/>
-      <c r="G108" s="27"/>
-      <c r="H108" s="27"/>
-      <c r="I108" s="27"/>
-      <c r="J108" s="27"/>
-      <c r="K108" s="27"/>
-      <c r="L108" s="27"/>
-      <c r="M108" s="27"/>
-      <c r="N108" s="27"/>
-      <c r="O108" s="27"/>
-      <c r="P108" s="27"/>
-      <c r="Q108" s="27"/>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A109" s="27"/>
-      <c r="B109" s="27"/>
-      <c r="C109" s="27"/>
-      <c r="D109" s="27"/>
-      <c r="E109" s="27"/>
-      <c r="F109" s="27"/>
-      <c r="G109" s="27"/>
-      <c r="H109" s="27"/>
-      <c r="I109" s="27"/>
-      <c r="J109" s="27"/>
-      <c r="K109" s="27"/>
-      <c r="L109" s="27"/>
-      <c r="M109" s="27"/>
-      <c r="N109" s="27"/>
-      <c r="O109" s="27"/>
-      <c r="P109" s="27"/>
-      <c r="Q109" s="27"/>
+      <c r="C107" s="97"/>
+      <c r="D107" s="95"/>
+      <c r="E107" s="95"/>
+      <c r="F107" s="95"/>
+      <c r="G107" s="95"/>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" s="27"/>
@@ -19420,23 +20486,27 @@
       <c r="P110" s="27"/>
       <c r="Q110" s="27"/>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="27"/>
-      <c r="B111" s="27"/>
-      <c r="C111" s="27"/>
-      <c r="D111" s="27"/>
-      <c r="E111" s="27"/>
-      <c r="F111" s="27"/>
-      <c r="G111" s="27"/>
-      <c r="H111" s="27"/>
-      <c r="I111" s="27"/>
-      <c r="J111" s="27"/>
-      <c r="K111" s="27"/>
-      <c r="L111" s="27"/>
-      <c r="M111" s="27"/>
-      <c r="N111" s="27"/>
-      <c r="O111" s="27"/>
-      <c r="P111" s="27"/>
+      <c r="B111" s="44">
+        <v>1</v>
+      </c>
+      <c r="C111" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="D111" s="26"/>
+      <c r="E111" s="26"/>
+      <c r="F111" s="26"/>
+      <c r="G111" s="26"/>
+      <c r="H111" s="26"/>
+      <c r="I111" s="26"/>
+      <c r="J111" s="26"/>
+      <c r="K111" s="26"/>
+      <c r="L111" s="26"/>
+      <c r="M111" s="26"/>
+      <c r="N111" s="26"/>
+      <c r="O111" s="26"/>
+      <c r="P111" s="26"/>
       <c r="Q111" s="27"/>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.3">
@@ -19460,8 +20530,12 @@
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" s="27"/>
-      <c r="B113" s="27"/>
-      <c r="C113" s="27"/>
+      <c r="B113" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C113" s="27" t="s">
+        <v>108</v>
+      </c>
       <c r="D113" s="27"/>
       <c r="E113" s="27"/>
       <c r="F113" s="27"/>
@@ -19480,7 +20554,9 @@
     <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" s="27"/>
       <c r="B114" s="27"/>
-      <c r="C114" s="27"/>
+      <c r="C114" s="27" t="s">
+        <v>114</v>
+      </c>
       <c r="D114" s="27"/>
       <c r="E114" s="27"/>
       <c r="F114" s="27"/>
@@ -19517,8 +20593,12 @@
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" s="27"/>
-      <c r="B116" s="27"/>
-      <c r="C116" s="27"/>
+      <c r="B116" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C116" s="27" t="s">
+        <v>109</v>
+      </c>
       <c r="D116" s="27"/>
       <c r="E116" s="27"/>
       <c r="F116" s="27"/>
@@ -19537,7 +20617,9 @@
     <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" s="27"/>
       <c r="B117" s="27"/>
-      <c r="C117" s="27"/>
+      <c r="C117" s="27" t="s">
+        <v>155</v>
+      </c>
       <c r="D117" s="27"/>
       <c r="E117" s="27"/>
       <c r="F117" s="27"/>
@@ -19574,8 +20656,12 @@
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119" s="27"/>
-      <c r="B119" s="27"/>
-      <c r="C119" s="27"/>
+      <c r="B119" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C119" s="27" t="s">
+        <v>110</v>
+      </c>
       <c r="D119" s="27"/>
       <c r="E119" s="27"/>
       <c r="F119" s="27"/>
@@ -19594,7 +20680,9 @@
     <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120" s="27"/>
       <c r="B120" s="27"/>
-      <c r="C120" s="27"/>
+      <c r="C120" s="27" t="s">
+        <v>172</v>
+      </c>
       <c r="D120" s="27"/>
       <c r="E120" s="27"/>
       <c r="F120" s="27"/>
@@ -19613,7 +20701,9 @@
     <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121" s="27"/>
       <c r="B121" s="27"/>
-      <c r="C121" s="27"/>
+      <c r="C121" s="27" t="s">
+        <v>173</v>
+      </c>
       <c r="D121" s="27"/>
       <c r="E121" s="27"/>
       <c r="F121" s="27"/>
@@ -19631,12 +20721,8 @@
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A122" s="27"/>
-      <c r="B122" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C122" s="27" t="s">
-        <v>117</v>
-      </c>
+      <c r="B122" s="27"/>
+      <c r="C122" s="27"/>
       <c r="D122" s="27"/>
       <c r="E122" s="27"/>
       <c r="F122" s="27"/>
@@ -19655,12 +20741,18 @@
     <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A123" s="27"/>
       <c r="B123" s="27"/>
-      <c r="C123" s="27"/>
-      <c r="D123" s="27"/>
-      <c r="E123" s="27"/>
-      <c r="F123" s="27"/>
-      <c r="G123" s="27"/>
-      <c r="H123" s="27"/>
+      <c r="C123" s="97" t="s">
+        <v>156</v>
+      </c>
+      <c r="D123" s="97"/>
+      <c r="E123" s="95">
+        <v>37.540616</v>
+      </c>
+      <c r="F123" s="95"/>
+      <c r="G123" s="95">
+        <v>127.126606</v>
+      </c>
+      <c r="H123" s="95"/>
       <c r="I123" s="27"/>
       <c r="J123" s="27"/>
       <c r="K123" s="27"/>
@@ -19674,12 +20766,18 @@
     <row r="124" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A124" s="27"/>
       <c r="B124" s="27"/>
-      <c r="C124" s="27"/>
-      <c r="D124" s="27"/>
-      <c r="E124" s="27"/>
-      <c r="F124" s="27"/>
-      <c r="G124" s="27"/>
-      <c r="H124" s="27"/>
+      <c r="C124" s="97" t="s">
+        <v>157</v>
+      </c>
+      <c r="D124" s="97"/>
+      <c r="E124" s="95">
+        <v>37.540447</v>
+      </c>
+      <c r="F124" s="95"/>
+      <c r="G124" s="95">
+        <v>127.12730999999999</v>
+      </c>
+      <c r="H124" s="95"/>
       <c r="I124" s="27"/>
       <c r="J124" s="27"/>
       <c r="K124" s="27"/>
@@ -19693,12 +20791,12 @@
     <row r="125" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A125" s="27"/>
       <c r="B125" s="27"/>
-      <c r="C125" s="27"/>
-      <c r="D125" s="27"/>
-      <c r="E125" s="27"/>
-      <c r="F125" s="27"/>
-      <c r="G125" s="27"/>
-      <c r="H125" s="27"/>
+      <c r="C125" s="99"/>
+      <c r="D125" s="99"/>
+      <c r="E125" s="94"/>
+      <c r="F125" s="94"/>
+      <c r="G125" s="94"/>
+      <c r="H125" s="94"/>
       <c r="I125" s="27"/>
       <c r="J125" s="27"/>
       <c r="K125" s="27"/>
@@ -19707,6 +20805,7 @@
       <c r="N125" s="27"/>
       <c r="O125" s="27"/>
       <c r="P125" s="27"/>
+      <c r="Q125" s="27"/>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A126" s="27"/>
@@ -19725,6 +20824,7 @@
       <c r="N126" s="27"/>
       <c r="O126" s="27"/>
       <c r="P126" s="27"/>
+      <c r="Q126" s="27"/>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A127" s="27"/>
@@ -19743,6 +20843,7 @@
       <c r="N127" s="27"/>
       <c r="O127" s="27"/>
       <c r="P127" s="27"/>
+      <c r="Q127" s="27"/>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A128" s="27"/>
@@ -19761,9 +20862,504 @@
       <c r="N128" s="27"/>
       <c r="O128" s="27"/>
       <c r="P128" s="27"/>
+      <c r="Q128" s="27"/>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A129" s="27"/>
+      <c r="B129" s="27"/>
+      <c r="C129" s="27"/>
+      <c r="D129" s="27"/>
+      <c r="E129" s="27"/>
+      <c r="F129" s="27"/>
+      <c r="G129" s="27"/>
+      <c r="H129" s="27"/>
+      <c r="I129" s="27"/>
+      <c r="J129" s="27"/>
+      <c r="K129" s="27"/>
+      <c r="L129" s="27"/>
+      <c r="M129" s="27"/>
+      <c r="N129" s="27"/>
+      <c r="O129" s="27"/>
+      <c r="P129" s="27"/>
+      <c r="Q129" s="27"/>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A130" s="27"/>
+      <c r="B130" s="27"/>
+      <c r="C130" s="27"/>
+      <c r="D130" s="27"/>
+      <c r="E130" s="27"/>
+      <c r="F130" s="27"/>
+      <c r="G130" s="27"/>
+      <c r="H130" s="27"/>
+      <c r="I130" s="27"/>
+      <c r="J130" s="27"/>
+      <c r="K130" s="27"/>
+      <c r="L130" s="27"/>
+      <c r="M130" s="27"/>
+      <c r="N130" s="27"/>
+      <c r="O130" s="27"/>
+      <c r="P130" s="27"/>
+      <c r="Q130" s="27"/>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A131" s="27"/>
+      <c r="B131" s="27"/>
+      <c r="C131" s="27"/>
+      <c r="D131" s="27"/>
+      <c r="E131" s="27"/>
+      <c r="F131" s="27"/>
+      <c r="G131" s="27"/>
+      <c r="H131" s="27"/>
+      <c r="I131" s="27"/>
+      <c r="J131" s="27"/>
+      <c r="K131" s="27"/>
+      <c r="L131" s="27"/>
+      <c r="M131" s="27"/>
+      <c r="N131" s="27"/>
+      <c r="O131" s="27"/>
+      <c r="P131" s="27"/>
+      <c r="Q131" s="27"/>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A132" s="27"/>
+      <c r="B132" s="27"/>
+      <c r="C132" s="27"/>
+      <c r="D132" s="27"/>
+      <c r="E132" s="27"/>
+      <c r="F132" s="27"/>
+      <c r="G132" s="27"/>
+      <c r="H132" s="27"/>
+      <c r="I132" s="27"/>
+      <c r="J132" s="27"/>
+      <c r="K132" s="27"/>
+      <c r="L132" s="27"/>
+      <c r="M132" s="27"/>
+      <c r="N132" s="27"/>
+      <c r="O132" s="27"/>
+      <c r="P132" s="27"/>
+      <c r="Q132" s="27"/>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A133" s="27"/>
+      <c r="B133" s="27"/>
+      <c r="C133" s="27"/>
+      <c r="D133" s="27"/>
+      <c r="E133" s="27"/>
+      <c r="F133" s="27"/>
+      <c r="G133" s="27"/>
+      <c r="H133" s="27"/>
+      <c r="I133" s="27"/>
+      <c r="J133" s="27"/>
+      <c r="K133" s="27"/>
+      <c r="L133" s="27"/>
+      <c r="M133" s="27"/>
+      <c r="N133" s="27"/>
+      <c r="O133" s="27"/>
+      <c r="P133" s="27"/>
+      <c r="Q133" s="27"/>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A134" s="27"/>
+      <c r="B134" s="27"/>
+      <c r="C134" s="27"/>
+      <c r="D134" s="27"/>
+      <c r="E134" s="27"/>
+      <c r="F134" s="27"/>
+      <c r="G134" s="27"/>
+      <c r="H134" s="27"/>
+      <c r="I134" s="27"/>
+      <c r="J134" s="27"/>
+      <c r="K134" s="27"/>
+      <c r="L134" s="27"/>
+      <c r="M134" s="27"/>
+      <c r="N134" s="27"/>
+      <c r="O134" s="27"/>
+      <c r="P134" s="27"/>
+      <c r="Q134" s="27"/>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A135" s="27"/>
+      <c r="B135" s="27"/>
+      <c r="C135" s="27"/>
+      <c r="D135" s="27"/>
+      <c r="E135" s="27"/>
+      <c r="F135" s="27"/>
+      <c r="G135" s="27"/>
+      <c r="H135" s="27"/>
+      <c r="I135" s="27"/>
+      <c r="J135" s="27"/>
+      <c r="K135" s="27"/>
+      <c r="L135" s="27"/>
+      <c r="M135" s="27"/>
+      <c r="N135" s="27"/>
+      <c r="O135" s="27"/>
+      <c r="P135" s="27"/>
+      <c r="Q135" s="27"/>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A136" s="27"/>
+      <c r="B136" s="27"/>
+      <c r="C136" s="27"/>
+      <c r="D136" s="27"/>
+      <c r="E136" s="27"/>
+      <c r="F136" s="27"/>
+      <c r="G136" s="27"/>
+      <c r="H136" s="27"/>
+      <c r="I136" s="27"/>
+      <c r="J136" s="27"/>
+      <c r="K136" s="27"/>
+      <c r="L136" s="27"/>
+      <c r="M136" s="27"/>
+      <c r="N136" s="27"/>
+      <c r="O136" s="27"/>
+      <c r="P136" s="27"/>
+      <c r="Q136" s="27"/>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A137" s="27"/>
+      <c r="B137" s="27"/>
+      <c r="C137" s="27"/>
+      <c r="D137" s="27"/>
+      <c r="E137" s="27"/>
+      <c r="F137" s="27"/>
+      <c r="G137" s="27"/>
+      <c r="H137" s="27"/>
+      <c r="I137" s="27"/>
+      <c r="J137" s="27"/>
+      <c r="K137" s="27"/>
+      <c r="L137" s="27"/>
+      <c r="M137" s="27"/>
+      <c r="N137" s="27"/>
+      <c r="O137" s="27"/>
+      <c r="P137" s="27"/>
+      <c r="Q137" s="27"/>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A138" s="27"/>
+      <c r="B138" s="27"/>
+      <c r="C138" s="27"/>
+      <c r="D138" s="27"/>
+      <c r="E138" s="27"/>
+      <c r="F138" s="27"/>
+      <c r="G138" s="27"/>
+      <c r="H138" s="27"/>
+      <c r="I138" s="27"/>
+      <c r="J138" s="27"/>
+      <c r="K138" s="27"/>
+      <c r="L138" s="27"/>
+      <c r="M138" s="27"/>
+      <c r="N138" s="27"/>
+      <c r="O138" s="27"/>
+      <c r="P138" s="27"/>
+      <c r="Q138" s="27"/>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A139" s="27"/>
+      <c r="B139" s="27"/>
+      <c r="C139" s="27"/>
+      <c r="D139" s="27"/>
+      <c r="E139" s="27"/>
+      <c r="F139" s="27"/>
+      <c r="G139" s="27"/>
+      <c r="H139" s="27"/>
+      <c r="I139" s="27"/>
+      <c r="J139" s="27"/>
+      <c r="K139" s="27"/>
+      <c r="L139" s="27"/>
+      <c r="M139" s="27"/>
+      <c r="N139" s="27"/>
+      <c r="O139" s="27"/>
+      <c r="P139" s="27"/>
+      <c r="Q139" s="27"/>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A140" s="27"/>
+      <c r="B140" s="27"/>
+      <c r="C140" s="27"/>
+      <c r="D140" s="27"/>
+      <c r="E140" s="27"/>
+      <c r="F140" s="27"/>
+      <c r="G140" s="27"/>
+      <c r="H140" s="27"/>
+      <c r="I140" s="27"/>
+      <c r="J140" s="27"/>
+      <c r="K140" s="27"/>
+      <c r="L140" s="27"/>
+      <c r="M140" s="27"/>
+      <c r="N140" s="27"/>
+      <c r="O140" s="27"/>
+      <c r="P140" s="27"/>
+      <c r="Q140" s="27"/>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A141" s="27"/>
+      <c r="B141" s="27"/>
+      <c r="C141" s="27"/>
+      <c r="D141" s="27"/>
+      <c r="E141" s="27"/>
+      <c r="F141" s="27"/>
+      <c r="G141" s="27"/>
+      <c r="H141" s="27"/>
+      <c r="I141" s="27"/>
+      <c r="J141" s="27"/>
+      <c r="K141" s="27"/>
+      <c r="L141" s="27"/>
+      <c r="M141" s="27"/>
+      <c r="N141" s="27"/>
+      <c r="O141" s="27"/>
+      <c r="P141" s="27"/>
+      <c r="Q141" s="27"/>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A142" s="27"/>
+      <c r="B142" s="27"/>
+      <c r="C142" s="27"/>
+      <c r="D142" s="27"/>
+      <c r="E142" s="27"/>
+      <c r="F142" s="27"/>
+      <c r="G142" s="27"/>
+      <c r="H142" s="27"/>
+      <c r="I142" s="27"/>
+      <c r="J142" s="27"/>
+      <c r="K142" s="27"/>
+      <c r="L142" s="27"/>
+      <c r="M142" s="27"/>
+      <c r="N142" s="27"/>
+      <c r="O142" s="27"/>
+      <c r="P142" s="27"/>
+      <c r="Q142" s="27"/>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A143" s="27"/>
+      <c r="B143" s="27"/>
+      <c r="C143" s="27"/>
+      <c r="D143" s="27"/>
+      <c r="E143" s="27"/>
+      <c r="F143" s="27"/>
+      <c r="G143" s="27"/>
+      <c r="H143" s="27"/>
+      <c r="I143" s="27"/>
+      <c r="J143" s="27"/>
+      <c r="K143" s="27"/>
+      <c r="L143" s="27"/>
+      <c r="M143" s="27"/>
+      <c r="N143" s="100"/>
+      <c r="O143" s="100" t="s">
+        <v>168</v>
+      </c>
+      <c r="P143" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q143" s="27"/>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A144" s="27"/>
+      <c r="B144" s="27"/>
+      <c r="C144" s="27"/>
+      <c r="D144" s="27"/>
+      <c r="E144" s="27"/>
+      <c r="F144" s="27"/>
+      <c r="G144" s="27"/>
+      <c r="H144" s="27"/>
+      <c r="I144" s="27"/>
+      <c r="J144" s="27"/>
+      <c r="K144" s="27"/>
+      <c r="L144" s="27"/>
+      <c r="M144" s="27"/>
+      <c r="N144" s="36"/>
+      <c r="O144" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="P144" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q144" s="27"/>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A145" s="27"/>
+      <c r="B145" s="27"/>
+      <c r="C145" s="27"/>
+      <c r="D145" s="27"/>
+      <c r="E145" s="27"/>
+      <c r="F145" s="27"/>
+      <c r="G145" s="27"/>
+      <c r="H145" s="27"/>
+      <c r="I145" s="27"/>
+      <c r="J145" s="27"/>
+      <c r="K145" s="27"/>
+      <c r="L145" s="27"/>
+      <c r="M145" s="27"/>
+      <c r="N145" s="27"/>
+      <c r="O145" s="27"/>
+      <c r="P145" s="27"/>
+      <c r="Q145" s="27"/>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A146" s="27"/>
+      <c r="B146" s="27"/>
+      <c r="C146" s="27"/>
+      <c r="D146" s="27"/>
+      <c r="E146" s="27"/>
+      <c r="F146" s="27"/>
+      <c r="G146" s="27"/>
+      <c r="H146" s="27"/>
+      <c r="I146" s="27"/>
+      <c r="J146" s="27"/>
+      <c r="K146" s="27"/>
+      <c r="L146" s="27"/>
+      <c r="M146" s="27"/>
+      <c r="N146" s="27"/>
+      <c r="O146" s="27"/>
+      <c r="P146" s="27"/>
+      <c r="Q146" s="27"/>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A147" s="27"/>
+      <c r="B147" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C147" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D147" s="27"/>
+      <c r="E147" s="27"/>
+      <c r="F147" s="27"/>
+      <c r="G147" s="27"/>
+      <c r="H147" s="27"/>
+      <c r="I147" s="27"/>
+      <c r="J147" s="27"/>
+      <c r="K147" s="27"/>
+      <c r="L147" s="27"/>
+      <c r="M147" s="27"/>
+      <c r="N147" s="27"/>
+      <c r="O147" s="27"/>
+      <c r="P147" s="27"/>
+      <c r="Q147" s="27"/>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A148" s="27"/>
+      <c r="B148" s="27"/>
+      <c r="C148" s="27"/>
+      <c r="D148" s="27"/>
+      <c r="E148" s="27"/>
+      <c r="F148" s="27"/>
+      <c r="G148" s="27"/>
+      <c r="H148" s="27"/>
+      <c r="I148" s="27"/>
+      <c r="J148" s="27"/>
+      <c r="K148" s="27"/>
+      <c r="L148" s="27"/>
+      <c r="M148" s="27"/>
+      <c r="N148" s="27"/>
+      <c r="O148" s="27"/>
+      <c r="P148" s="27"/>
+      <c r="Q148" s="27"/>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A149" s="27"/>
+      <c r="B149" s="27"/>
+      <c r="C149" s="27"/>
+      <c r="D149" s="27"/>
+      <c r="E149" s="27"/>
+      <c r="F149" s="27"/>
+      <c r="G149" s="27"/>
+      <c r="H149" s="27"/>
+      <c r="I149" s="27"/>
+      <c r="J149" s="27"/>
+      <c r="K149" s="27"/>
+      <c r="L149" s="27"/>
+      <c r="M149" s="27"/>
+      <c r="N149" s="27"/>
+      <c r="O149" s="27"/>
+      <c r="P149" s="27"/>
+      <c r="Q149" s="27"/>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A150" s="27"/>
+      <c r="B150" s="27"/>
+      <c r="C150" s="27"/>
+      <c r="D150" s="27"/>
+      <c r="E150" s="27"/>
+      <c r="F150" s="27"/>
+      <c r="G150" s="27"/>
+      <c r="H150" s="27"/>
+      <c r="I150" s="27"/>
+      <c r="J150" s="27"/>
+      <c r="K150" s="27"/>
+      <c r="L150" s="27"/>
+      <c r="M150" s="27"/>
+      <c r="N150" s="27"/>
+      <c r="O150" s="27"/>
+      <c r="P150" s="27"/>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A151" s="27"/>
+      <c r="B151" s="27"/>
+      <c r="C151" s="27"/>
+      <c r="D151" s="27"/>
+      <c r="E151" s="27"/>
+      <c r="F151" s="27"/>
+      <c r="G151" s="27"/>
+      <c r="H151" s="27"/>
+      <c r="I151" s="27"/>
+      <c r="J151" s="27"/>
+      <c r="K151" s="27"/>
+      <c r="L151" s="27"/>
+      <c r="M151" s="27"/>
+      <c r="N151" s="27"/>
+      <c r="O151" s="27"/>
+      <c r="P151" s="27"/>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A152" s="27"/>
+      <c r="B152" s="27"/>
+      <c r="C152" s="27"/>
+      <c r="D152" s="27"/>
+      <c r="E152" s="27"/>
+      <c r="F152" s="27"/>
+      <c r="G152" s="27"/>
+      <c r="H152" s="27"/>
+      <c r="I152" s="27"/>
+      <c r="J152" s="27"/>
+      <c r="K152" s="27"/>
+      <c r="L152" s="27"/>
+      <c r="M152" s="27"/>
+      <c r="N152" s="27"/>
+      <c r="O152" s="27"/>
+      <c r="P152" s="27"/>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A153" s="27"/>
+      <c r="B153" s="27"/>
+      <c r="C153" s="27"/>
+      <c r="D153" s="27"/>
+      <c r="E153" s="27"/>
+      <c r="F153" s="27"/>
+      <c r="G153" s="27"/>
+      <c r="H153" s="27"/>
+      <c r="I153" s="27"/>
+      <c r="J153" s="27"/>
+      <c r="K153" s="27"/>
+      <c r="L153" s="27"/>
+      <c r="M153" s="27"/>
+      <c r="N153" s="27"/>
+      <c r="O153" s="27"/>
+      <c r="P153" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="37">
+    <mergeCell ref="B2:P3"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="D94:G94"/>
+    <mergeCell ref="D95:G95"/>
+    <mergeCell ref="D96:G96"/>
+    <mergeCell ref="C97:C107"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="D98:E107"/>
+    <mergeCell ref="F98:G107"/>
     <mergeCell ref="L49:O49"/>
     <mergeCell ref="D51:E60"/>
     <mergeCell ref="F51:G60"/>
@@ -19771,15 +21367,14 @@
     <mergeCell ref="J51:K60"/>
     <mergeCell ref="L51:M60"/>
     <mergeCell ref="N51:O60"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="G124:H124"/>
     <mergeCell ref="C50:C60"/>
     <mergeCell ref="D50:E50"/>
     <mergeCell ref="F50:G50"/>
     <mergeCell ref="H50:I50"/>
-    <mergeCell ref="B2:O3"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="G123:H123"/>
     <mergeCell ref="J50:K50"/>
     <mergeCell ref="L50:M50"/>
     <mergeCell ref="N50:O50"/>
@@ -19823,50 +21418,50 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C3" s="77" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="77"/>
-      <c r="T3" s="77"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="77"/>
+      <c r="C3" s="78" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="78"/>
     </row>
     <row r="4" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77"/>
-      <c r="T4" s="77"/>
-      <c r="U4" s="77"/>
-      <c r="V4" s="77"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="78"/>
+      <c r="O4" s="78"/>
+      <c r="P4" s="78"/>
+      <c r="Q4" s="78"/>
+      <c r="R4" s="78"/>
+      <c r="S4" s="78"/>
+      <c r="T4" s="78"/>
+      <c r="U4" s="78"/>
+      <c r="V4" s="78"/>
     </row>
     <row r="6" spans="3:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="14"/>
@@ -19905,7 +21500,7 @@
     </row>
     <row r="9" spans="3:22" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="3:22" x14ac:dyDescent="0.3">
@@ -19921,7 +21516,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="3:22" x14ac:dyDescent="0.3">
@@ -19968,7 +21563,7 @@
     <row r="27" spans="3:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C27" s="12"/>
       <c r="D27" s="11" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
@@ -20064,7 +21659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AH9"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
@@ -20097,51 +21692,51 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="89" t="s">
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="88"/>
-      <c r="L3" s="90" t="s">
+      <c r="K3" s="89"/>
+      <c r="L3" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="90"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="91"/>
-      <c r="S3" s="91"/>
-      <c r="T3" s="91"/>
-      <c r="U3" s="91"/>
-      <c r="V3" s="91"/>
-      <c r="W3" s="86"/>
-      <c r="X3" s="92" t="s">
+      <c r="M3" s="91"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="92"/>
+      <c r="R3" s="92"/>
+      <c r="S3" s="92"/>
+      <c r="T3" s="92"/>
+      <c r="U3" s="92"/>
+      <c r="V3" s="92"/>
+      <c r="W3" s="87"/>
+      <c r="X3" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="Y3" s="86"/>
-      <c r="Z3" s="89" t="s">
+      <c r="Y3" s="87"/>
+      <c r="Z3" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="AA3" s="87"/>
-      <c r="AB3" s="88"/>
-      <c r="AC3" s="84" t="s">
+      <c r="AA3" s="88"/>
+      <c r="AB3" s="89"/>
+      <c r="AC3" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="85"/>
+      <c r="AD3" s="86"/>
+      <c r="AE3" s="86"/>
+      <c r="AF3" s="86"/>
+      <c r="AG3" s="86"/>
+      <c r="AH3" s="86"/>
     </row>
     <row r="4" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
@@ -20216,11 +21811,11 @@
       <c r="Y4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Z4" s="78" t="s">
+      <c r="Z4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="AA4" s="79"/>
-      <c r="AB4" s="80"/>
+      <c r="AA4" s="80"/>
+      <c r="AB4" s="81"/>
       <c r="AC4" s="3" t="s">
         <v>10</v>
       </c>
@@ -20296,7 +21891,7 @@
         <v>25</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="U5" s="5" t="s">
         <v>26</v>
@@ -20313,11 +21908,11 @@
       <c r="Y5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Z5" s="81" t="s">
+      <c r="Z5" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="AA5" s="82"/>
-      <c r="AB5" s="83"/>
+      <c r="AA5" s="83"/>
+      <c r="AB5" s="84"/>
       <c r="AC5" s="6" t="s">
         <v>32</v>
       </c>
@@ -20342,7 +21937,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
@@ -20355,10 +21950,10 @@
         <v>127.12781099999999</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -20391,7 +21986,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D7" s="5">
         <v>3</v>
@@ -20404,10 +21999,10 @@
         <v>127.127611</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -20425,9 +22020,9 @@
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="17"/>
-      <c r="Z7" s="81"/>
-      <c r="AA7" s="82"/>
-      <c r="AB7" s="83"/>
+      <c r="Z7" s="82"/>
+      <c r="AA7" s="83"/>
+      <c r="AB7" s="84"/>
       <c r="AC7" s="6"/>
       <c r="AD7" s="5"/>
       <c r="AE7" s="5"/>
@@ -20440,7 +22035,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D8" s="5">
         <v>4</v>
@@ -20453,10 +22048,10 @@
         <v>127.127291</v>
       </c>
       <c r="H8" s="40" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -20474,9 +22069,9 @@
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="17"/>
-      <c r="Z8" s="81"/>
-      <c r="AA8" s="82"/>
-      <c r="AB8" s="83"/>
+      <c r="Z8" s="82"/>
+      <c r="AA8" s="83"/>
+      <c r="AB8" s="84"/>
       <c r="AC8" s="21"/>
       <c r="AD8" s="5"/>
       <c r="AE8" s="5"/>
@@ -20514,7 +22109,7 @@
   <dimension ref="B2:D37"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
